--- a/original-sources/dshs.xlsx
+++ b/original-sources/dshs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36AA656B-AFDC-4354-83AA-131C8A8312A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C091624-1572-4BF3-987F-9A081EF0845A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,11 @@
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
     <sheet name="Trends" sheetId="2" r:id="rId2"/>
     <sheet name="Recoveries" sheetId="3" r:id="rId3"/>
-    <sheet name="Tests by day" sheetId="13" r:id="rId4"/>
-    <sheet name="Tests" sheetId="4" r:id="rId5"/>
-    <sheet name="Antibody Tests" sheetId="14" r:id="rId6"/>
+    <sheet name="Tests" sheetId="4" r:id="rId4"/>
+    <sheet name="Tests by day" sheetId="12" r:id="rId5"/>
+    <sheet name="Antibody Tests" sheetId="13" r:id="rId6"/>
     <sheet name="Hospitalizations" sheetId="5" r:id="rId7"/>
-    <sheet name="Hospitalization by Day" sheetId="12" r:id="rId8"/>
+    <sheet name="Hospitalization by Day" sheetId="14" r:id="rId8"/>
     <sheet name="Cases by Age Group" sheetId="6" r:id="rId9"/>
     <sheet name="Cases by Gender" sheetId="7" r:id="rId10"/>
     <sheet name="Cases by RaceEthnicity" sheetId="8" r:id="rId11"/>
@@ -28,14 +28,14 @@
     <sheet name="Fatalities by Gender" sheetId="10" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="11" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="330">
   <si>
-    <t>COVID-19 Cases and Fatalities by County as of 5/26 at 10:45AM CST</t>
+    <t>COVID-19 Cases and Fatalities by County as of 5/27 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 5/26 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 5/27 at 10:45AM CST</t>
   </si>
   <si>
     <t>Date</t>
@@ -836,7 +836,7 @@
 Fatalities</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 5/26 at 9:30AM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 5/27 at 9:30AM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -848,7 +848,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 5/26 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 5/27 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -869,7 +869,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 5/26 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 5/27 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -890,7 +890,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 5/26 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 5/27 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -945,10 +945,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          14,773</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 5/26 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          14,786</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 5/27 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -960,7 +960,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 5/26 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 5/27 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -981,22 +981,16 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 5/26 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =          491</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 5/26 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 5/26 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Obs</t>
-  </si>
-  <si>
-    <t>Hospitalizations</t>
+    <t>Age of Confirmed Fatalities as of 5/27 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =          492</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 5/27 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 5/27 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Total Viral Tests Reported</t>
@@ -1026,13 +1020,19 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 5/25 at 3:00PM CST</t>
-  </si>
-  <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 5/25 at 3:00PM CST</t>
-  </si>
-  <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 5/26 at 9:30AM CST</t>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Hospitalizations</t>
+  </si>
+  <si>
+    <t>Number of COVID-19 Hospitalizations by Day as of 5/27 at 9:30AM CST</t>
+  </si>
+  <si>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 5/26 at 3:00PM CST</t>
+  </si>
+  <si>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 5/27 at 3:00PM CST</t>
   </si>
 </sst>
 </file>
@@ -1044,8 +1044,8 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="##,###,##0"/>
     <numFmt numFmtId="167" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="168" formatCode="##0"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="##0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1197,7 +1197,7 @@
     <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1206,35 +1206,23 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1257,10 +1245,22 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="171" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{26A675C5-E38E-4A14-80B5-15194347C0EC}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2D9E9C3F-10A9-4056-ACD2-DCC9E2F639DD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1406,11 +1406,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1450,10 +1450,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C5" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,7 +1505,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C13" s="4">
         <v>2</v>
@@ -1571,7 +1571,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
@@ -1582,7 +1582,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>2449</v>
+        <v>2480</v>
       </c>
       <c r="C17" s="4">
         <v>69</v>
@@ -1626,10 +1626,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C21" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="C22" s="4">
         <v>12</v>
@@ -1648,7 +1648,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C23" s="4">
         <v>19</v>
@@ -1714,7 +1714,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="C33" s="4">
         <v>33</v>
@@ -1769,7 +1769,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -1890,7 +1890,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>1157</v>
+        <v>1189</v>
       </c>
       <c r="C45" s="4">
         <v>33</v>
@@ -1912,7 +1912,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C48" s="4">
         <v>6</v>
@@ -1992,7 +1992,7 @@
         <v>22</v>
       </c>
       <c r="C54" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2044,10 +2044,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>8998</v>
+        <v>9188</v>
       </c>
       <c r="C59" s="4">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2077,7 +2077,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C62" s="4">
         <v>14</v>
@@ -2099,7 +2099,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1233</v>
+        <v>1255</v>
       </c>
       <c r="C64" s="4">
         <v>30</v>
@@ -2154,7 +2154,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" s="4">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C70" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2187,10 +2187,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>2393</v>
+        <v>2461</v>
       </c>
       <c r="C72" s="4">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2198,10 +2198,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C73" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="C86" s="4">
         <v>32</v>
@@ -2396,7 +2396,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C91" s="4">
         <v>2</v>
@@ -2418,7 +2418,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C93" s="4">
         <v>2</v>
@@ -2429,10 +2429,10 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C94" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -2451,7 +2451,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C97" s="4">
         <v>4</v>
@@ -2528,7 +2528,7 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>10995</v>
+        <v>11281</v>
       </c>
       <c r="C103" s="4">
         <v>221</v>
@@ -2539,10 +2539,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C104" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2572,7 +2572,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C107" s="4">
         <v>3</v>
@@ -2594,7 +2594,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C109" s="4">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="C110" s="4">
         <v>10</v>
@@ -2649,7 +2649,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C125" s="4">
         <v>27</v>
@@ -2803,7 +2803,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2836,7 +2836,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C131" s="4">
         <v>2</v>
@@ -2847,7 +2847,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C135" s="4">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -2990,7 +2990,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3001,7 +3001,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C146" s="4">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="C154" s="4">
         <v>50</v>
@@ -3100,7 +3100,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
@@ -3122,10 +3122,10 @@
         <v>158</v>
       </c>
       <c r="B157" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C157" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3155,7 +3155,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3188,7 +3188,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C163" s="4">
         <v>4</v>
@@ -3210,7 +3210,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3232,7 +3232,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C167" s="4">
         <v>12</v>
@@ -3287,10 +3287,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>888</v>
+        <v>913</v>
       </c>
       <c r="C172" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3298,7 +3298,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C173" s="4">
         <v>13</v>
@@ -3309,7 +3309,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C176" s="4">
         <v>17</v>
@@ -3342,7 +3342,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C177" s="4">
         <v>2</v>
@@ -3375,7 +3375,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C180" s="4">
         <v>3</v>
@@ -3430,7 +3430,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C185" s="4">
         <v>21</v>
@@ -3474,7 +3474,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2238</v>
+        <v>2251</v>
       </c>
       <c r="C190" s="4">
         <v>26</v>
@@ -3518,7 +3518,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C193" s="4">
         <v>6</v>
@@ -3529,7 +3529,7 @@
         <v>195</v>
       </c>
       <c r="B194" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" s="4">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C196" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3606,10 +3606,10 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C201" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3650,10 +3650,10 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C205" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3672,7 +3672,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C212" s="4">
         <v>6</v>
@@ -3738,7 +3738,7 @@
         <v>214</v>
       </c>
       <c r="B213" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C213" s="4">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3771,7 +3771,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>4977</v>
+        <v>5039</v>
       </c>
       <c r="C222" s="4">
         <v>144</v>
@@ -3892,7 +3892,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="C227" s="4">
         <v>2</v>
@@ -3914,10 +3914,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>2933</v>
+        <v>2984</v>
       </c>
       <c r="C229" s="4">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3991,7 +3991,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C236" s="4">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>475</v>
+        <v>716</v>
       </c>
       <c r="C238" s="4">
         <v>27</v>
@@ -4024,7 +4024,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C241" s="4">
         <v>23</v>
@@ -4057,7 +4057,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C242" s="4">
         <v>19</v>
@@ -4068,7 +4068,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C243" s="4">
         <v>0</v>
@@ -4090,7 +4090,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4112,7 +4112,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C247" s="4">
         <v>1</v>
@@ -4123,7 +4123,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="C248" s="4">
         <v>22</v>
@@ -4167,7 +4167,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C252" s="4">
         <v>1</v>
@@ -4222,10 +4222,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>56560</v>
+        <v>57921</v>
       </c>
       <c r="C257" s="4">
-        <v>1536</v>
+        <v>1562</v>
       </c>
     </row>
   </sheetData>
@@ -4243,23 +4243,23 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4277,10 +4277,10 @@
         <v>304</v>
       </c>
       <c r="B3" s="9">
-        <v>6701</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0.45359777973330001</v>
+        <v>6709</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0.45400000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4288,9 +4288,9 @@
         <v>305</v>
       </c>
       <c r="B4" s="9">
-        <v>7791</v>
-      </c>
-      <c r="C4" s="15">
+        <v>7796</v>
+      </c>
+      <c r="C4" s="29">
         <v>0.52700000000000002</v>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       <c r="B5" s="9">
         <v>281</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="29">
         <v>1.9E-2</v>
       </c>
     </row>
@@ -4310,25 +4310,25 @@
         <v>258</v>
       </c>
       <c r="B6" s="9">
-        <v>14773</v>
-      </c>
-      <c r="C6" s="15">
+        <v>14786</v>
+      </c>
+      <c r="C6" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4347,23 +4347,23 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4383,8 +4383,8 @@
       <c r="B3" s="9">
         <v>498</v>
       </c>
-      <c r="C3" s="15">
-        <v>3.3710146889600001E-2</v>
+      <c r="C3" s="29">
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4394,7 +4394,7 @@
       <c r="B4" s="9">
         <v>2315</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="29">
         <v>0.157</v>
       </c>
     </row>
@@ -4403,9 +4403,9 @@
         <v>310</v>
       </c>
       <c r="B5" s="9">
-        <v>5862</v>
-      </c>
-      <c r="C5" s="15">
+        <v>5873</v>
+      </c>
+      <c r="C5" s="29">
         <v>0.39700000000000002</v>
       </c>
     </row>
@@ -4416,7 +4416,7 @@
       <c r="B6" s="9">
         <v>96</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="29">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -4425,9 +4425,9 @@
         <v>312</v>
       </c>
       <c r="B7" s="9">
-        <v>4063</v>
-      </c>
-      <c r="C7" s="15">
+        <v>4065</v>
+      </c>
+      <c r="C7" s="29">
         <v>0.27500000000000002</v>
       </c>
     </row>
@@ -4438,7 +4438,7 @@
       <c r="B8" s="9">
         <v>1939</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="29">
         <v>0.13100000000000001</v>
       </c>
     </row>
@@ -4447,25 +4447,25 @@
         <v>258</v>
       </c>
       <c r="B9" s="9">
-        <v>14773</v>
-      </c>
-      <c r="C9" s="15">
+        <v>14786</v>
+      </c>
+      <c r="C9" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4484,23 +4484,23 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -4520,7 +4520,7 @@
       <c r="B3" s="10">
         <v>0</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="29">
         <v>0</v>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       <c r="B4" s="10">
         <v>0</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="29">
         <v>0</v>
       </c>
     </row>
@@ -4542,8 +4542,8 @@
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="15">
-        <v>4.0733197555999998E-3</v>
+      <c r="C5" s="29">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4553,8 +4553,8 @@
       <c r="B6" s="10">
         <v>11</v>
       </c>
-      <c r="C6" s="15">
-        <v>2.24032586558E-2</v>
+      <c r="C6" s="29">
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4564,8 +4564,8 @@
       <c r="B7" s="10">
         <v>9</v>
       </c>
-      <c r="C7" s="15">
-        <v>1.8329938900199998E-2</v>
+      <c r="C7" s="29">
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4575,7 +4575,7 @@
       <c r="B8" s="10">
         <v>21</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="29">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       <c r="B9" s="10">
         <v>54</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="29">
         <v>0.11</v>
       </c>
     </row>
@@ -4597,8 +4597,8 @@
       <c r="B10" s="10">
         <v>45</v>
       </c>
-      <c r="C10" s="15">
-        <v>9.1999999999999998E-2</v>
+      <c r="C10" s="29">
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4608,7 +4608,7 @@
       <c r="B11" s="10">
         <v>59</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="29">
         <v>0.12</v>
       </c>
     </row>
@@ -4619,8 +4619,8 @@
       <c r="B12" s="10">
         <v>45</v>
       </c>
-      <c r="C12" s="15">
-        <v>9.1999999999999998E-2</v>
+      <c r="C12" s="29">
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4630,8 +4630,8 @@
       <c r="B13" s="10">
         <v>45</v>
       </c>
-      <c r="C13" s="15">
-        <v>9.1999999999999998E-2</v>
+      <c r="C13" s="29">
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4639,10 +4639,10 @@
         <v>298</v>
       </c>
       <c r="B14" s="10">
-        <v>197</v>
-      </c>
-      <c r="C14" s="15">
-        <v>0.40100000000000002</v>
+        <v>198</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4652,8 +4652,8 @@
       <c r="B15" s="10">
         <v>3</v>
       </c>
-      <c r="C15" s="15">
-        <v>6.1099796333999997E-3</v>
+      <c r="C15" s="29">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4661,25 +4661,25 @@
         <v>258</v>
       </c>
       <c r="B16" s="10">
-        <v>491</v>
-      </c>
-      <c r="C16" s="15">
+        <v>492</v>
+      </c>
+      <c r="C16" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4698,23 +4698,23 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4734,8 +4734,8 @@
       <c r="B3" s="10">
         <v>192</v>
       </c>
-      <c r="C3" s="15">
-        <v>0.39100000000000001</v>
+      <c r="C3" s="29">
+        <v>0.39</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4743,10 +4743,10 @@
         <v>305</v>
       </c>
       <c r="B4" s="10">
-        <v>268</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0.54600000000000004</v>
+        <v>269</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4756,8 +4756,8 @@
       <c r="B5" s="10">
         <v>31</v>
       </c>
-      <c r="C5" s="15">
-        <v>6.3E-2</v>
+      <c r="C5" s="29">
+        <v>6.3008130081300004E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4765,25 +4765,25 @@
         <v>258</v>
       </c>
       <c r="B6" s="10">
-        <v>491</v>
-      </c>
-      <c r="C6" s="15">
+        <v>492</v>
+      </c>
+      <c r="C6" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4802,23 +4802,23 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4838,8 +4838,8 @@
       <c r="B3" s="10">
         <v>6</v>
       </c>
-      <c r="C3" s="15">
-        <v>1.2219959266799999E-2</v>
+      <c r="C3" s="29">
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4849,7 +4849,7 @@
       <c r="B4" s="10">
         <v>67</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="29">
         <v>0.13600000000000001</v>
       </c>
     </row>
@@ -4860,8 +4860,8 @@
       <c r="B5" s="10">
         <v>122</v>
       </c>
-      <c r="C5" s="15">
-        <v>0.248</v>
+      <c r="C5" s="29">
+        <v>0.24796747967480001</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4871,8 +4871,8 @@
       <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="15">
-        <v>4.0733197555999998E-3</v>
+      <c r="C6" s="29">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4880,10 +4880,10 @@
         <v>312</v>
       </c>
       <c r="B7" s="10">
-        <v>180</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.36699999999999999</v>
+        <v>181</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0.36799999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4893,7 +4893,7 @@
       <c r="B8" s="10">
         <v>114</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="29">
         <v>0.23200000000000001</v>
       </c>
     </row>
@@ -4902,25 +4902,25 @@
         <v>258</v>
       </c>
       <c r="B9" s="10">
-        <v>491</v>
-      </c>
-      <c r="C9" s="15">
+        <v>492</v>
+      </c>
+      <c r="C9" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4935,11 +4935,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -4952,13 +4952,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6063,6 +6063,23 @@
       </c>
       <c r="E66" s="4">
         <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>43978</v>
+      </c>
+      <c r="B67" s="4">
+        <v>57921</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1562</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1361</v>
+      </c>
+      <c r="E67" s="4">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -6080,8 +6097,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6091,10 +6108,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6106,17 +6123,17 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>36375</v>
+        <v>37626</v>
       </c>
       <c r="B3" s="7">
-        <v>22446</v>
+        <v>22055</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6129,823 +6146,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2D9FF8-102E-4B0B-8FBA-EE55EA714B28}">
-  <dimension ref="A1:E57"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.90625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>43925</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="18">
-        <v>63751</v>
-      </c>
-      <c r="E3" s="19">
-        <v>0.1056</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>43926</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="18">
-        <v>70938</v>
-      </c>
-      <c r="E4" s="19">
-        <v>9.3299999999999994E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>43927</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="18">
-        <v>85357</v>
-      </c>
-      <c r="E5" s="19">
-        <v>8.8909998585200004E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>43928</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="18">
-        <v>88649</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0.1094</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>43929</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="18">
-        <v>96258</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0.11070000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>43930</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="18">
-        <v>106134</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0.100351636462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>43931</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="18">
-        <v>115918</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0.1055125178708</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>43932</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="18">
-        <v>120533</v>
-      </c>
-      <c r="E10" s="19">
-        <v>0.11360000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>43933</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="18">
-        <v>124553</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0.12479999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>43934</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="18">
-        <v>133226</v>
-      </c>
-      <c r="E12" s="19">
-        <v>0.1386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>43935</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="18">
-        <v>146467</v>
-      </c>
-      <c r="E13" s="19">
-        <v>0.1101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>43936</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="18">
-        <v>151810</v>
-      </c>
-      <c r="E14" s="19">
-        <v>0.1105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>43937</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="18">
-        <v>158547</v>
-      </c>
-      <c r="E15" s="19">
-        <v>0.1188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>43938</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="18">
-        <v>169536</v>
-      </c>
-      <c r="E16" s="19">
-        <v>0.10630000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>43939</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="18">
-        <v>176239</v>
-      </c>
-      <c r="E17" s="19">
-        <v>0.1023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>43940</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="18">
-        <v>182710</v>
-      </c>
-      <c r="E18" s="19">
-        <v>9.35E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>43941</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="18">
-        <v>190394</v>
-      </c>
-      <c r="E19" s="19">
-        <v>9.7117268401900006E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>43942</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="18">
-        <v>205399</v>
-      </c>
-      <c r="E20" s="19">
-        <v>9.4500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>43943</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="18">
-        <v>216783</v>
-      </c>
-      <c r="E21" s="19">
-        <v>8.5800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>43944</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="18">
-        <v>225078</v>
-      </c>
-      <c r="E22" s="19">
-        <v>8.2500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>43945</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="18">
-        <v>242547</v>
-      </c>
-      <c r="E23" s="19">
-        <v>7.4399999999999994E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>43946</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="18">
-        <v>262816</v>
-      </c>
-      <c r="E24" s="19">
-        <v>6.3700000000000007E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>43947</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="18">
-        <v>276021</v>
-      </c>
-      <c r="E25" s="19">
-        <v>6.1199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>43948</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="18">
-        <v>290517</v>
-      </c>
-      <c r="E26" s="19">
-        <v>5.8299999999999998E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>43949</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="18">
-        <v>300384</v>
-      </c>
-      <c r="E27" s="19">
-        <v>6.2899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>43950</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="18">
-        <v>314790</v>
-      </c>
-      <c r="E28" s="19">
-        <v>6.10670666381E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>43951</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="18">
-        <v>330300</v>
-      </c>
-      <c r="E29" s="19">
-        <v>5.8381327098900003E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>43952</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="18">
-        <v>351775</v>
-      </c>
-      <c r="E30" s="19">
-        <v>5.8799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>43953</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="18">
-        <v>380648</v>
-      </c>
-      <c r="E31" s="19">
-        <v>5.7299999999999997E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>43954</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="18">
-        <v>390560</v>
-      </c>
-      <c r="E32" s="19">
-        <v>6.0400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>43955</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="18">
-        <v>407398</v>
-      </c>
-      <c r="E33" s="19">
-        <v>6.0199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>43956</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="18">
-        <v>427210</v>
-      </c>
-      <c r="E34" s="19">
-        <v>5.6754924069199998E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>43957</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="18">
-        <v>438938</v>
-      </c>
-      <c r="E35" s="19">
-        <v>5.9299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>43958</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="18">
-        <v>455162</v>
-      </c>
-      <c r="E36" s="19">
-        <v>5.8500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <v>43959</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="18">
-        <v>477118</v>
-      </c>
-      <c r="E37" s="19">
-        <v>5.8900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>43960</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="18">
-        <v>489294</v>
-      </c>
-      <c r="E38" s="19">
-        <v>6.7500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>43961</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="18">
-        <v>513978</v>
-      </c>
-      <c r="E39" s="19">
-        <v>5.9299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>43962</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="18">
-        <v>525697</v>
-      </c>
-      <c r="E40" s="19">
-        <v>6.3711443038399998E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <v>43963</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="18">
-        <v>538172</v>
-      </c>
-      <c r="E41" s="19">
-        <v>6.9199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
-        <v>43964</v>
-      </c>
-      <c r="B42" s="18">
-        <f>D42-C42</f>
-        <v>556776</v>
-      </c>
-      <c r="C42" s="18">
-        <v>30655</v>
-      </c>
-      <c r="D42" s="18">
-        <v>587431</v>
-      </c>
-      <c r="E42" s="19">
-        <v>5.3699999999999998E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <v>43965</v>
-      </c>
-      <c r="B43" s="18">
-        <f t="shared" ref="B43:B49" si="0">D43-C43</f>
-        <v>587313</v>
-      </c>
-      <c r="C43" s="18">
-        <v>35971</v>
-      </c>
-      <c r="D43" s="18">
-        <v>623284</v>
-      </c>
-      <c r="E43" s="19">
-        <v>5.0299999999999997E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <v>43966</v>
-      </c>
-      <c r="B44" s="18">
-        <f t="shared" si="0"/>
-        <v>609630</v>
-      </c>
-      <c r="C44" s="18">
-        <v>36362</v>
-      </c>
-      <c r="D44" s="18">
-        <v>645992</v>
-      </c>
-      <c r="E44" s="19">
-        <v>5.0900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>43967</v>
-      </c>
-      <c r="B45" s="18">
-        <f t="shared" si="0"/>
-        <v>638739</v>
-      </c>
-      <c r="C45" s="18">
-        <v>39732</v>
-      </c>
-      <c r="D45" s="18">
-        <v>678471</v>
-      </c>
-      <c r="E45" s="19">
-        <v>4.8300000000000003E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
-        <v>43968</v>
-      </c>
-      <c r="B46" s="18">
-        <f t="shared" si="0"/>
-        <v>650355</v>
-      </c>
-      <c r="C46" s="18">
-        <v>42921</v>
-      </c>
-      <c r="D46" s="18">
-        <v>693276</v>
-      </c>
-      <c r="E46" s="19">
-        <v>4.9700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <v>43969</v>
-      </c>
-      <c r="B47" s="18">
-        <f t="shared" si="0"/>
-        <v>679845</v>
-      </c>
-      <c r="C47" s="18">
-        <v>43168</v>
-      </c>
-      <c r="D47" s="18">
-        <v>723013</v>
-      </c>
-      <c r="E47" s="19">
-        <v>4.4720144337000001E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
-        <v>43970</v>
-      </c>
-      <c r="B48" s="18">
-        <f t="shared" si="0"/>
-        <v>700146</v>
-      </c>
-      <c r="C48" s="18">
-        <v>44791</v>
-      </c>
-      <c r="D48" s="18">
-        <v>744937</v>
-      </c>
-      <c r="E48" s="19">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
-        <v>43971</v>
-      </c>
-      <c r="B49" s="18">
-        <f t="shared" si="0"/>
-        <v>720928</v>
-      </c>
-      <c r="C49" s="18">
-        <v>49313</v>
-      </c>
-      <c r="D49" s="18">
-        <v>770241</v>
-      </c>
-      <c r="E49" s="19">
-        <v>5.4300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
-        <v>43972</v>
-      </c>
-      <c r="B50" s="18">
-        <v>740181</v>
-      </c>
-      <c r="C50" s="18">
-        <v>60252</v>
-      </c>
-      <c r="D50" s="18">
-        <v>800433</v>
-      </c>
-      <c r="E50" s="19">
-        <v>5.5100000000000003E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
-        <v>43973</v>
-      </c>
-      <c r="B51" s="18">
-        <v>762706</v>
-      </c>
-      <c r="C51" s="18">
-        <v>71731</v>
-      </c>
-      <c r="D51" s="18">
-        <v>834437</v>
-      </c>
-      <c r="E51" s="19">
-        <v>5.3900000000000003E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
-        <v>43974</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="18">
-        <v>870935</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
-        <v>43975</v>
-      </c>
-      <c r="B53" s="18">
-        <v>805654</v>
-      </c>
-      <c r="C53" s="18">
-        <v>80700</v>
-      </c>
-      <c r="D53" s="18">
-        <v>886354</v>
-      </c>
-      <c r="E53" s="19">
-        <v>4.87E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
-        <v>43976</v>
-      </c>
-      <c r="B54" s="18">
-        <v>821233</v>
-      </c>
-      <c r="C54" s="18">
-        <v>84841</v>
-      </c>
-      <c r="D54" s="18">
-        <v>906074</v>
-      </c>
-      <c r="E54" s="19">
-        <v>5.1499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
-        <v>43977</v>
-      </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18">
-        <v>943239</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A57:E57"/>
-  </mergeCells>
-  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6955,10 +6162,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6973,7 +6180,7 @@
         <v>272</v>
       </c>
       <c r="B3" s="7">
-        <v>32229</v>
+        <v>33697</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6981,7 +6188,7 @@
         <v>273</v>
       </c>
       <c r="B4" s="7">
-        <v>911010</v>
+        <v>928164</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6989,15 +6196,14 @@
         <v>274</v>
       </c>
       <c r="B5" s="7">
-        <f>SUM(B3:B4)</f>
-        <v>943239</v>
+        <v>961861</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7009,14 +6215,841 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A380FFF3-2B74-4AF6-B7D4-E097A32A99AE}">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.90625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>43925</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15">
+        <v>63751</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0.1056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>43926</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15">
+        <v>70938</v>
+      </c>
+      <c r="E4" s="27">
+        <v>9.3299999999999994E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>43927</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15">
+        <v>85357</v>
+      </c>
+      <c r="E5" s="27">
+        <v>8.8909998585200004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>43928</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15">
+        <v>88649</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0.1094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>43929</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15">
+        <v>96258</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0.11070000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>43930</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15">
+        <v>106134</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0.100351636462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>43931</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15">
+        <v>115918</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0.1055125178708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>43932</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15">
+        <v>120533</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0.11360000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>43933</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15">
+        <v>124553</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0.12479999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>43934</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15">
+        <v>133226</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0.1386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>43935</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15">
+        <v>146467</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.1101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>43936</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15">
+        <v>151810</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0.1105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>43937</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15">
+        <v>158547</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0.1188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>43938</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15">
+        <v>169536</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0.10630000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>43939</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15">
+        <v>176239</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>43940</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15">
+        <v>182710</v>
+      </c>
+      <c r="E18" s="27">
+        <v>9.35E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>43941</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15">
+        <v>190394</v>
+      </c>
+      <c r="E19" s="27">
+        <v>9.7117268401900006E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>43942</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15">
+        <v>205399</v>
+      </c>
+      <c r="E20" s="27">
+        <v>9.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>43943</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15">
+        <v>216783</v>
+      </c>
+      <c r="E21" s="27">
+        <v>8.5800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>43944</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15">
+        <v>225078</v>
+      </c>
+      <c r="E22" s="27">
+        <v>8.2500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>43945</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15">
+        <v>242547</v>
+      </c>
+      <c r="E23" s="27">
+        <v>7.4399999999999994E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>43946</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15">
+        <v>262816</v>
+      </c>
+      <c r="E24" s="27">
+        <v>6.3700000000000007E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>43947</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15">
+        <v>276021</v>
+      </c>
+      <c r="E25" s="27">
+        <v>6.1199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>43948</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15">
+        <v>290517</v>
+      </c>
+      <c r="E26" s="27">
+        <v>5.8299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>43949</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15">
+        <v>300384</v>
+      </c>
+      <c r="E27" s="27">
+        <v>6.2899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>43950</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15">
+        <v>314790</v>
+      </c>
+      <c r="E28" s="27">
+        <v>6.10670666381E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>43951</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15">
+        <v>330300</v>
+      </c>
+      <c r="E29" s="27">
+        <v>5.8381327098900003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>43952</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15">
+        <v>351775</v>
+      </c>
+      <c r="E30" s="27">
+        <v>5.8799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>43953</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15">
+        <v>380648</v>
+      </c>
+      <c r="E31" s="27">
+        <v>5.7299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>43954</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15">
+        <v>390560</v>
+      </c>
+      <c r="E32" s="27">
+        <v>6.0400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>43955</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15">
+        <v>407398</v>
+      </c>
+      <c r="E33" s="27">
+        <v>6.0199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>43956</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15">
+        <v>427210</v>
+      </c>
+      <c r="E34" s="27">
+        <v>5.6754924069199998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>43957</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15">
+        <v>438938</v>
+      </c>
+      <c r="E35" s="27">
+        <v>5.9299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>43958</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15">
+        <v>455162</v>
+      </c>
+      <c r="E36" s="27">
+        <v>5.8500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>43959</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15">
+        <v>477118</v>
+      </c>
+      <c r="E37" s="27">
+        <v>5.8900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>43960</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15">
+        <v>489294</v>
+      </c>
+      <c r="E38" s="27">
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>43961</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15">
+        <v>513978</v>
+      </c>
+      <c r="E39" s="27">
+        <v>5.9299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>43962</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15">
+        <v>525697</v>
+      </c>
+      <c r="E40" s="27">
+        <v>6.3711443038399998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>43963</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15">
+        <v>538172</v>
+      </c>
+      <c r="E41" s="27">
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>43964</v>
+      </c>
+      <c r="B42" s="15">
+        <f>D42-C42</f>
+        <v>556776</v>
+      </c>
+      <c r="C42" s="15">
+        <v>30655</v>
+      </c>
+      <c r="D42" s="15">
+        <v>587431</v>
+      </c>
+      <c r="E42" s="27">
+        <v>5.3699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>43965</v>
+      </c>
+      <c r="B43" s="15">
+        <f t="shared" ref="B43:B49" si="0">D43-C43</f>
+        <v>587313</v>
+      </c>
+      <c r="C43" s="15">
+        <v>35971</v>
+      </c>
+      <c r="D43" s="15">
+        <v>623284</v>
+      </c>
+      <c r="E43" s="27">
+        <v>5.0299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>43966</v>
+      </c>
+      <c r="B44" s="15">
+        <f t="shared" si="0"/>
+        <v>609630</v>
+      </c>
+      <c r="C44" s="15">
+        <v>36362</v>
+      </c>
+      <c r="D44" s="15">
+        <v>645992</v>
+      </c>
+      <c r="E44" s="27">
+        <v>5.0900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>43967</v>
+      </c>
+      <c r="B45" s="15">
+        <f t="shared" si="0"/>
+        <v>638739</v>
+      </c>
+      <c r="C45" s="15">
+        <v>39732</v>
+      </c>
+      <c r="D45" s="15">
+        <v>678471</v>
+      </c>
+      <c r="E45" s="27">
+        <v>4.8300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>43968</v>
+      </c>
+      <c r="B46" s="15">
+        <f t="shared" si="0"/>
+        <v>650355</v>
+      </c>
+      <c r="C46" s="15">
+        <v>42921</v>
+      </c>
+      <c r="D46" s="15">
+        <v>693276</v>
+      </c>
+      <c r="E46" s="27">
+        <v>4.9700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>43969</v>
+      </c>
+      <c r="B47" s="15">
+        <f t="shared" si="0"/>
+        <v>679845</v>
+      </c>
+      <c r="C47" s="15">
+        <v>43168</v>
+      </c>
+      <c r="D47" s="15">
+        <v>723013</v>
+      </c>
+      <c r="E47" s="27">
+        <v>4.4720144337000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>43970</v>
+      </c>
+      <c r="B48" s="15">
+        <f t="shared" si="0"/>
+        <v>700146</v>
+      </c>
+      <c r="C48" s="15">
+        <v>44791</v>
+      </c>
+      <c r="D48" s="15">
+        <v>744937</v>
+      </c>
+      <c r="E48" s="27">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>43971</v>
+      </c>
+      <c r="B49" s="15">
+        <f t="shared" si="0"/>
+        <v>720928</v>
+      </c>
+      <c r="C49" s="15">
+        <v>49313</v>
+      </c>
+      <c r="D49" s="15">
+        <v>770241</v>
+      </c>
+      <c r="E49" s="27">
+        <v>5.4300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>43972</v>
+      </c>
+      <c r="B50" s="15">
+        <v>740181</v>
+      </c>
+      <c r="C50" s="15">
+        <v>60252</v>
+      </c>
+      <c r="D50" s="15">
+        <v>800433</v>
+      </c>
+      <c r="E50" s="27">
+        <v>5.5100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>43973</v>
+      </c>
+      <c r="B51" s="15">
+        <v>762706</v>
+      </c>
+      <c r="C51" s="15">
+        <v>71731</v>
+      </c>
+      <c r="D51" s="15">
+        <v>834437</v>
+      </c>
+      <c r="E51" s="27">
+        <v>5.3900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>43974</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15">
+        <v>870935</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>43975</v>
+      </c>
+      <c r="B53" s="15">
+        <v>805654</v>
+      </c>
+      <c r="C53" s="15">
+        <v>80700</v>
+      </c>
+      <c r="D53" s="15">
+        <v>886354</v>
+      </c>
+      <c r="E53" s="27">
+        <v>4.87E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>43976</v>
+      </c>
+      <c r="B54" s="15">
+        <v>821233</v>
+      </c>
+      <c r="C54" s="15">
+        <v>84841</v>
+      </c>
+      <c r="D54" s="15">
+        <v>906074</v>
+      </c>
+      <c r="E54" s="27">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>43977</v>
+      </c>
+      <c r="B55" s="15">
+        <v>855674</v>
+      </c>
+      <c r="C55" s="15">
+        <v>87565</v>
+      </c>
+      <c r="D55" s="15">
+        <v>943239</v>
+      </c>
+      <c r="E55" s="27">
+        <v>4.2744714778046394E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>43978</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15">
+        <v>961861</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A58:E58"/>
+  </mergeCells>
+  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9216649F-95A5-4B7C-BB07-C5D24050ED32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF579965-E9A4-4200-9947-C8B91C7F8746}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7027,13 +7060,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="16" t="s">
         <v>270</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -7041,26 +7074,26 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3" s="14">
-        <v>84841</v>
+      <c r="A3" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="18">
+        <v>87565</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="B4" s="14">
-        <v>3294</v>
+      <c r="A4" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="18">
+        <v>3406</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7078,8 +7111,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7089,10 +7122,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7107,7 +7140,7 @@
         <v>278</v>
       </c>
       <c r="B3" s="7">
-        <v>1534</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7115,7 +7148,7 @@
         <v>279</v>
       </c>
       <c r="B4" s="7">
-        <v>51702</v>
+        <v>53445</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7123,7 +7156,7 @@
         <v>280</v>
       </c>
       <c r="B5" s="7">
-        <v>17456</v>
+        <v>16944</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7131,7 +7164,7 @@
         <v>281</v>
       </c>
       <c r="B6" s="7">
-        <v>1974</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7139,14 +7172,14 @@
         <v>282</v>
       </c>
       <c r="B7" s="7">
-        <v>6184</v>
+        <v>6259</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7159,11 +7192,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3D1D31-AA87-4848-A6EA-1E0D0BFA1F5F}">
-  <dimension ref="A1:C57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6D2302-4221-46A2-ADEB-3DEB7BBD1EAA}">
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -7177,31 +7210,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="A1" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>260</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="14">
         <v>43925</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="18">
         <v>827</v>
       </c>
     </row>
@@ -7209,10 +7242,10 @@
       <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="14">
         <v>43926</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="18">
         <v>1132</v>
       </c>
     </row>
@@ -7220,10 +7253,10 @@
       <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>43927</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="18">
         <v>1153</v>
       </c>
     </row>
@@ -7231,10 +7264,10 @@
       <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>43928</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="18">
         <v>1252</v>
       </c>
     </row>
@@ -7242,10 +7275,10 @@
       <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>43929</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="18">
         <v>1491</v>
       </c>
     </row>
@@ -7253,10 +7286,10 @@
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <v>43930</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="18">
         <v>1439</v>
       </c>
     </row>
@@ -7264,10 +7297,10 @@
       <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="14">
         <v>43931</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="18">
         <v>1532</v>
       </c>
     </row>
@@ -7275,10 +7308,10 @@
       <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="14">
         <v>43932</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="18">
         <v>1514</v>
       </c>
     </row>
@@ -7286,10 +7319,10 @@
       <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="14">
         <v>43933</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="18">
         <v>1338</v>
       </c>
     </row>
@@ -7297,10 +7330,10 @@
       <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="14">
         <v>43934</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="18">
         <v>1176</v>
       </c>
     </row>
@@ -7308,10 +7341,10 @@
       <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="14">
         <v>43935</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="18">
         <v>1409</v>
       </c>
     </row>
@@ -7319,10 +7352,10 @@
       <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="14">
         <v>43936</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="18">
         <v>1538</v>
       </c>
     </row>
@@ -7330,10 +7363,10 @@
       <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="14">
         <v>43937</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="18">
         <v>1459</v>
       </c>
     </row>
@@ -7341,10 +7374,10 @@
       <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="14">
         <v>43938</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="18">
         <v>1522</v>
       </c>
     </row>
@@ -7352,10 +7385,10 @@
       <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="14">
         <v>43939</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="18">
         <v>1321</v>
       </c>
     </row>
@@ -7363,10 +7396,10 @@
       <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="14">
         <v>43940</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="18">
         <v>1471</v>
       </c>
     </row>
@@ -7374,10 +7407,10 @@
       <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="14">
         <v>43941</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="18">
         <v>1411</v>
       </c>
     </row>
@@ -7385,10 +7418,10 @@
       <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="14">
         <v>43942</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="18">
         <v>1419</v>
       </c>
     </row>
@@ -7396,10 +7429,10 @@
       <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="14">
         <v>43943</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="18">
         <v>1678</v>
       </c>
     </row>
@@ -7407,10 +7440,10 @@
       <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="14">
         <v>43944</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="18">
         <v>1649</v>
       </c>
     </row>
@@ -7418,10 +7451,10 @@
       <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="14">
         <v>43945</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="18">
         <v>1674</v>
       </c>
     </row>
@@ -7429,10 +7462,10 @@
       <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="14">
         <v>43946</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="18">
         <v>1597</v>
       </c>
     </row>
@@ -7440,10 +7473,10 @@
       <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="14">
         <v>43947</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="18">
         <v>1542</v>
       </c>
     </row>
@@ -7451,10 +7484,10 @@
       <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="14">
         <v>43948</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="18">
         <v>1563</v>
       </c>
     </row>
@@ -7462,10 +7495,10 @@
       <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="14">
         <v>43949</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="18">
         <v>1682</v>
       </c>
     </row>
@@ -7473,10 +7506,10 @@
       <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="14">
         <v>43950</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="18">
         <v>1702</v>
       </c>
     </row>
@@ -7484,10 +7517,10 @@
       <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="14">
         <v>43951</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="18">
         <v>1686</v>
       </c>
     </row>
@@ -7495,10 +7528,10 @@
       <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="14">
         <v>43952</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="18">
         <v>1778</v>
       </c>
     </row>
@@ -7506,10 +7539,10 @@
       <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="14">
         <v>43953</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="18">
         <v>1725</v>
       </c>
     </row>
@@ -7517,10 +7550,10 @@
       <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="14">
         <v>43954</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="18">
         <v>1540</v>
       </c>
     </row>
@@ -7528,10 +7561,10 @@
       <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="14">
         <v>43955</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="18">
         <v>1533</v>
       </c>
     </row>
@@ -7539,10 +7572,10 @@
       <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="14">
         <v>43956</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="18">
         <v>1888</v>
       </c>
     </row>
@@ -7550,10 +7583,10 @@
       <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="14">
         <v>43957</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="18">
         <v>1812</v>
       </c>
     </row>
@@ -7561,10 +7594,10 @@
       <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="14">
         <v>43958</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="18">
         <v>1750</v>
       </c>
     </row>
@@ -7572,10 +7605,10 @@
       <c r="A37" s="12">
         <v>35</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="14">
         <v>43959</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="18">
         <v>1734</v>
       </c>
     </row>
@@ -7583,10 +7616,10 @@
       <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="14">
         <v>43960</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="18">
         <v>1735</v>
       </c>
     </row>
@@ -7594,10 +7627,10 @@
       <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="14">
         <v>43961</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="18">
         <v>1626</v>
       </c>
     </row>
@@ -7605,10 +7638,10 @@
       <c r="A40" s="12">
         <v>38</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="14">
         <v>43962</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="18">
         <v>1525</v>
       </c>
     </row>
@@ -7616,10 +7649,10 @@
       <c r="A41" s="12">
         <v>39</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="14">
         <v>43963</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="18">
         <v>1725</v>
       </c>
     </row>
@@ -7627,10 +7660,10 @@
       <c r="A42" s="12">
         <v>40</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="14">
         <v>43964</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="18">
         <v>1676</v>
       </c>
     </row>
@@ -7638,10 +7671,10 @@
       <c r="A43" s="12">
         <v>41</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="14">
         <v>43965</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="18">
         <v>1648</v>
       </c>
     </row>
@@ -7649,10 +7682,10 @@
       <c r="A44" s="12">
         <v>42</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="14">
         <v>43966</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="18">
         <v>1716</v>
       </c>
     </row>
@@ -7660,10 +7693,10 @@
       <c r="A45" s="12">
         <v>43</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="14">
         <v>43967</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="18">
         <v>1791</v>
       </c>
     </row>
@@ -7671,10 +7704,10 @@
       <c r="A46" s="12">
         <v>44</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="14">
         <v>43968</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="18">
         <v>1512</v>
       </c>
     </row>
@@ -7682,10 +7715,10 @@
       <c r="A47" s="12">
         <v>45</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="14">
         <v>43969</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="18">
         <v>1551</v>
       </c>
     </row>
@@ -7693,10 +7726,10 @@
       <c r="A48" s="12">
         <v>46</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="14">
         <v>43970</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="18">
         <v>1732</v>
       </c>
     </row>
@@ -7704,10 +7737,10 @@
       <c r="A49" s="12">
         <v>47</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="14">
         <v>43971</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="18">
         <v>1791</v>
       </c>
     </row>
@@ -7715,10 +7748,10 @@
       <c r="A50" s="12">
         <v>48</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="14">
         <v>43972</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="18">
         <v>1680</v>
       </c>
     </row>
@@ -7726,10 +7759,10 @@
       <c r="A51" s="12">
         <v>49</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="14">
         <v>43973</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="18">
         <v>1578</v>
       </c>
     </row>
@@ -7737,10 +7770,10 @@
       <c r="A52" s="12">
         <v>50</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="14">
         <v>43974</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="18">
         <v>1688</v>
       </c>
     </row>
@@ -7748,10 +7781,10 @@
       <c r="A53" s="12">
         <v>51</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="14">
         <v>43975</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="18">
         <v>1572</v>
       </c>
     </row>
@@ -7759,10 +7792,10 @@
       <c r="A54" s="12">
         <v>52</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54" s="14">
         <v>43976</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="18">
         <v>1511</v>
       </c>
     </row>
@@ -7770,30 +7803,41 @@
       <c r="A55" s="12">
         <v>53</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="14">
         <v>43977</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="18">
         <v>1534</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
+    <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>54</v>
+      </c>
+      <c r="B56" s="14">
+        <v>43978</v>
+      </c>
+      <c r="C56" s="18">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-    </row>
-    <row r="57" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+    </row>
+    <row r="58" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A56:C56"/>
     <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7806,8 +7850,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7818,11 +7862,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -7842,7 +7886,7 @@
       <c r="B3" s="9">
         <v>38</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="29">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -7853,7 +7897,7 @@
       <c r="B4" s="9">
         <v>168</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="29">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
@@ -7864,8 +7908,8 @@
       <c r="B5" s="9">
         <v>440</v>
       </c>
-      <c r="C5" s="15">
-        <v>0.03</v>
+      <c r="C5" s="29">
+        <v>2.97578790748E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7873,9 +7917,9 @@
         <v>290</v>
       </c>
       <c r="B6" s="9">
-        <v>2293</v>
-      </c>
-      <c r="C6" s="15">
+        <v>2295</v>
+      </c>
+      <c r="C6" s="29">
         <v>0.155</v>
       </c>
     </row>
@@ -7884,10 +7928,10 @@
         <v>291</v>
       </c>
       <c r="B7" s="9">
-        <v>2705</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.1831043119204</v>
+        <v>2708</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0.183</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7895,9 +7939,9 @@
         <v>292</v>
       </c>
       <c r="B8" s="9">
-        <v>2765</v>
-      </c>
-      <c r="C8" s="15">
+        <v>2770</v>
+      </c>
+      <c r="C8" s="29">
         <v>0.187</v>
       </c>
     </row>
@@ -7906,9 +7950,9 @@
         <v>293</v>
       </c>
       <c r="B9" s="9">
-        <v>2712</v>
-      </c>
-      <c r="C9" s="15">
+        <v>2714</v>
+      </c>
+      <c r="C9" s="29">
         <v>0.184</v>
       </c>
     </row>
@@ -7919,7 +7963,7 @@
       <c r="B10" s="9">
         <v>1143</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="29">
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
@@ -7930,7 +7974,7 @@
       <c r="B11" s="9">
         <v>831</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="29">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
@@ -7941,8 +7985,8 @@
       <c r="B12" s="9">
         <v>543</v>
       </c>
-      <c r="C12" s="15">
-        <v>3.6756244500099997E-2</v>
+      <c r="C12" s="29">
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7952,8 +7996,8 @@
       <c r="B13" s="9">
         <v>362</v>
       </c>
-      <c r="C13" s="15">
-        <v>2.5000000000000001E-2</v>
+      <c r="C13" s="29">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7961,10 +8005,10 @@
         <v>298</v>
       </c>
       <c r="B14" s="9">
-        <v>650</v>
-      </c>
-      <c r="C14" s="15">
-        <v>4.3999187707299998E-2</v>
+        <v>651</v>
+      </c>
+      <c r="C14" s="29">
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7974,7 +8018,7 @@
       <c r="B15" s="9">
         <v>123</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="29">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -7983,25 +8027,25 @@
         <v>258</v>
       </c>
       <c r="B16" s="9">
-        <v>14773</v>
-      </c>
-      <c r="C16" s="15">
+        <v>14786</v>
+      </c>
+      <c r="C16" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8010,6 +8054,6 @@
     <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/original-sources/dshs.xlsx
+++ b/original-sources/dshs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C091624-1572-4BF3-987F-9A081EF0845A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51F2E750-1781-4577-B9A6-FD1DA800F519}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,26 +16,26 @@
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
     <sheet name="Trends" sheetId="2" r:id="rId2"/>
     <sheet name="Recoveries" sheetId="3" r:id="rId3"/>
-    <sheet name="Tests" sheetId="4" r:id="rId4"/>
-    <sheet name="Tests by day" sheetId="12" r:id="rId5"/>
+    <sheet name="Tests by day" sheetId="4" r:id="rId4"/>
+    <sheet name="Tests" sheetId="5" r:id="rId5"/>
     <sheet name="Antibody Tests" sheetId="13" r:id="rId6"/>
-    <sheet name="Hospitalizations" sheetId="5" r:id="rId7"/>
-    <sheet name="Hospitalization by Day" sheetId="14" r:id="rId8"/>
-    <sheet name="Cases by Age Group" sheetId="6" r:id="rId9"/>
-    <sheet name="Cases by Gender" sheetId="7" r:id="rId10"/>
-    <sheet name="Cases by RaceEthnicity" sheetId="8" r:id="rId11"/>
-    <sheet name="Fatalities by Age Group" sheetId="9" r:id="rId12"/>
-    <sheet name="Fatalities by Gender" sheetId="10" r:id="rId13"/>
-    <sheet name="Fatalities by Race-Ethnicity" sheetId="11" r:id="rId14"/>
+    <sheet name="Hospitalizations" sheetId="14" r:id="rId7"/>
+    <sheet name="Hospitalization by Day" sheetId="6" r:id="rId8"/>
+    <sheet name="Cases by Age Group" sheetId="7" r:id="rId9"/>
+    <sheet name="Cases by Gender" sheetId="8" r:id="rId10"/>
+    <sheet name="Cases by RaceEthnicity" sheetId="9" r:id="rId11"/>
+    <sheet name="Fatalities by Age Group" sheetId="10" r:id="rId12"/>
+    <sheet name="Fatalities by Gender" sheetId="11" r:id="rId13"/>
+    <sheet name="Fatalities by Race-Ethnicity" sheetId="12" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="330">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 5/27 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="333">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 5/29 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 5/27 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 5/29 at 10:45AM CST</t>
+  </si>
+  <si>
+    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
   </si>
   <si>
     <t>Date</t>
@@ -836,7 +839,7 @@
 Fatalities</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 5/27 at 9:30AM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 5/29 at 9:30AM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -848,155 +851,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 5/27 at 3:00PM CST</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Total People Tested in Texas by Public Health Lab</t>
-  </si>
-  <si>
-    <t>No. Tests by Commercial labs*</t>
-  </si>
-  <si>
-    <t>Total Tests</t>
-  </si>
-  <si>
-    <t>*Unable to deduplicate figures for Commercial labs.</t>
-  </si>
-  <si>
-    <t>Texas Statewide Hospitalization Data as of 5/27 at 9:30AM CST</t>
-  </si>
-  <si>
-    <t>Hospital data</t>
-  </si>
-  <si>
-    <t>Lab Confirmed COVID-19 Patients Currently in Texas Hospitals</t>
-  </si>
-  <si>
-    <t>Total Texas Staffed Hospital Beds</t>
-  </si>
-  <si>
-    <t>Available Texas Hospital Beds</t>
-  </si>
-  <si>
-    <t>Available Texas ICU Beds</t>
-  </si>
-  <si>
-    <t>Available Texas Ventilators</t>
-  </si>
-  <si>
-    <t>Age of Confirmed Cases as of 5/27 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Age
-Groupings</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>&lt;1 year</t>
-  </si>
-  <si>
-    <t>1-9 years</t>
-  </si>
-  <si>
-    <t>10-19 years</t>
-  </si>
-  <si>
-    <t>20-29 years</t>
-  </si>
-  <si>
-    <t>30-39 years</t>
-  </si>
-  <si>
-    <t>40-49 years</t>
-  </si>
-  <si>
-    <t>50-59 years</t>
-  </si>
-  <si>
-    <t>60-64 years</t>
-  </si>
-  <si>
-    <t>65-69 years</t>
-  </si>
-  <si>
-    <t>70-74 years</t>
-  </si>
-  <si>
-    <t>75-79 years</t>
-  </si>
-  <si>
-    <t>80+ years</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
-  </si>
-  <si>
-    <t>Completed case investigations received by DSHS =          14,786</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 5/27 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 5/27 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Hispanic</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Age of Confirmed Fatalities as of 5/27 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =          492</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 5/27 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 5/27 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Total Viral Tests Reported</t>
-  </si>
-  <si>
-    <t>Total Antibody Tests Reported</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 5/29 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -1014,37 +869,193 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 5/29 at 3:00PM CST</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total People Tested in Texas by Public Health Lab</t>
+  </si>
+  <si>
+    <t>No. Tests by Commercial labs*</t>
+  </si>
+  <si>
+    <t>Total Tests</t>
+  </si>
+  <si>
+    <t>*Unable to deduplicate figures for Commercial labs.</t>
+  </si>
+  <si>
+    <t>Number of COVID-19 Hospitalizations by Day as of 5/29 at 9:30AM CST</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Hospitalizations</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Cases as of 5/29 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Age
+Groupings</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>&lt;1 year</t>
+  </si>
+  <si>
+    <t>1-9 years</t>
+  </si>
+  <si>
+    <t>10-19 years</t>
+  </si>
+  <si>
+    <t>20-29 years</t>
+  </si>
+  <si>
+    <t>30-39 years</t>
+  </si>
+  <si>
+    <t>40-49 years</t>
+  </si>
+  <si>
+    <t>50-59 years</t>
+  </si>
+  <si>
+    <t>60-64 years</t>
+  </si>
+  <si>
+    <t>65-69 years</t>
+  </si>
+  <si>
+    <t>70-74 years</t>
+  </si>
+  <si>
+    <t>75-79 years</t>
+  </si>
+  <si>
+    <t>80+ years</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
+  </si>
+  <si>
+    <t>Completed case investigations received by DSHS =          14,878</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 5/29 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Cases as of 5/29 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Fatalities as of 5/29 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =          491</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 5/29 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 5/29 at 9:30 AM CST</t>
+  </si>
+  <si>
     <t>Number of Antibody Tests Reported (included in total test numbers)</t>
   </si>
   <si>
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Obs</t>
-  </si>
-  <si>
-    <t>Hospitalizations</t>
-  </si>
-  <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 5/27 at 9:30AM CST</t>
-  </si>
-  <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 5/26 at 3:00PM CST</t>
-  </si>
-  <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 5/27 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 5/28 at 3:00PM CST</t>
+  </si>
+  <si>
+    <t>Hospital data</t>
+  </si>
+  <si>
+    <t>Lab Confirmed COVID-19 Patients Currently in Texas Hospitals</t>
+  </si>
+  <si>
+    <t>Total Texas Staffed Hospital Beds</t>
+  </si>
+  <si>
+    <t>Available Texas Hospital Beds</t>
+  </si>
+  <si>
+    <t>Available Texas ICU Beds</t>
+  </si>
+  <si>
+    <t>Available Texas Ventilators</t>
+  </si>
+  <si>
+    <t>Texas Statewide Hospitalization Data as of 5/29 at 9:30AM CST</t>
+  </si>
+  <si>
+    <t>New Viral Tests Reported* (Average of previous 7 days)</t>
+  </si>
+  <si>
+    <t>New Antibody Tests Reported* (Average of previous 7 days)</t>
+  </si>
+  <si>
+    <t>New Total Tests Reported* (Average of previous 7 days)</t>
+  </si>
+  <si>
+    <t>* Numbers are rounded to the nearest whole number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="###,##0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="##,###,##0"/>
     <numFmt numFmtId="167" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="169" formatCode="##0"/>
+    <numFmt numFmtId="168" formatCode="#####0"/>
+    <numFmt numFmtId="169" formatCode="##0.00"/>
+    <numFmt numFmtId="170" formatCode="##0"/>
     <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -1123,7 +1134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1161,12 +1172,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB0B7BB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1191,37 +1211,40 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1239,28 +1262,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{2D9E9C3F-10A9-4056-ACD2-DCC9E2F639DD}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{68F4BBCF-08DE-4150-A76C-1931938C4EC7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1406,11 +1438,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1428,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -1450,7 +1482,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -1483,7 +1515,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -1505,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1516,7 +1548,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1538,10 +1570,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1571,7 +1603,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
@@ -1582,10 +1614,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>2480</v>
+        <v>2583</v>
       </c>
       <c r="C17" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1593,7 +1625,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
@@ -1626,7 +1658,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="C21" s="4">
         <v>6</v>
@@ -1637,7 +1669,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>853</v>
+        <v>882</v>
       </c>
       <c r="C22" s="4">
         <v>12</v>
@@ -1648,7 +1680,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="C23" s="4">
         <v>19</v>
@@ -1692,7 +1724,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="4">
         <v>9</v>
@@ -1703,7 +1735,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1714,7 +1746,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -1725,7 +1757,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1758,10 +1790,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="C33" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1769,7 +1801,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -1791,7 +1823,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
@@ -1813,7 +1845,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1879,7 +1911,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -1890,7 +1922,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>1189</v>
+        <v>1236</v>
       </c>
       <c r="C45" s="4">
         <v>33</v>
@@ -1912,7 +1944,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1923,10 +1955,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C48" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1934,7 +1966,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -1956,7 +1988,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1967,7 +1999,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -1992,7 +2024,7 @@
         <v>22</v>
       </c>
       <c r="C54" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2033,7 +2065,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2044,10 +2076,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>9188</v>
+        <v>9587</v>
       </c>
       <c r="C59" s="4">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2055,7 +2087,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
@@ -2077,10 +2109,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C62" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2099,7 +2131,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1255</v>
+        <v>1318</v>
       </c>
       <c r="C64" s="4">
         <v>30</v>
@@ -2187,10 +2219,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>2461</v>
+        <v>2623</v>
       </c>
       <c r="C72" s="4">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2198,10 +2230,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="C73" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2231,7 +2263,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C76" s="4">
         <v>2</v>
@@ -2242,7 +2274,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2264,7 +2296,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -2286,7 +2318,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>1732</v>
+        <v>1783</v>
       </c>
       <c r="C81" s="4">
         <v>41</v>
@@ -2341,7 +2373,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>763</v>
+        <v>788</v>
       </c>
       <c r="C86" s="4">
         <v>32</v>
@@ -2396,7 +2428,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C91" s="4">
         <v>2</v>
@@ -2418,7 +2450,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="C93" s="4">
         <v>2</v>
@@ -2429,10 +2461,10 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C94" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2440,7 +2472,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -2451,7 +2483,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -2462,7 +2494,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C97" s="4">
         <v>4</v>
@@ -2517,7 +2549,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2528,10 +2560,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>11281</v>
+        <v>11770</v>
       </c>
       <c r="C103" s="4">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2539,10 +2571,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C104" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2561,7 +2593,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106" s="4">
         <v>0</v>
@@ -2572,7 +2604,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="C107" s="4">
         <v>3</v>
@@ -2594,10 +2626,10 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C109" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2605,7 +2637,7 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="C110" s="4">
         <v>10</v>
@@ -2638,7 +2670,7 @@
         <v>114</v>
       </c>
       <c r="B113" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C113" s="4">
         <v>3</v>
@@ -2649,7 +2681,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -2660,7 +2692,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2671,7 +2703,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2693,7 +2725,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C118" s="4">
         <v>4</v>
@@ -2704,7 +2736,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -2737,7 +2769,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -2770,7 +2802,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="C125" s="4">
         <v>27</v>
@@ -2803,7 +2835,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2814,7 +2846,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>101</v>
+        <v>354</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2836,7 +2868,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C131" s="4">
         <v>2</v>
@@ -2880,7 +2912,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C135" s="4">
         <v>0</v>
@@ -2957,7 +2989,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C142" s="4">
         <v>9</v>
@@ -3001,7 +3033,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C146" s="4">
         <v>0</v>
@@ -3012,7 +3044,7 @@
         <v>148</v>
       </c>
       <c r="B147" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3023,7 +3055,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3034,7 +3066,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3089,7 +3121,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C154" s="4">
         <v>50</v>
@@ -3100,7 +3132,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
@@ -3155,7 +3187,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3166,7 +3198,7 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C161" s="4">
         <v>1</v>
@@ -3188,7 +3220,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C163" s="4">
         <v>4</v>
@@ -3210,7 +3242,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3232,7 +3264,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C167" s="4">
         <v>12</v>
@@ -3287,10 +3319,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>913</v>
+        <v>940</v>
       </c>
       <c r="C172" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3298,7 +3330,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>518</v>
+        <v>602</v>
       </c>
       <c r="C173" s="4">
         <v>13</v>
@@ -3309,7 +3341,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3331,10 +3363,10 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C176" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3342,7 +3374,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C177" s="4">
         <v>2</v>
@@ -3375,7 +3407,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C180" s="4">
         <v>3</v>
@@ -3386,7 +3418,7 @@
         <v>182</v>
       </c>
       <c r="B181" s="4">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
@@ -3408,7 +3440,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C183" s="4">
         <v>2</v>
@@ -3419,7 +3451,7 @@
         <v>185</v>
       </c>
       <c r="B184" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C184" s="4">
         <v>2</v>
@@ -3430,10 +3462,10 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C185" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3441,7 +3473,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3452,7 +3484,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
@@ -3463,7 +3495,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3474,7 +3506,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3485,10 +3517,10 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2251</v>
+        <v>2276</v>
       </c>
       <c r="C190" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3518,7 +3550,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C193" s="4">
         <v>6</v>
@@ -3529,7 +3561,7 @@
         <v>195</v>
       </c>
       <c r="B194" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194" s="4">
         <v>0</v>
@@ -3554,7 +3586,7 @@
         <v>50</v>
       </c>
       <c r="C196" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3595,7 +3627,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3606,10 +3638,10 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C201" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3617,7 +3649,7 @@
         <v>203</v>
       </c>
       <c r="B202" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -3628,7 +3660,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3639,7 +3671,7 @@
         <v>205</v>
       </c>
       <c r="B204" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" s="4">
         <v>0</v>
@@ -3650,7 +3682,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C205" s="4">
         <v>2</v>
@@ -3672,7 +3704,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -3705,7 +3737,7 @@
         <v>211</v>
       </c>
       <c r="B210" s="4">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C210" s="4">
         <v>0</v>
@@ -3727,7 +3759,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C212" s="4">
         <v>6</v>
@@ -3738,7 +3770,7 @@
         <v>214</v>
       </c>
       <c r="B213" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C213" s="4">
         <v>0</v>
@@ -3749,7 +3781,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3771,7 +3803,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3826,7 +3858,7 @@
         <v>222</v>
       </c>
       <c r="B221" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C221" s="4">
         <v>0</v>
@@ -3837,10 +3869,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>5039</v>
+        <v>5294</v>
       </c>
       <c r="C222" s="4">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3848,7 +3880,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3892,7 +3924,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>347</v>
+        <v>464</v>
       </c>
       <c r="C227" s="4">
         <v>2</v>
@@ -3903,7 +3935,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3914,10 +3946,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>2984</v>
+        <v>3124</v>
       </c>
       <c r="C229" s="4">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3947,7 +3979,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -3969,7 +4001,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -3980,7 +4012,7 @@
         <v>236</v>
       </c>
       <c r="B235" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C235" s="4">
         <v>0</v>
@@ -4002,7 +4034,7 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C237" s="4">
         <v>7</v>
@@ -4013,7 +4045,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>716</v>
+        <v>869</v>
       </c>
       <c r="C238" s="4">
         <v>27</v>
@@ -4046,10 +4078,10 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C241" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4057,7 +4089,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="C242" s="4">
         <v>19</v>
@@ -4068,7 +4100,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C243" s="4">
         <v>0</v>
@@ -4101,7 +4133,7 @@
         <v>247</v>
       </c>
       <c r="B246" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4123,10 +4155,10 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="C248" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4167,7 +4199,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C252" s="4">
         <v>1</v>
@@ -4222,10 +4254,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>57921</v>
+        <v>61006</v>
       </c>
       <c r="C257" s="4">
-        <v>1562</v>
+        <v>1626</v>
       </c>
     </row>
   </sheetData>
@@ -4238,70 +4270,70 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection activeCell="A4" sqref="A4:C258"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90625" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3" s="9">
-        <v>6709</v>
-      </c>
-      <c r="C3" s="29">
-        <v>0.45400000000000001</v>
+        <v>306</v>
+      </c>
+      <c r="B3" s="8">
+        <v>6718</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.45200000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" s="9">
-        <v>7796</v>
-      </c>
-      <c r="C4" s="29">
-        <v>0.52700000000000002</v>
+        <v>307</v>
+      </c>
+      <c r="B4" s="8">
+        <v>7878</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.53</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="9">
-        <v>281</v>
-      </c>
-      <c r="C5" s="29">
+        <v>301</v>
+      </c>
+      <c r="B5" s="8">
+        <v>282</v>
+      </c>
+      <c r="C5" s="19">
         <v>1.9E-2</v>
       </c>
     </row>
@@ -4309,26 +4341,26 @@
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="9">
-        <v>14786</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="B6" s="8">
+        <v>14878</v>
+      </c>
+      <c r="C6" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4342,13 +4374,13 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection activeCell="A4" sqref="A4:C258"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4359,113 +4391,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B3" s="9">
+        <v>310</v>
+      </c>
+      <c r="B3" s="8">
         <v>498</v>
       </c>
-      <c r="C3" s="29">
-        <v>3.4000000000000002E-2</v>
+      <c r="C3" s="19">
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="9">
-        <v>2315</v>
-      </c>
-      <c r="C4" s="29">
+        <v>311</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2341</v>
+      </c>
+      <c r="C4" s="19">
         <v>0.157</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B5" s="9">
-        <v>5873</v>
-      </c>
-      <c r="C5" s="29">
+        <v>312</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5912</v>
+      </c>
+      <c r="C5" s="19">
         <v>0.39700000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B6" s="9">
+        <v>313</v>
+      </c>
+      <c r="B6" s="8">
         <v>96</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B7" s="9">
-        <v>4065</v>
-      </c>
-      <c r="C7" s="29">
+        <v>314</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4093</v>
+      </c>
+      <c r="C7" s="19">
         <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1939</v>
-      </c>
-      <c r="C8" s="29">
-        <v>0.13100000000000001</v>
+        <v>301</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1938</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="9">
-        <v>14786</v>
-      </c>
-      <c r="C9" s="29">
+      <c r="B9" s="8">
+        <v>14878</v>
+      </c>
+      <c r="C9" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4479,207 +4511,207 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection activeCell="A4" sqref="A4:C258"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>284</v>
+      <c r="A2" s="11" t="s">
+        <v>286</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="29">
+        <v>289</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="29">
+        <v>290</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B5" s="10">
+        <v>291</v>
+      </c>
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="29">
-        <v>4.0000000000000001E-3</v>
+      <c r="C5" s="19">
+        <v>4.0733197555999998E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" s="10">
+        <v>292</v>
+      </c>
+      <c r="B6" s="12">
         <v>11</v>
       </c>
-      <c r="C6" s="29">
-        <v>2.1999999999999999E-2</v>
+      <c r="C6" s="19">
+        <v>2.24032586558E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B7" s="10">
+        <v>293</v>
+      </c>
+      <c r="B7" s="12">
         <v>9</v>
       </c>
-      <c r="C7" s="29">
-        <v>1.7999999999999999E-2</v>
+      <c r="C7" s="19">
+        <v>1.8329938900199998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B8" s="10">
+        <v>294</v>
+      </c>
+      <c r="B8" s="12">
         <v>21</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="19">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B9" s="10">
+        <v>295</v>
+      </c>
+      <c r="B9" s="12">
         <v>54</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="19">
         <v>0.11</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B10" s="10">
+        <v>296</v>
+      </c>
+      <c r="B10" s="12">
         <v>45</v>
       </c>
-      <c r="C10" s="29">
-        <v>9.0999999999999998E-2</v>
+      <c r="C10" s="19">
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B11" s="10">
-        <v>59</v>
-      </c>
-      <c r="C11" s="29">
-        <v>0.12</v>
+        <v>297</v>
+      </c>
+      <c r="B11" s="12">
+        <v>58</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B12" s="10">
+        <v>298</v>
+      </c>
+      <c r="B12" s="12">
         <v>45</v>
       </c>
-      <c r="C12" s="29">
-        <v>9.0999999999999998E-2</v>
+      <c r="C12" s="19">
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B13" s="10">
+        <v>299</v>
+      </c>
+      <c r="B13" s="12">
         <v>45</v>
       </c>
-      <c r="C13" s="29">
-        <v>9.0999999999999998E-2</v>
+      <c r="C13" s="19">
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B14" s="10">
+        <v>300</v>
+      </c>
+      <c r="B14" s="12">
         <v>198</v>
       </c>
-      <c r="C14" s="29">
-        <v>0.40200000000000002</v>
+      <c r="C14" s="19">
+        <v>0.40300000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B15" s="10">
+        <v>301</v>
+      </c>
+      <c r="B15" s="12">
         <v>3</v>
       </c>
-      <c r="C15" s="29">
-        <v>6.0000000000000001E-3</v>
+      <c r="C15" s="19">
+        <v>6.1099796333999997E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="10">
-        <v>492</v>
-      </c>
-      <c r="C16" s="29">
+      <c r="B16" s="12">
+        <v>491</v>
+      </c>
+      <c r="C16" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4693,97 +4725,97 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection activeCell="A4" sqref="A4:C258"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B3" s="10">
+        <v>306</v>
+      </c>
+      <c r="B3" s="12">
         <v>192</v>
       </c>
-      <c r="C3" s="29">
-        <v>0.39</v>
+      <c r="C3" s="19">
+        <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" s="10">
-        <v>269</v>
-      </c>
-      <c r="C4" s="29">
-        <v>0.54700000000000004</v>
+        <v>307</v>
+      </c>
+      <c r="B4" s="12">
+        <v>268</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="10">
+        <v>301</v>
+      </c>
+      <c r="B5" s="12">
         <v>31</v>
       </c>
-      <c r="C5" s="29">
-        <v>6.3008130081300004E-2</v>
+      <c r="C5" s="19">
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="10">
-        <v>492</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="B6" s="12">
+        <v>491</v>
+      </c>
+      <c r="C6" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4797,103 +4829,103 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection activeCell="A4" sqref="A4:C258"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B3" s="10">
+        <v>310</v>
+      </c>
+      <c r="B3" s="12">
         <v>6</v>
       </c>
-      <c r="C3" s="29">
-        <v>1.2E-2</v>
+      <c r="C3" s="19">
+        <v>1.2219959266799999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="10">
+        <v>311</v>
+      </c>
+      <c r="B4" s="12">
         <v>67</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="19">
         <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B5" s="10">
+        <v>312</v>
+      </c>
+      <c r="B5" s="12">
         <v>122</v>
       </c>
-      <c r="C5" s="29">
-        <v>0.24796747967480001</v>
+      <c r="C5" s="19">
+        <v>0.248</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B6" s="10">
-        <v>2</v>
-      </c>
-      <c r="C6" s="29">
-        <v>4.0000000000000001E-3</v>
+        <v>313</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19">
+        <v>2.0366598777999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B7" s="10">
+        <v>314</v>
+      </c>
+      <c r="B7" s="12">
         <v>181</v>
       </c>
-      <c r="C7" s="29">
-        <v>0.36799999999999999</v>
+      <c r="C7" s="19">
+        <v>0.36899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="10">
+        <v>301</v>
+      </c>
+      <c r="B8" s="12">
         <v>114</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="19">
         <v>0.23200000000000001</v>
       </c>
     </row>
@@ -4901,26 +4933,26 @@
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="10">
-        <v>492</v>
-      </c>
-      <c r="C9" s="29">
+      <c r="B9" s="12">
+        <v>491</v>
+      </c>
+      <c r="C9" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4935,12 +4967,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4:C258"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4952,264 +4984,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>43914</v>
-      </c>
-      <c r="B3" s="4">
-        <v>712</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4">
-        <v>425</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
+      <c r="E3" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B4" s="4">
-        <v>975</v>
+        <v>1394</v>
       </c>
       <c r="C4" s="4">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4">
-        <v>263</v>
+        <v>419</v>
       </c>
       <c r="E4" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B5" s="4">
-        <v>1394</v>
+        <v>1731</v>
       </c>
       <c r="C5" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
-        <v>419</v>
+        <v>337</v>
       </c>
       <c r="E5" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B6" s="4">
-        <v>1731</v>
+        <v>2048</v>
       </c>
       <c r="C6" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="E6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B7" s="4">
-        <v>2048</v>
+        <v>2552</v>
       </c>
       <c r="C7" s="4">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4">
-        <v>317</v>
+        <v>504</v>
       </c>
       <c r="E7" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B8" s="4">
-        <v>2552</v>
+        <v>2874</v>
       </c>
       <c r="C8" s="4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4">
-        <v>504</v>
+        <v>322</v>
       </c>
       <c r="E8" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B9" s="4">
-        <v>2874</v>
+        <v>3266</v>
       </c>
       <c r="C9" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4">
-        <v>322</v>
+        <v>392</v>
       </c>
       <c r="E9" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B10" s="4">
-        <v>3266</v>
+        <v>3996</v>
       </c>
       <c r="C10" s="4">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4">
-        <v>392</v>
+        <v>730</v>
       </c>
       <c r="E10" s="4">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B11" s="4">
-        <v>3996</v>
+        <v>4665</v>
       </c>
       <c r="C11" s="4">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4">
-        <v>730</v>
+        <v>669</v>
       </c>
       <c r="E11" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B12" s="4">
-        <v>4665</v>
+        <v>5324</v>
       </c>
       <c r="C12" s="4">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D12" s="4">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="E12" s="4">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B13" s="4">
-        <v>5324</v>
+        <v>6112</v>
       </c>
       <c r="C13" s="4">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D13" s="4">
-        <v>659</v>
+        <v>788</v>
       </c>
       <c r="E13" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B14" s="4">
-        <v>6112</v>
+        <v>6793</v>
       </c>
       <c r="C14" s="4">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D14" s="4">
-        <v>788</v>
+        <v>681</v>
       </c>
       <c r="E14" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B15" s="4">
-        <v>6793</v>
+        <v>7273</v>
       </c>
       <c r="C15" s="4">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D15" s="4">
-        <v>681</v>
+        <v>480</v>
       </c>
       <c r="E15" s="4">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B16" s="4">
-        <v>7273</v>
+        <v>8261</v>
       </c>
       <c r="C16" s="4">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D16" s="4">
-        <v>480</v>
+        <v>988</v>
       </c>
       <c r="E16" s="4">
         <v>14</v>
@@ -5217,874 +5241,892 @@
     </row>
     <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B17" s="4">
-        <v>8261</v>
+        <v>9353</v>
       </c>
       <c r="C17" s="4">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D17" s="4">
-        <v>988</v>
+        <v>1092</v>
       </c>
       <c r="E17" s="4">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B18" s="4">
-        <v>9353</v>
+        <v>10230</v>
       </c>
       <c r="C18" s="4">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D18" s="4">
-        <v>1092</v>
+        <v>877</v>
       </c>
       <c r="E18" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B19" s="4">
-        <v>10230</v>
+        <v>11671</v>
       </c>
       <c r="C19" s="4">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D19" s="4">
-        <v>877</v>
+        <v>1441</v>
       </c>
       <c r="E19" s="4">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B20" s="4">
-        <v>11671</v>
+        <v>12561</v>
       </c>
       <c r="C20" s="4">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="D20" s="4">
-        <v>1441</v>
+        <v>890</v>
       </c>
       <c r="E20" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B21" s="4">
-        <v>12561</v>
+        <v>13484</v>
       </c>
       <c r="C21" s="4">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="D21" s="4">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="E21" s="4">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B22" s="4">
-        <v>13484</v>
+        <v>13906</v>
       </c>
       <c r="C22" s="4">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="D22" s="4">
-        <v>923</v>
+        <v>422</v>
       </c>
       <c r="E22" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B23" s="4">
-        <v>13906</v>
+        <v>14624</v>
       </c>
       <c r="C23" s="4">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="D23" s="4">
-        <v>422</v>
+        <v>718</v>
       </c>
       <c r="E23" s="4">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B24" s="4">
-        <v>14624</v>
+        <v>15492</v>
       </c>
       <c r="C24" s="4">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="D24" s="4">
-        <v>718</v>
+        <v>868</v>
       </c>
       <c r="E24" s="4">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B25" s="4">
-        <v>15492</v>
+        <v>16455</v>
       </c>
       <c r="C25" s="4">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="D25" s="4">
-        <v>868</v>
+        <v>963</v>
       </c>
       <c r="E25" s="4">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B26" s="4">
-        <v>16455</v>
+        <v>17371</v>
       </c>
       <c r="C26" s="4">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="D26" s="4">
-        <v>963</v>
+        <v>916</v>
       </c>
       <c r="E26" s="4">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B27" s="4">
-        <v>17371</v>
+        <v>18260</v>
       </c>
       <c r="C27" s="4">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="D27" s="4">
-        <v>916</v>
+        <v>889</v>
       </c>
       <c r="E27" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B28" s="4">
-        <v>18260</v>
+        <v>18923</v>
       </c>
       <c r="C28" s="4">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="D28" s="4">
-        <v>889</v>
+        <v>663</v>
       </c>
       <c r="E28" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B29" s="4">
-        <v>18923</v>
+        <v>19458</v>
       </c>
       <c r="C29" s="4">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="D29" s="4">
-        <v>663</v>
+        <v>535</v>
       </c>
       <c r="E29" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B30" s="4">
-        <v>19458</v>
+        <v>20196</v>
       </c>
       <c r="C30" s="4">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="D30" s="4">
-        <v>535</v>
+        <v>738</v>
       </c>
       <c r="E30" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B31" s="4">
-        <v>20196</v>
+        <v>21069</v>
       </c>
       <c r="C31" s="4">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="D31" s="4">
-        <v>738</v>
+        <v>873</v>
       </c>
       <c r="E31" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B32" s="4">
-        <v>21069</v>
+        <v>21944</v>
       </c>
       <c r="C32" s="4">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="D32" s="4">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E32" s="4">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B33" s="4">
-        <v>21944</v>
+        <v>22806</v>
       </c>
       <c r="C33" s="4">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="D33" s="4">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="E33" s="4">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B34" s="4">
-        <v>22806</v>
+        <v>23773</v>
       </c>
       <c r="C34" s="4">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="D34" s="4">
-        <v>862</v>
+        <v>967</v>
       </c>
       <c r="E34" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B35" s="4">
-        <v>23773</v>
+        <v>24631</v>
       </c>
       <c r="C35" s="4">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="D35" s="4">
-        <v>967</v>
+        <v>858</v>
       </c>
       <c r="E35" s="4">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B36" s="4">
-        <v>24631</v>
+        <v>25297</v>
       </c>
       <c r="C36" s="4">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="D36" s="4">
-        <v>858</v>
+        <v>666</v>
       </c>
       <c r="E36" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B37" s="4">
-        <v>25297</v>
+        <v>26171</v>
       </c>
       <c r="C37" s="4">
-        <v>663</v>
+        <v>690</v>
       </c>
       <c r="D37" s="4">
-        <v>666</v>
+        <v>874</v>
       </c>
       <c r="E37" s="4">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B38" s="4">
-        <v>26171</v>
+        <v>27054</v>
       </c>
       <c r="C38" s="4">
-        <v>690</v>
+        <v>732</v>
       </c>
       <c r="D38" s="4">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="E38" s="4">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B39" s="4">
-        <v>27054</v>
+        <v>28087</v>
       </c>
       <c r="C39" s="4">
-        <v>732</v>
+        <v>782</v>
       </c>
       <c r="D39" s="4">
-        <v>883</v>
+        <v>1033</v>
       </c>
       <c r="E39" s="4">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B40" s="4">
-        <v>28087</v>
+        <v>29229</v>
       </c>
       <c r="C40" s="4">
-        <v>782</v>
+        <v>816</v>
       </c>
       <c r="D40" s="4">
-        <v>1033</v>
+        <v>1142</v>
       </c>
       <c r="E40" s="4">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B41" s="4">
-        <v>29229</v>
+        <v>30522</v>
       </c>
       <c r="C41" s="4">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="D41" s="4">
-        <v>1142</v>
+        <v>1293</v>
       </c>
       <c r="E41" s="4">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B42" s="4">
-        <v>30522</v>
+        <v>31548</v>
       </c>
       <c r="C42" s="4">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="D42" s="4">
-        <v>1293</v>
+        <v>1026</v>
       </c>
       <c r="E42" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B43" s="4">
-        <v>31548</v>
+        <v>32332</v>
       </c>
       <c r="C43" s="4">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="D43" s="4">
-        <v>1026</v>
+        <v>784</v>
       </c>
       <c r="E43" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B44" s="4">
-        <v>32332</v>
+        <v>33369</v>
       </c>
       <c r="C44" s="4">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="D44" s="4">
-        <v>784</v>
+        <v>1037</v>
       </c>
       <c r="E44" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B45" s="4">
-        <v>33369</v>
+        <v>34422</v>
       </c>
       <c r="C45" s="4">
-        <v>906</v>
+        <v>948</v>
       </c>
       <c r="D45" s="4">
-        <v>1037</v>
+        <v>1053</v>
       </c>
       <c r="E45" s="4">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B46" s="4">
-        <v>34422</v>
+        <v>35390</v>
       </c>
       <c r="C46" s="4">
-        <v>948</v>
+        <v>973</v>
       </c>
       <c r="D46" s="4">
-        <v>1053</v>
+        <v>968</v>
       </c>
       <c r="E46" s="4">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B47" s="4">
-        <v>35390</v>
+        <v>36609</v>
       </c>
       <c r="C47" s="4">
-        <v>973</v>
+        <v>1004</v>
       </c>
       <c r="D47" s="4">
-        <v>968</v>
+        <v>1219</v>
       </c>
       <c r="E47" s="4">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B48" s="4">
-        <v>36609</v>
+        <v>37860</v>
       </c>
       <c r="C48" s="4">
-        <v>1004</v>
+        <v>1049</v>
       </c>
       <c r="D48" s="4">
-        <v>1219</v>
+        <v>1251</v>
       </c>
       <c r="E48" s="4">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B49" s="4">
-        <v>37860</v>
+        <v>38869</v>
       </c>
       <c r="C49" s="4">
-        <v>1049</v>
+        <v>1088</v>
       </c>
       <c r="D49" s="4">
-        <v>1251</v>
+        <v>1009</v>
       </c>
       <c r="E49" s="4">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B50" s="4">
-        <v>38869</v>
+        <v>39869</v>
       </c>
       <c r="C50" s="4">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="D50" s="4">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="E50" s="4">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B51" s="4">
-        <v>39869</v>
+        <v>41048</v>
       </c>
       <c r="C51" s="4">
-        <v>1100</v>
+        <v>1133</v>
       </c>
       <c r="D51" s="4">
-        <v>1000</v>
+        <v>1179</v>
       </c>
       <c r="E51" s="4">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B52" s="4">
-        <v>41048</v>
+        <v>42403</v>
       </c>
       <c r="C52" s="4">
-        <v>1133</v>
+        <v>1158</v>
       </c>
       <c r="D52" s="4">
-        <v>1179</v>
+        <v>1355</v>
       </c>
       <c r="E52" s="4">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B53" s="4">
-        <v>42403</v>
+        <v>43851</v>
       </c>
       <c r="C53" s="4">
-        <v>1158</v>
+        <v>1216</v>
       </c>
       <c r="D53" s="4">
-        <v>1355</v>
+        <v>1448</v>
       </c>
       <c r="E53" s="4">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B54" s="4">
-        <v>43851</v>
+        <v>45198</v>
       </c>
       <c r="C54" s="4">
-        <v>1216</v>
+        <v>1272</v>
       </c>
       <c r="D54" s="4">
-        <v>1448</v>
+        <v>1347</v>
       </c>
       <c r="E54" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B55" s="4">
-        <v>45198</v>
+        <v>46999</v>
       </c>
       <c r="C55" s="4">
-        <v>1272</v>
+        <v>1305</v>
       </c>
       <c r="D55" s="4">
-        <v>1347</v>
+        <v>1801</v>
       </c>
       <c r="E55" s="4">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B56" s="4">
-        <v>46999</v>
+        <v>47784</v>
       </c>
       <c r="C56" s="4">
-        <v>1305</v>
+        <v>1336</v>
       </c>
       <c r="D56" s="4">
-        <v>1801</v>
+        <v>785</v>
       </c>
       <c r="E56" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B57" s="4">
-        <v>47784</v>
+        <v>48693</v>
       </c>
       <c r="C57" s="4">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D57" s="4">
-        <v>785</v>
+        <v>909</v>
       </c>
       <c r="E57" s="4">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B58" s="4">
-        <v>48693</v>
+        <v>49912</v>
       </c>
       <c r="C58" s="4">
-        <v>1347</v>
+        <v>1369</v>
       </c>
       <c r="D58" s="4">
-        <v>909</v>
+        <v>1219</v>
       </c>
       <c r="E58" s="4">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B59" s="4">
-        <v>49912</v>
+        <v>51323</v>
       </c>
       <c r="C59" s="4">
-        <v>1369</v>
+        <v>1419</v>
       </c>
       <c r="D59" s="4">
-        <v>1219</v>
+        <v>1411</v>
       </c>
       <c r="E59" s="4">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B60" s="4">
-        <v>51323</v>
+        <v>52268</v>
       </c>
       <c r="C60" s="4">
-        <v>1419</v>
+        <v>1440</v>
       </c>
       <c r="D60" s="4">
-        <v>1411</v>
+        <v>945</v>
       </c>
       <c r="E60" s="4">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B61" s="4">
-        <v>52268</v>
+        <v>53449</v>
       </c>
       <c r="C61" s="4">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="D61" s="4">
-        <v>945</v>
+        <v>1181</v>
       </c>
       <c r="E61" s="4">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B62" s="4">
-        <v>53449</v>
+        <v>54509</v>
       </c>
       <c r="C62" s="4">
-        <v>1480</v>
+        <v>1506</v>
       </c>
       <c r="D62" s="4">
-        <v>1181</v>
+        <v>1060</v>
       </c>
       <c r="E62" s="4">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B63" s="4">
-        <v>54509</v>
+        <v>55348</v>
       </c>
       <c r="C63" s="4">
-        <v>1506</v>
+        <v>1519</v>
       </c>
       <c r="D63" s="4">
-        <v>1060</v>
+        <v>839</v>
       </c>
       <c r="E63" s="4">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B64" s="4">
-        <v>55348</v>
+        <v>55971</v>
       </c>
       <c r="C64" s="4">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="D64" s="4">
-        <v>839</v>
+        <v>623</v>
       </c>
       <c r="E64" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B65" s="4">
-        <v>55971</v>
+        <v>56560</v>
       </c>
       <c r="C65" s="4">
-        <v>1527</v>
+        <v>1536</v>
       </c>
       <c r="D65" s="4">
-        <v>623</v>
+        <v>589</v>
       </c>
       <c r="E65" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B66" s="4">
-        <v>56560</v>
+        <v>57921</v>
       </c>
       <c r="C66" s="4">
-        <v>1536</v>
+        <v>1562</v>
       </c>
       <c r="D66" s="4">
-        <v>589</v>
+        <v>1361</v>
       </c>
       <c r="E66" s="4">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B67" s="4">
-        <v>57921</v>
+        <v>59776</v>
       </c>
       <c r="C67" s="4">
-        <v>1562</v>
+        <v>1601</v>
       </c>
       <c r="D67" s="4">
-        <v>1361</v>
+        <v>1855</v>
       </c>
       <c r="E67" s="4">
-        <v>26</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>43980</v>
+      </c>
+      <c r="B68" s="4">
+        <v>61006</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1626</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1230</v>
+      </c>
+      <c r="E68" s="4">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6097,8 +6139,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection activeCell="A4" sqref="A4:C258"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6108,32 +6150,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>37626</v>
+        <v>40068</v>
       </c>
       <c r="B3" s="7">
-        <v>22055</v>
+        <v>19312</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" s="20"/>
+      <c r="A5" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6147,63 +6189,1182 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K61"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4:C258"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.90625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8">
+        <v>63751</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8">
+        <v>70938</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8">
+        <v>85357</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8">
+        <v>88649</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8">
+        <v>96258</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>43930</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8">
+        <v>106134</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>43931</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="8">
+        <v>115918</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>43932</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="8">
+        <v>120533</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>43933</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="8">
+        <v>124553</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.12479716497248904</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>43934</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8">
+        <v>133226</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0.13856566880444546</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>43935</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="8">
+        <v>146467</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0.11005223286865681</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>43936</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="8">
+        <v>151810</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.11050907258064516</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>43937</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="8">
+        <v>158547</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0.11876824451948945</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>43938</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8">
+        <v>169536</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0.10630758327427356</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>43939</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="8">
+        <v>176239</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0.10230495817326679</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>43940</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="8">
+        <v>182710</v>
+      </c>
+      <c r="E18" s="28">
+        <v>9.3522705779183937E-2</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>43941</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="8">
+        <v>190394</v>
+      </c>
+      <c r="E19" s="28">
+        <v>9.7117268401903156E-2</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>43942</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="8">
+        <v>205399</v>
+      </c>
+      <c r="E20" s="28">
+        <v>9.4549650444580191E-2</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>43943</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="8">
+        <v>216783</v>
+      </c>
+      <c r="E21" s="28">
+        <v>8.5835654810459724E-2</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>43944</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="8">
+        <v>225078</v>
+      </c>
+      <c r="E22" s="28">
+        <v>8.2502893388044674E-2</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>43945</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="8">
+        <v>242547</v>
+      </c>
+      <c r="E23" s="28">
+        <v>7.4440837681993124E-2</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>43946</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="8">
+        <v>262816</v>
+      </c>
+      <c r="E24" s="28">
+        <v>6.3677420100026569E-2</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>43947</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="8">
+        <v>276021</v>
+      </c>
+      <c r="E25" s="28">
+        <v>6.1171780390307684E-2</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>43948</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="8">
+        <v>290517</v>
+      </c>
+      <c r="E26" s="28">
+        <v>5.8318268529708457E-2</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>43949</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8">
+        <v>300384</v>
+      </c>
+      <c r="E27" s="28">
+        <v>6.2904669158288157E-2</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>43950</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="8">
+        <v>314790</v>
+      </c>
+      <c r="E28" s="28">
+        <v>6.106706663809728E-2</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>43951</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="8">
+        <v>330300</v>
+      </c>
+      <c r="E29" s="28">
+        <v>5.8381327098895666E-2</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>43952</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="8">
+        <v>351775</v>
+      </c>
+      <c r="E30" s="28">
+        <v>5.8803603471637308E-2</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>43953</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="8">
+        <v>380648</v>
+      </c>
+      <c r="E31" s="28">
+        <v>5.7276461402674998E-2</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>43954</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="8">
+        <v>390560</v>
+      </c>
+      <c r="E32" s="28">
+        <v>6.0389910860056399E-2</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>43955</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="8">
+        <v>407398</v>
+      </c>
+      <c r="E33" s="28">
+        <v>6.0189423430668798E-2</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>43956</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="8">
+        <v>427210</v>
+      </c>
+      <c r="E34" s="28">
+        <v>5.6754924069197167E-2</v>
+      </c>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>43957</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="8">
+        <v>438938</v>
+      </c>
+      <c r="E35" s="28">
+        <v>5.9348519508973158E-2</v>
+      </c>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>43958</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="8">
+        <v>455162</v>
+      </c>
+      <c r="E36" s="28">
+        <v>5.8488571382806616E-2</v>
+      </c>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>43959</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="8">
+        <v>477118</v>
+      </c>
+      <c r="E37" s="28">
+        <v>5.8878437567315284E-2</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+    </row>
+    <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>43960</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="8">
+        <v>489294</v>
+      </c>
+      <c r="E38" s="28">
+        <v>6.7540452478692267E-2</v>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+    </row>
+    <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>43961</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="8">
+        <v>513978</v>
+      </c>
+      <c r="E39" s="28">
+        <v>5.931873794746309E-2</v>
+      </c>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+    </row>
+    <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>43962</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="8">
+        <v>525697</v>
+      </c>
+      <c r="E40" s="28">
+        <v>6.371144303840269E-2</v>
+      </c>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+    </row>
+    <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>43963</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="8">
+        <v>538172</v>
+      </c>
+      <c r="E41" s="28">
+        <v>6.9203871595681407E-2</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+    </row>
+    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>43964</v>
+      </c>
+      <c r="B42" s="26">
+        <f>D42-C42</f>
+        <v>556776</v>
+      </c>
+      <c r="C42" s="26">
+        <v>30655</v>
+      </c>
+      <c r="D42" s="8">
+        <v>587431</v>
+      </c>
+      <c r="E42" s="28">
+        <v>5.3746641255816775E-2</v>
+      </c>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+    </row>
+    <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>43965</v>
+      </c>
+      <c r="B43" s="26">
+        <f t="shared" ref="B43:B49" si="0">D43-C43</f>
+        <v>587313</v>
+      </c>
+      <c r="C43" s="26">
+        <v>35971</v>
+      </c>
+      <c r="D43" s="8">
+        <v>623284</v>
+      </c>
+      <c r="E43" s="28">
+        <v>5.0326548577818486E-2</v>
+      </c>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+    </row>
+    <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>43966</v>
+      </c>
+      <c r="B44" s="26">
+        <f t="shared" si="0"/>
+        <v>609630</v>
+      </c>
+      <c r="C44" s="26">
+        <v>36362</v>
+      </c>
+      <c r="D44" s="8">
+        <v>645992</v>
+      </c>
+      <c r="E44" s="28">
+        <v>5.0860404798844107E-2</v>
+      </c>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+    </row>
+    <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>43967</v>
+      </c>
+      <c r="B45" s="26">
+        <f t="shared" si="0"/>
+        <v>638739</v>
+      </c>
+      <c r="C45" s="26">
+        <v>39732</v>
+      </c>
+      <c r="D45" s="8">
+        <v>678471</v>
+      </c>
+      <c r="E45" s="28">
+        <v>4.8309255353452055E-2</v>
+      </c>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+    </row>
+    <row r="46" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>43968</v>
+      </c>
+      <c r="B46" s="26">
+        <f t="shared" si="0"/>
+        <v>650355</v>
+      </c>
+      <c r="C46" s="26">
+        <v>42921</v>
+      </c>
+      <c r="D46" s="8">
+        <v>693276</v>
+      </c>
+      <c r="E46" s="28">
+        <v>4.9721692378052185E-2</v>
+      </c>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+    </row>
+    <row r="47" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>43969</v>
+      </c>
+      <c r="B47" s="26">
+        <f t="shared" si="0"/>
+        <v>679845</v>
+      </c>
+      <c r="C47" s="26">
+        <v>43168</v>
+      </c>
+      <c r="D47" s="8">
+        <v>723013</v>
+      </c>
+      <c r="E47" s="28">
+        <v>4.4720144337002575E-2</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+    </row>
+    <row r="48" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>43970</v>
+      </c>
+      <c r="B48" s="26">
+        <f t="shared" si="0"/>
+        <v>700146</v>
+      </c>
+      <c r="C48" s="26">
+        <v>44791</v>
+      </c>
+      <c r="D48" s="8">
+        <v>744937</v>
+      </c>
+      <c r="E48" s="28">
+        <v>4.6958852729112474E-2</v>
+      </c>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>43971</v>
+      </c>
+      <c r="B49" s="26">
+        <f t="shared" si="0"/>
+        <v>720928</v>
+      </c>
+      <c r="C49" s="26">
+        <v>49313</v>
+      </c>
+      <c r="D49" s="8">
+        <v>770241</v>
+      </c>
+      <c r="E49" s="28">
+        <v>5.4339880111116526E-2</v>
+      </c>
+      <c r="F49" s="26">
+        <v>23450</v>
+      </c>
+      <c r="G49" s="26">
+        <v>2665</v>
+      </c>
+      <c r="H49" s="26">
+        <v>26116</v>
+      </c>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+    </row>
+    <row r="50" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>43972</v>
+      </c>
+      <c r="B50" s="26">
+        <v>740181</v>
+      </c>
+      <c r="C50" s="26">
+        <v>60252</v>
+      </c>
+      <c r="D50" s="8">
+        <v>800433</v>
+      </c>
+      <c r="E50" s="28">
+        <v>5.5060575136719261E-2</v>
+      </c>
+      <c r="F50" s="26">
+        <v>21838</v>
+      </c>
+      <c r="G50" s="26">
+        <v>3469</v>
+      </c>
+      <c r="H50" s="26">
+        <v>25307</v>
+      </c>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+    </row>
+    <row r="51" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>43973</v>
+      </c>
+      <c r="B51" s="26">
+        <v>762706</v>
+      </c>
+      <c r="C51" s="26">
+        <v>71731</v>
+      </c>
+      <c r="D51" s="8">
+        <v>834437</v>
+      </c>
+      <c r="E51" s="28">
+        <v>5.3901330058271711E-2</v>
+      </c>
+      <c r="F51" s="26">
+        <v>21868</v>
+      </c>
+      <c r="G51" s="26">
+        <v>5053</v>
+      </c>
+      <c r="H51" s="26">
+        <v>26921</v>
+      </c>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+    </row>
+    <row r="52" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>43974</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="8">
+        <v>870935</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+    </row>
+    <row r="53" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>43975</v>
+      </c>
+      <c r="B53" s="26">
+        <v>805654</v>
+      </c>
+      <c r="C53" s="26">
+        <v>80700</v>
+      </c>
+      <c r="D53" s="8">
+        <v>886354</v>
+      </c>
+      <c r="E53" s="28">
+        <v>4.8706044469056464E-2</v>
+      </c>
+      <c r="F53" s="26">
+        <v>22186</v>
+      </c>
+      <c r="G53" s="26">
+        <v>5397</v>
+      </c>
+      <c r="H53" s="26">
+        <v>27583</v>
+      </c>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+    </row>
+    <row r="54" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>43976</v>
+      </c>
+      <c r="B54" s="26">
+        <v>821233</v>
+      </c>
+      <c r="C54" s="26">
+        <v>84841</v>
+      </c>
+      <c r="D54" s="8">
+        <v>906074</v>
+      </c>
+      <c r="E54" s="28">
+        <v>5.1475372733188106E-2</v>
+      </c>
+      <c r="F54" s="26">
+        <v>20198</v>
+      </c>
+      <c r="G54" s="26">
+        <v>5953</v>
+      </c>
+      <c r="H54" s="26">
+        <v>26152</v>
+      </c>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+    </row>
+    <row r="55" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>43977</v>
+      </c>
+      <c r="B55" s="26">
+        <v>855674</v>
+      </c>
+      <c r="C55" s="26">
+        <v>87565</v>
+      </c>
+      <c r="D55" s="8">
+        <v>943239</v>
+      </c>
+      <c r="E55" s="28">
+        <v>4.2744714778046394E-2</v>
+      </c>
+      <c r="F55" s="26">
+        <v>22218</v>
+      </c>
+      <c r="G55" s="26">
+        <v>6111</v>
+      </c>
+      <c r="H55" s="26">
+        <v>28329</v>
+      </c>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+    </row>
+    <row r="56" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>43978</v>
+      </c>
+      <c r="B56" s="26">
+        <v>873218</v>
+      </c>
+      <c r="C56" s="26">
+        <v>88643</v>
+      </c>
+      <c r="D56" s="8">
+        <v>961861</v>
+      </c>
+      <c r="E56" s="28">
+        <v>4.3325234749491105E-2</v>
+      </c>
+      <c r="F56" s="26">
+        <v>21756</v>
+      </c>
+      <c r="G56" s="26">
+        <v>5619</v>
+      </c>
+      <c r="H56" s="26">
+        <v>27374</v>
+      </c>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+    </row>
+    <row r="57" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>43979</v>
+      </c>
+      <c r="B57" s="26">
+        <v>893275</v>
+      </c>
+      <c r="C57" s="26">
+        <v>96719</v>
+      </c>
+      <c r="D57" s="8">
+        <v>989994</v>
+      </c>
+      <c r="E57" s="28">
+        <v>4.9041765190013978E-2</v>
+      </c>
+      <c r="F57" s="26">
+        <v>21871</v>
+      </c>
+      <c r="G57" s="26">
+        <v>5210</v>
+      </c>
+      <c r="H57" s="26">
+        <v>27080</v>
+      </c>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+    </row>
+    <row r="58" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>43980</v>
+      </c>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="8">
+        <v>1019467</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+    </row>
+    <row r="60" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+    </row>
+    <row r="61" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection activeCell="A4" sqref="A4:C258"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B3" s="7">
-        <v>33697</v>
+        <v>36423</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B4" s="7">
-        <v>928164</v>
+        <v>991026</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B5" s="7">
-        <v>961861</v>
+        <v>1027449</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="20"/>
+      <c r="A7" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6215,971 +7376,142 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A380FFF3-2B74-4AF6-B7D4-E097A32A99AE}">
-  <dimension ref="A1:E58"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF16BB5-BDD3-44AD-B412-EE72CDD131AB}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.90625" style="11"/>
+    <col min="1" max="1" width="55" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.81640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="D2" s="13" t="s">
+    <row r="1" spans="1:2" ht="12.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="B3" s="18">
+        <v>96719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>43925</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15">
-        <v>63751</v>
-      </c>
-      <c r="E3" s="27">
-        <v>0.1056</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>43926</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15">
-        <v>70938</v>
-      </c>
-      <c r="E4" s="27">
-        <v>9.3299999999999994E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>43927</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15">
-        <v>85357</v>
-      </c>
-      <c r="E5" s="27">
-        <v>8.8909998585200004E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>43928</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15">
-        <v>88649</v>
-      </c>
-      <c r="E6" s="27">
-        <v>0.1094</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>43929</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15">
-        <v>96258</v>
-      </c>
-      <c r="E7" s="27">
-        <v>0.11070000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>43930</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15">
-        <v>106134</v>
-      </c>
-      <c r="E8" s="27">
-        <v>0.100351636462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>43931</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15">
-        <v>115918</v>
-      </c>
-      <c r="E9" s="27">
-        <v>0.1055125178708</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>43932</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15">
-        <v>120533</v>
-      </c>
-      <c r="E10" s="27">
-        <v>0.11360000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>43933</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15">
-        <v>124553</v>
-      </c>
-      <c r="E11" s="27">
-        <v>0.12479999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>43934</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15">
-        <v>133226</v>
-      </c>
-      <c r="E12" s="27">
-        <v>0.1386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
-        <v>43935</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15">
-        <v>146467</v>
-      </c>
-      <c r="E13" s="27">
-        <v>0.1101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
-        <v>43936</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15">
-        <v>151810</v>
-      </c>
-      <c r="E14" s="27">
-        <v>0.1105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>43937</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15">
-        <v>158547</v>
-      </c>
-      <c r="E15" s="27">
-        <v>0.1188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
-        <v>43938</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15">
-        <v>169536</v>
-      </c>
-      <c r="E16" s="27">
-        <v>0.10630000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <v>43939</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15">
-        <v>176239</v>
-      </c>
-      <c r="E17" s="27">
-        <v>0.1023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
-        <v>43940</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15">
-        <v>182710</v>
-      </c>
-      <c r="E18" s="27">
-        <v>9.35E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>43941</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15">
-        <v>190394</v>
-      </c>
-      <c r="E19" s="27">
-        <v>9.7117268401900006E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
-        <v>43942</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15">
-        <v>205399</v>
-      </c>
-      <c r="E20" s="27">
-        <v>9.4500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
-        <v>43943</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15">
-        <v>216783</v>
-      </c>
-      <c r="E21" s="27">
-        <v>8.5800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
-        <v>43944</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15">
-        <v>225078</v>
-      </c>
-      <c r="E22" s="27">
-        <v>8.2500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
-        <v>43945</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15">
-        <v>242547</v>
-      </c>
-      <c r="E23" s="27">
-        <v>7.4399999999999994E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>43946</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15">
-        <v>262816</v>
-      </c>
-      <c r="E24" s="27">
-        <v>6.3700000000000007E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
-        <v>43947</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15">
-        <v>276021</v>
-      </c>
-      <c r="E25" s="27">
-        <v>6.1199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
-        <v>43948</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15">
-        <v>290517</v>
-      </c>
-      <c r="E26" s="27">
-        <v>5.8299999999999998E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
-        <v>43949</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15">
-        <v>300384</v>
-      </c>
-      <c r="E27" s="27">
-        <v>6.2899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
-        <v>43950</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15">
-        <v>314790</v>
-      </c>
-      <c r="E28" s="27">
-        <v>6.10670666381E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
-        <v>43951</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15">
-        <v>330300</v>
-      </c>
-      <c r="E29" s="27">
-        <v>5.8381327098900003E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
-        <v>43952</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15">
-        <v>351775</v>
-      </c>
-      <c r="E30" s="27">
-        <v>5.8799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
-        <v>43953</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15">
-        <v>380648</v>
-      </c>
-      <c r="E31" s="27">
-        <v>5.7299999999999997E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
-        <v>43954</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15">
-        <v>390560</v>
-      </c>
-      <c r="E32" s="27">
-        <v>6.0400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
-        <v>43955</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15">
-        <v>407398</v>
-      </c>
-      <c r="E33" s="27">
-        <v>6.0199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
-        <v>43956</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15">
-        <v>427210</v>
-      </c>
-      <c r="E34" s="27">
-        <v>5.6754924069199998E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
-        <v>43957</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15">
-        <v>438938</v>
-      </c>
-      <c r="E35" s="27">
-        <v>5.9299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
-        <v>43958</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15">
-        <v>455162</v>
-      </c>
-      <c r="E36" s="27">
-        <v>5.8500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
-        <v>43959</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15">
-        <v>477118</v>
-      </c>
-      <c r="E37" s="27">
-        <v>5.8900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
-        <v>43960</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15">
-        <v>489294</v>
-      </c>
-      <c r="E38" s="27">
-        <v>6.7500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
-        <v>43961</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15">
-        <v>513978</v>
-      </c>
-      <c r="E39" s="27">
-        <v>5.9299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
-        <v>43962</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15">
-        <v>525697</v>
-      </c>
-      <c r="E40" s="27">
-        <v>6.3711443038399998E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
-        <v>43963</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15">
-        <v>538172</v>
-      </c>
-      <c r="E41" s="27">
-        <v>6.9199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
-        <v>43964</v>
-      </c>
-      <c r="B42" s="15">
-        <f>D42-C42</f>
-        <v>556776</v>
-      </c>
-      <c r="C42" s="15">
-        <v>30655</v>
-      </c>
-      <c r="D42" s="15">
-        <v>587431</v>
-      </c>
-      <c r="E42" s="27">
-        <v>5.3699999999999998E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
-        <v>43965</v>
-      </c>
-      <c r="B43" s="15">
-        <f t="shared" ref="B43:B49" si="0">D43-C43</f>
-        <v>587313</v>
-      </c>
-      <c r="C43" s="15">
-        <v>35971</v>
-      </c>
-      <c r="D43" s="15">
-        <v>623284</v>
-      </c>
-      <c r="E43" s="27">
-        <v>5.0299999999999997E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14">
-        <v>43966</v>
-      </c>
-      <c r="B44" s="15">
-        <f t="shared" si="0"/>
-        <v>609630</v>
-      </c>
-      <c r="C44" s="15">
-        <v>36362</v>
-      </c>
-      <c r="D44" s="15">
-        <v>645992</v>
-      </c>
-      <c r="E44" s="27">
-        <v>5.0900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
-        <v>43967</v>
-      </c>
-      <c r="B45" s="15">
-        <f t="shared" si="0"/>
-        <v>638739</v>
-      </c>
-      <c r="C45" s="15">
-        <v>39732</v>
-      </c>
-      <c r="D45" s="15">
-        <v>678471</v>
-      </c>
-      <c r="E45" s="27">
-        <v>4.8300000000000003E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14">
-        <v>43968</v>
-      </c>
-      <c r="B46" s="15">
-        <f t="shared" si="0"/>
-        <v>650355</v>
-      </c>
-      <c r="C46" s="15">
-        <v>42921</v>
-      </c>
-      <c r="D46" s="15">
-        <v>693276</v>
-      </c>
-      <c r="E46" s="27">
-        <v>4.9700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
-        <v>43969</v>
-      </c>
-      <c r="B47" s="15">
-        <f t="shared" si="0"/>
-        <v>679845</v>
-      </c>
-      <c r="C47" s="15">
-        <v>43168</v>
-      </c>
-      <c r="D47" s="15">
-        <v>723013</v>
-      </c>
-      <c r="E47" s="27">
-        <v>4.4720144337000001E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
-        <v>43970</v>
-      </c>
-      <c r="B48" s="15">
-        <f t="shared" si="0"/>
-        <v>700146</v>
-      </c>
-      <c r="C48" s="15">
-        <v>44791</v>
-      </c>
-      <c r="D48" s="15">
-        <v>744937</v>
-      </c>
-      <c r="E48" s="27">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
-        <v>43971</v>
-      </c>
-      <c r="B49" s="15">
-        <f t="shared" si="0"/>
-        <v>720928</v>
-      </c>
-      <c r="C49" s="15">
-        <v>49313</v>
-      </c>
-      <c r="D49" s="15">
-        <v>770241</v>
-      </c>
-      <c r="E49" s="27">
-        <v>5.4300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
-        <v>43972</v>
-      </c>
-      <c r="B50" s="15">
-        <v>740181</v>
-      </c>
-      <c r="C50" s="15">
-        <v>60252</v>
-      </c>
-      <c r="D50" s="15">
-        <v>800433</v>
-      </c>
-      <c r="E50" s="27">
-        <v>5.5100000000000003E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
-        <v>43973</v>
-      </c>
-      <c r="B51" s="15">
-        <v>762706</v>
-      </c>
-      <c r="C51" s="15">
-        <v>71731</v>
-      </c>
-      <c r="D51" s="15">
-        <v>834437</v>
-      </c>
-      <c r="E51" s="27">
-        <v>5.3900000000000003E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
-        <v>43974</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15">
-        <v>870935</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
-        <v>43975</v>
-      </c>
-      <c r="B53" s="15">
-        <v>805654</v>
-      </c>
-      <c r="C53" s="15">
-        <v>80700</v>
-      </c>
-      <c r="D53" s="15">
-        <v>886354</v>
-      </c>
-      <c r="E53" s="27">
-        <v>4.87E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
-        <v>43976</v>
-      </c>
-      <c r="B54" s="15">
-        <v>821233</v>
-      </c>
-      <c r="C54" s="15">
-        <v>84841</v>
-      </c>
-      <c r="D54" s="15">
-        <v>906074</v>
-      </c>
-      <c r="E54" s="27">
-        <v>5.1499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
-        <v>43977</v>
-      </c>
-      <c r="B55" s="15">
-        <v>855674</v>
-      </c>
-      <c r="C55" s="15">
-        <v>87565</v>
-      </c>
-      <c r="D55" s="15">
-        <v>943239</v>
-      </c>
-      <c r="E55" s="27">
-        <v>4.2744714778046394E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14">
-        <v>43978</v>
-      </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15">
-        <v>961861</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A58:E58"/>
-  </mergeCells>
-  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF579965-E9A4-4200-9947-C8B91C7F8746}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="55" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.81640625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="B1" s="23"/>
-    </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" s="18">
-        <v>87565</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>324</v>
-      </c>
       <c r="B4" s="18">
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" s="23"/>
+        <v>281</v>
+      </c>
+      <c r="B6" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74397EA8-E591-4ABD-A56E-83066F1202CE}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C210" sqref="C210"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.90625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>271</v>
-      </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1645</v>
+      <c r="A3" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1701</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" s="7">
-        <v>53445</v>
+      <c r="A4" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="18">
+        <v>56054</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B5" s="7">
-        <v>16944</v>
+      <c r="A5" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="18">
+        <v>14932</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="18">
+        <v>5773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="B6" s="7">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" s="7">
-        <v>6259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7192,46 +7524,45 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6D2302-4221-46A2-ADEB-3DEB7BBD1EAA}">
-  <dimension ref="A1:C58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4:C258"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.90625" style="11"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="A1" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>326</v>
+      <c r="A2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="6">
         <v>43925</v>
       </c>
       <c r="C3" s="18">
@@ -7239,10 +7570,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="6">
         <v>43926</v>
       </c>
       <c r="C4" s="18">
@@ -7250,10 +7581,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="6">
         <v>43927</v>
       </c>
       <c r="C5" s="18">
@@ -7261,10 +7592,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="6">
         <v>43928</v>
       </c>
       <c r="C6" s="18">
@@ -7272,10 +7603,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="6">
         <v>43929</v>
       </c>
       <c r="C7" s="18">
@@ -7283,10 +7614,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="6">
         <v>43930</v>
       </c>
       <c r="C8" s="18">
@@ -7294,10 +7625,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="6">
         <v>43931</v>
       </c>
       <c r="C9" s="18">
@@ -7305,10 +7636,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="6">
         <v>43932</v>
       </c>
       <c r="C10" s="18">
@@ -7316,10 +7647,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="6">
         <v>43933</v>
       </c>
       <c r="C11" s="18">
@@ -7327,10 +7658,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="6">
         <v>43934</v>
       </c>
       <c r="C12" s="18">
@@ -7338,10 +7669,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="6">
         <v>43935</v>
       </c>
       <c r="C13" s="18">
@@ -7349,10 +7680,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="6">
         <v>43936</v>
       </c>
       <c r="C14" s="18">
@@ -7360,10 +7691,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="6">
         <v>43937</v>
       </c>
       <c r="C15" s="18">
@@ -7371,10 +7702,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="6">
         <v>43938</v>
       </c>
       <c r="C16" s="18">
@@ -7382,10 +7713,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="6">
         <v>43939</v>
       </c>
       <c r="C17" s="18">
@@ -7393,10 +7724,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="6">
         <v>43940</v>
       </c>
       <c r="C18" s="18">
@@ -7404,10 +7735,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="6">
         <v>43941</v>
       </c>
       <c r="C19" s="18">
@@ -7415,10 +7746,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="6">
         <v>43942</v>
       </c>
       <c r="C20" s="18">
@@ -7426,10 +7757,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="6">
         <v>43943</v>
       </c>
       <c r="C21" s="18">
@@ -7437,10 +7768,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="6">
         <v>43944</v>
       </c>
       <c r="C22" s="18">
@@ -7448,10 +7779,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="6">
         <v>43945</v>
       </c>
       <c r="C23" s="18">
@@ -7459,10 +7790,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="6">
         <v>43946</v>
       </c>
       <c r="C24" s="18">
@@ -7470,10 +7801,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="6">
         <v>43947</v>
       </c>
       <c r="C25" s="18">
@@ -7481,10 +7812,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="6">
         <v>43948</v>
       </c>
       <c r="C26" s="18">
@@ -7492,10 +7823,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="6">
         <v>43949</v>
       </c>
       <c r="C27" s="18">
@@ -7503,10 +7834,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="6">
         <v>43950</v>
       </c>
       <c r="C28" s="18">
@@ -7514,10 +7845,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="6">
         <v>43951</v>
       </c>
       <c r="C29" s="18">
@@ -7525,10 +7856,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="6">
         <v>43952</v>
       </c>
       <c r="C30" s="18">
@@ -7536,10 +7867,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="6">
         <v>43953</v>
       </c>
       <c r="C31" s="18">
@@ -7547,10 +7878,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="6">
         <v>43954</v>
       </c>
       <c r="C32" s="18">
@@ -7558,10 +7889,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="6">
         <v>43955</v>
       </c>
       <c r="C33" s="18">
@@ -7569,10 +7900,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="6">
         <v>43956</v>
       </c>
       <c r="C34" s="18">
@@ -7580,10 +7911,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="6">
         <v>43957</v>
       </c>
       <c r="C35" s="18">
@@ -7591,10 +7922,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="6">
         <v>43958</v>
       </c>
       <c r="C36" s="18">
@@ -7602,10 +7933,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="6">
         <v>43959</v>
       </c>
       <c r="C37" s="18">
@@ -7613,10 +7944,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="6">
         <v>43960</v>
       </c>
       <c r="C38" s="18">
@@ -7624,10 +7955,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="6">
         <v>43961</v>
       </c>
       <c r="C39" s="18">
@@ -7635,10 +7966,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="6">
         <v>43962</v>
       </c>
       <c r="C40" s="18">
@@ -7646,10 +7977,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="6">
         <v>43963</v>
       </c>
       <c r="C41" s="18">
@@ -7657,10 +7988,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="6">
         <v>43964</v>
       </c>
       <c r="C42" s="18">
@@ -7668,10 +7999,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="6">
         <v>43965</v>
       </c>
       <c r="C43" s="18">
@@ -7679,10 +8010,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="6">
         <v>43966</v>
       </c>
       <c r="C44" s="18">
@@ -7690,10 +8021,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="6">
         <v>43967</v>
       </c>
       <c r="C45" s="18">
@@ -7701,10 +8032,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="6">
         <v>43968</v>
       </c>
       <c r="C46" s="18">
@@ -7712,10 +8043,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="6">
         <v>43969</v>
       </c>
       <c r="C47" s="18">
@@ -7723,10 +8054,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="6">
         <v>43970</v>
       </c>
       <c r="C48" s="18">
@@ -7734,10 +8065,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="6">
         <v>43971</v>
       </c>
       <c r="C49" s="18">
@@ -7745,10 +8076,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="6">
         <v>43972</v>
       </c>
       <c r="C50" s="18">
@@ -7756,10 +8087,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="6">
         <v>43973</v>
       </c>
       <c r="C51" s="18">
@@ -7767,10 +8098,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="6">
         <v>43974</v>
       </c>
       <c r="C52" s="18">
@@ -7778,10 +8109,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="6">
         <v>43975</v>
       </c>
       <c r="C53" s="18">
@@ -7789,10 +8120,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="6">
         <v>43976</v>
       </c>
       <c r="C54" s="18">
@@ -7800,10 +8131,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="6">
         <v>43977</v>
       </c>
       <c r="C55" s="18">
@@ -7811,33 +8142,49 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="6">
         <v>43978</v>
       </c>
       <c r="C56" s="18">
         <v>1645</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-    </row>
-    <row r="58" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
+    <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="6">
+        <v>43979</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="6">
+        <v>43980</v>
+      </c>
+      <c r="C58" s="7">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A60:C60"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7845,13 +8192,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection activeCell="A4" sqref="A4:C258"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7862,163 +8209,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>284</v>
+      <c r="A2" s="11" t="s">
+        <v>286</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" s="9">
+        <v>289</v>
+      </c>
+      <c r="B3" s="8">
         <v>38</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="9">
-        <v>168</v>
-      </c>
-      <c r="C4" s="29">
+        <v>290</v>
+      </c>
+      <c r="B4" s="8">
+        <v>170</v>
+      </c>
+      <c r="C4" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B5" s="9">
+        <v>291</v>
+      </c>
+      <c r="B5" s="8">
         <v>440</v>
       </c>
-      <c r="C5" s="29">
-        <v>2.97578790748E-2</v>
+      <c r="C5" s="19">
+        <v>2.9573867455299999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" s="9">
-        <v>2295</v>
-      </c>
-      <c r="C6" s="29">
+        <v>292</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2306</v>
+      </c>
+      <c r="C6" s="19">
         <v>0.155</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2708</v>
-      </c>
-      <c r="C7" s="29">
+        <v>293</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2728</v>
+      </c>
+      <c r="C7" s="19">
         <v>0.183</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2770</v>
-      </c>
-      <c r="C8" s="29">
-        <v>0.187</v>
+        <v>294</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2795</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.18786127167630001</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B9" s="9">
-        <v>2714</v>
-      </c>
-      <c r="C9" s="29">
+        <v>295</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2735</v>
+      </c>
+      <c r="C9" s="19">
         <v>0.184</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1143</v>
-      </c>
-      <c r="C10" s="29">
-        <v>7.6999999999999999E-2</v>
+        <v>296</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1154</v>
+      </c>
+      <c r="C10" s="19">
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B11" s="9">
-        <v>831</v>
-      </c>
-      <c r="C11" s="29">
-        <v>5.6000000000000001E-2</v>
+        <v>297</v>
+      </c>
+      <c r="B11" s="8">
+        <v>833</v>
+      </c>
+      <c r="C11" s="19">
+        <v>5.5988708159700001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B12" s="9">
-        <v>543</v>
-      </c>
-      <c r="C12" s="29">
+        <v>298</v>
+      </c>
+      <c r="B12" s="8">
+        <v>544</v>
+      </c>
+      <c r="C12" s="19">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B13" s="9">
+        <v>299</v>
+      </c>
+      <c r="B13" s="8">
         <v>362</v>
       </c>
-      <c r="C13" s="29">
-        <v>2.4E-2</v>
+      <c r="C13" s="19">
+        <v>2.4331227315500002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B14" s="9">
-        <v>651</v>
-      </c>
-      <c r="C14" s="29">
-        <v>4.3999999999999997E-2</v>
+        <v>300</v>
+      </c>
+      <c r="B14" s="8">
+        <v>650</v>
+      </c>
+      <c r="C14" s="19">
+        <v>4.3688667831700001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B15" s="9">
+        <v>301</v>
+      </c>
+      <c r="B15" s="8">
         <v>123</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="19">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -8026,26 +8373,26 @@
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="9">
-        <v>14786</v>
-      </c>
-      <c r="C16" s="29">
+      <c r="B16" s="8">
+        <v>14878</v>
+      </c>
+      <c r="C16" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/original-sources/dshs.xlsx
+++ b/original-sources/dshs.xlsx
@@ -8,34 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51F2E750-1781-4577-B9A6-FD1DA800F519}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{802F8C5F-5D08-4091-BACF-3D08D742E2CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
     <sheet name="Trends" sheetId="2" r:id="rId2"/>
     <sheet name="Recoveries" sheetId="3" r:id="rId3"/>
-    <sheet name="Tests by day" sheetId="4" r:id="rId4"/>
-    <sheet name="Tests" sheetId="5" r:id="rId5"/>
-    <sheet name="Antibody Tests" sheetId="13" r:id="rId6"/>
-    <sheet name="Hospitalizations" sheetId="14" r:id="rId7"/>
-    <sheet name="Hospitalization by Day" sheetId="6" r:id="rId8"/>
-    <sheet name="Cases by Age Group" sheetId="7" r:id="rId9"/>
-    <sheet name="Cases by Gender" sheetId="8" r:id="rId10"/>
-    <sheet name="Cases by RaceEthnicity" sheetId="9" r:id="rId11"/>
-    <sheet name="Fatalities by Age Group" sheetId="10" r:id="rId12"/>
-    <sheet name="Fatalities by Gender" sheetId="11" r:id="rId13"/>
-    <sheet name="Fatalities by Race-Ethnicity" sheetId="12" r:id="rId14"/>
+    <sheet name="Tests by day" sheetId="5" r:id="rId4"/>
+    <sheet name="Tests" sheetId="6" r:id="rId5"/>
+    <sheet name="Antibody Tests" sheetId="14" r:id="rId6"/>
+    <sheet name="Hospitalizations" sheetId="15" r:id="rId7"/>
+    <sheet name="Hospitalization by Day" sheetId="7" r:id="rId8"/>
+    <sheet name="Cases by Age Group" sheetId="8" r:id="rId9"/>
+    <sheet name="Cases by Gender" sheetId="9" r:id="rId10"/>
+    <sheet name="Cases by RaceEthnicity" sheetId="10" r:id="rId11"/>
+    <sheet name="Fatalities by Age Group" sheetId="11" r:id="rId12"/>
+    <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
+    <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="333">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 5/29 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="334">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 5/31 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 5/29 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 5/31 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -839,7 +839,7 @@
 Fatalities</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 5/29 at 9:30AM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 5/31 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -851,11 +851,17 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 5/29 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 5/31 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
 reported</t>
+  </si>
+  <si>
+    <t>Viral Tests</t>
+  </si>
+  <si>
+    <t>Antibody Tests</t>
   </si>
   <si>
     <t>COVID-19
@@ -869,7 +875,7 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 5/29 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 5/31 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -890,7 +896,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 5/29 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 5/31 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -899,7 +905,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 5/29 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 5/31 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -954,10 +960,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          14,878</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 5/29 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          14,925</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 5/31 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -969,7 +975,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 5/29 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 5/31 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -990,16 +996,16 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 5/29 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =          491</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 5/29 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 5/29 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 5/31 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =          494</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 5/31 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 5/31 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Number of Antibody Tests Reported (included in total test numbers)</t>
@@ -1008,9 +1014,6 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 5/28 at 3:00PM CST</t>
-  </si>
-  <si>
     <t>Hospital data</t>
   </si>
   <si>
@@ -1029,7 +1032,10 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 5/29 at 9:30AM CST</t>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 5/30 at 3:00PM CST</t>
+  </si>
+  <si>
+    <t>Texas Statewide Hospitalization Data as of 5/31 at 9:30AM CST</t>
   </si>
   <si>
     <t>New Viral Tests Reported* (Average of previous 7 days)</t>
@@ -1039,24 +1045,19 @@
   </si>
   <si>
     <t>New Total Tests Reported* (Average of previous 7 days)</t>
-  </si>
-  <si>
-    <t>* Numbers are rounded to the nearest whole number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="###,##0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="##,###,##0"/>
     <numFmt numFmtId="167" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="168" formatCode="#####0"/>
-    <numFmt numFmtId="169" formatCode="##0.00"/>
-    <numFmt numFmtId="170" formatCode="##0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="##0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1186,7 +1187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1214,20 +1215,11 @@
     <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1244,8 +1236,20 @@
     <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1256,6 +1260,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1265,34 +1275,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{68F4BBCF-08DE-4150-A76C-1931938C4EC7}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A67DD485-6664-4CF3-AC05-0288CDA78D88}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1427,7 +1413,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1438,11 +1424,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1482,7 +1468,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -1526,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1537,7 +1523,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1548,7 +1534,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1570,7 +1556,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -1603,10 +1589,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="C16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1614,10 +1600,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>2583</v>
+        <v>2825</v>
       </c>
       <c r="C17" s="4">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1625,10 +1611,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1647,7 +1633,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -1658,7 +1644,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="C21" s="4">
         <v>6</v>
@@ -1669,7 +1655,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>882</v>
+        <v>907</v>
       </c>
       <c r="C22" s="4">
         <v>12</v>
@@ -1680,7 +1666,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="C23" s="4">
         <v>19</v>
@@ -1746,7 +1732,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -1757,7 +1743,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1790,10 +1776,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>743</v>
+        <v>764</v>
       </c>
       <c r="C33" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1801,7 +1787,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -1834,7 +1820,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1845,7 +1831,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1922,10 +1908,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>1236</v>
+        <v>1297</v>
       </c>
       <c r="C45" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1955,7 +1941,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -1966,7 +1952,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -1999,7 +1985,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -2021,7 +2007,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
@@ -2043,7 +2029,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2076,10 +2062,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>9587</v>
+        <v>10006</v>
       </c>
       <c r="C59" s="4">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2087,7 +2073,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
@@ -2109,7 +2095,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C62" s="4">
         <v>13</v>
@@ -2131,10 +2117,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1318</v>
+        <v>1357</v>
       </c>
       <c r="C64" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,7 +2183,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C70" s="4">
         <v>5</v>
@@ -2219,10 +2205,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>2623</v>
+        <v>2764</v>
       </c>
       <c r="C72" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2230,7 +2216,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C73" s="4">
         <v>14</v>
@@ -2241,7 +2227,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2252,7 +2238,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2263,7 +2249,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C76" s="4">
         <v>2</v>
@@ -2318,10 +2304,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>1783</v>
+        <v>1861</v>
       </c>
       <c r="C81" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2329,7 +2315,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2373,10 +2359,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>788</v>
+        <v>807</v>
       </c>
       <c r="C86" s="4">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,7 +2414,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C91" s="4">
         <v>2</v>
@@ -2439,7 +2425,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C92" s="4">
         <v>2</v>
@@ -2450,7 +2436,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C93" s="4">
         <v>2</v>
@@ -2461,7 +2447,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C94" s="4">
         <v>6</v>
@@ -2472,7 +2458,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -2483,7 +2469,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -2494,7 +2480,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C97" s="4">
         <v>4</v>
@@ -2516,7 +2502,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -2527,7 +2513,7 @@
         <v>101</v>
       </c>
       <c r="B100" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C100" s="4">
         <v>2</v>
@@ -2560,10 +2546,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>11770</v>
+        <v>12220</v>
       </c>
       <c r="C103" s="4">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2571,10 +2557,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C104" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2604,10 +2590,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C107" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2637,7 +2623,7 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="C110" s="4">
         <v>10</v>
@@ -2681,7 +2667,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -2692,7 +2678,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2714,7 +2700,7 @@
         <v>118</v>
       </c>
       <c r="B117" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" s="4">
         <v>0</v>
@@ -2725,7 +2711,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C118" s="4">
         <v>4</v>
@@ -2736,7 +2722,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -2780,7 +2766,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C123" s="4">
         <v>1</v>
@@ -2802,7 +2788,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="C125" s="4">
         <v>27</v>
@@ -2835,7 +2821,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2846,7 +2832,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2868,7 +2854,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C131" s="4">
         <v>2</v>
@@ -2879,7 +2865,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -2912,7 +2898,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C135" s="4">
         <v>0</v>
@@ -2945,7 +2931,7 @@
         <v>139</v>
       </c>
       <c r="B138" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" s="4">
         <v>0</v>
@@ -2989,10 +2975,10 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C142" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3011,7 +2997,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -3022,7 +3008,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3033,10 +3019,10 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C146" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3055,7 +3041,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3121,7 +3107,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="C154" s="4">
         <v>50</v>
@@ -3176,7 +3162,7 @@
         <v>160</v>
       </c>
       <c r="B159" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C159" s="4">
         <v>0</v>
@@ -3198,7 +3184,7 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C161" s="4">
         <v>1</v>
@@ -3220,7 +3206,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C163" s="4">
         <v>4</v>
@@ -3242,7 +3228,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3264,7 +3250,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C167" s="4">
         <v>12</v>
@@ -3319,7 +3305,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>940</v>
+        <v>954</v>
       </c>
       <c r="C172" s="4">
         <v>26</v>
@@ -3330,7 +3316,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>602</v>
+        <v>686</v>
       </c>
       <c r="C173" s="4">
         <v>13</v>
@@ -3341,7 +3327,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3363,10 +3349,10 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="C176" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3374,7 +3360,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C177" s="4">
         <v>2</v>
@@ -3385,7 +3371,7 @@
         <v>179</v>
       </c>
       <c r="B178" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C178" s="4">
         <v>0</v>
@@ -3396,7 +3382,7 @@
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3407,7 +3393,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C180" s="4">
         <v>3</v>
@@ -3462,7 +3448,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C185" s="4">
         <v>23</v>
@@ -3473,7 +3459,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3484,7 +3470,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
@@ -3495,7 +3481,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3506,7 +3492,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3517,10 +3503,10 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2276</v>
+        <v>2321</v>
       </c>
       <c r="C190" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3550,7 +3536,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="C193" s="4">
         <v>6</v>
@@ -3583,7 +3569,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C196" s="4">
         <v>8</v>
@@ -3638,7 +3624,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C201" s="4">
         <v>13</v>
@@ -3660,7 +3646,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3671,7 +3657,7 @@
         <v>205</v>
       </c>
       <c r="B204" s="4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C204" s="4">
         <v>0</v>
@@ -3682,7 +3668,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C205" s="4">
         <v>2</v>
@@ -3737,7 +3723,7 @@
         <v>211</v>
       </c>
       <c r="B210" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C210" s="4">
         <v>0</v>
@@ -3759,7 +3745,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C212" s="4">
         <v>6</v>
@@ -3781,7 +3767,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3858,7 +3844,7 @@
         <v>222</v>
       </c>
       <c r="B221" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C221" s="4">
         <v>0</v>
@@ -3869,10 +3855,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>5294</v>
+        <v>5463</v>
       </c>
       <c r="C222" s="4">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3880,7 +3866,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3924,7 +3910,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C227" s="4">
         <v>2</v>
@@ -3935,7 +3921,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3946,10 +3932,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>3124</v>
+        <v>3232</v>
       </c>
       <c r="C229" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3957,7 +3943,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -3968,7 +3954,7 @@
         <v>232</v>
       </c>
       <c r="B231" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -3979,7 +3965,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -4001,7 +3987,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4023,7 +4009,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C236" s="4">
         <v>1</v>
@@ -4045,7 +4031,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>869</v>
+        <v>1455</v>
       </c>
       <c r="C238" s="4">
         <v>27</v>
@@ -4056,7 +4042,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4078,7 +4064,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C241" s="4">
         <v>25</v>
@@ -4089,7 +4075,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="C242" s="4">
         <v>19</v>
@@ -4100,7 +4086,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C243" s="4">
         <v>0</v>
@@ -4144,7 +4130,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C247" s="4">
         <v>1</v>
@@ -4155,10 +4141,10 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="C248" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4188,7 +4174,7 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C251" s="4">
         <v>3</v>
@@ -4199,7 +4185,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C252" s="4">
         <v>1</v>
@@ -4232,7 +4218,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4254,10 +4240,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>61006</v>
+        <v>64287</v>
       </c>
       <c r="C257" s="4">
-        <v>1626</v>
+        <v>1672</v>
       </c>
     </row>
   </sheetData>
@@ -4270,12 +4256,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4:C258"/>
+      <selection activeCell="E7" sqref="E7"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -4283,57 +4269,57 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B3" s="8">
-        <v>6718</v>
-      </c>
-      <c r="C3" s="19">
-        <v>0.45200000000000001</v>
+        <v>6722</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.45</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B4" s="8">
-        <v>7878</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0.53</v>
+        <v>7921</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.53072026800670002</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B5" s="8">
         <v>282</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>1.9E-2</v>
       </c>
     </row>
@@ -4342,25 +4328,25 @@
         <v>258</v>
       </c>
       <c r="B6" s="8">
-        <v>14878</v>
-      </c>
-      <c r="C6" s="19">
+        <v>14925</v>
+      </c>
+      <c r="C6" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4374,103 +4360,103 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4:C258"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B3" s="8">
         <v>498</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B4" s="8">
-        <v>2341</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0.157</v>
+        <v>2360</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.158</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B5" s="8">
-        <v>5912</v>
-      </c>
-      <c r="C5" s="19">
+        <v>5923</v>
+      </c>
+      <c r="C5" s="17">
         <v>0.39700000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B6" s="8">
         <v>96</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B7" s="8">
-        <v>4093</v>
-      </c>
-      <c r="C7" s="19">
+        <v>4107</v>
+      </c>
+      <c r="C7" s="17">
         <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B8" s="8">
-        <v>1938</v>
-      </c>
-      <c r="C8" s="19">
+        <v>1941</v>
+      </c>
+      <c r="C8" s="17">
         <v>0.13</v>
       </c>
     </row>
@@ -4479,25 +4465,25 @@
         <v>258</v>
       </c>
       <c r="B9" s="8">
-        <v>14878</v>
-      </c>
-      <c r="C9" s="19">
+        <v>14925</v>
+      </c>
+      <c r="C9" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="A12" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4511,207 +4497,207 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4:C258"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>286</v>
+      <c r="A2" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B3" s="12">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19">
+        <v>291</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19">
+        <v>292</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" s="12">
+        <v>293</v>
+      </c>
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="19">
-        <v>4.0733197555999998E-3</v>
+      <c r="C5" s="17">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B6" s="12">
+        <v>294</v>
+      </c>
+      <c r="B6" s="10">
         <v>11</v>
       </c>
-      <c r="C6" s="19">
-        <v>2.24032586558E-2</v>
+      <c r="C6" s="17">
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B7" s="12">
+        <v>295</v>
+      </c>
+      <c r="B7" s="10">
         <v>9</v>
       </c>
-      <c r="C7" s="19">
-        <v>1.8329938900199998E-2</v>
+      <c r="C7" s="17">
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B8" s="12">
+        <v>296</v>
+      </c>
+      <c r="B8" s="10">
         <v>21</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B9" s="12">
+        <v>297</v>
+      </c>
+      <c r="B9" s="10">
         <v>54</v>
       </c>
-      <c r="C9" s="19">
-        <v>0.11</v>
+      <c r="C9" s="17">
+        <v>0.109</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10" s="12">
+        <v>298</v>
+      </c>
+      <c r="B10" s="10">
         <v>45</v>
       </c>
-      <c r="C10" s="19">
-        <v>9.1999999999999998E-2</v>
+      <c r="C10" s="17">
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B11" s="12">
+        <v>299</v>
+      </c>
+      <c r="B11" s="10">
         <v>58</v>
       </c>
-      <c r="C11" s="19">
-        <v>0.11799999999999999</v>
+      <c r="C11" s="17">
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B12" s="12">
-        <v>45</v>
-      </c>
-      <c r="C12" s="19">
-        <v>9.1999999999999998E-2</v>
+        <v>300</v>
+      </c>
+      <c r="B12" s="10">
+        <v>47</v>
+      </c>
+      <c r="C12" s="17">
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B13" s="12">
+        <v>301</v>
+      </c>
+      <c r="B13" s="10">
         <v>45</v>
       </c>
-      <c r="C13" s="19">
-        <v>9.1999999999999998E-2</v>
+      <c r="C13" s="17">
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B14" s="12">
-        <v>198</v>
-      </c>
-      <c r="C14" s="19">
+        <v>302</v>
+      </c>
+      <c r="B14" s="10">
+        <v>199</v>
+      </c>
+      <c r="C14" s="17">
         <v>0.40300000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B15" s="12">
+        <v>303</v>
+      </c>
+      <c r="B15" s="10">
         <v>3</v>
       </c>
-      <c r="C15" s="19">
-        <v>6.1099796333999997E-3</v>
+      <c r="C15" s="17">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="12">
-        <v>491</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="B16" s="10">
+        <v>494</v>
+      </c>
+      <c r="C16" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4725,70 +4711,70 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4:C258"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B3" s="12">
+        <v>308</v>
+      </c>
+      <c r="B3" s="10">
         <v>192</v>
       </c>
-      <c r="C3" s="19">
-        <v>0.39100000000000001</v>
+      <c r="C3" s="17">
+        <v>0.38900000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B4" s="12">
-        <v>268</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0.54600000000000004</v>
+        <v>309</v>
+      </c>
+      <c r="B4" s="10">
+        <v>271</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B5" s="12">
+        <v>303</v>
+      </c>
+      <c r="B5" s="10">
         <v>31</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>6.3E-2</v>
       </c>
     </row>
@@ -4796,26 +4782,26 @@
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="12">
-        <v>491</v>
-      </c>
-      <c r="C6" s="19">
+      <c r="B6" s="10">
+        <v>494</v>
+      </c>
+      <c r="C6" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4829,130 +4815,130 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4:C258"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B3" s="12">
+        <v>312</v>
+      </c>
+      <c r="B3" s="10">
         <v>6</v>
       </c>
-      <c r="C3" s="19">
-        <v>1.2219959266799999E-2</v>
+      <c r="C3" s="17">
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B4" s="12">
+        <v>313</v>
+      </c>
+      <c r="B4" s="10">
         <v>67</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B5" s="12">
+        <v>314</v>
+      </c>
+      <c r="B5" s="10">
         <v>122</v>
       </c>
-      <c r="C5" s="19">
-        <v>0.248</v>
+      <c r="C5" s="17">
+        <v>0.247</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B6" s="12">
+        <v>315</v>
+      </c>
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="19">
-        <v>2.0366598777999999E-3</v>
+      <c r="C6" s="17">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B7" s="12">
-        <v>181</v>
-      </c>
-      <c r="C7" s="19">
-        <v>0.36899999999999999</v>
+        <v>316</v>
+      </c>
+      <c r="B7" s="10">
+        <v>183</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.37</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B8" s="12">
-        <v>114</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0.23200000000000001</v>
+        <v>303</v>
+      </c>
+      <c r="B8" s="10">
+        <v>115</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.23300000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="12">
-        <v>491</v>
-      </c>
-      <c r="C9" s="19">
+      <c r="B9" s="10">
+        <v>494</v>
+      </c>
+      <c r="C9" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="A12" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4961,17 +4947,17 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4:C258"/>
+      <selection activeCell="E7" sqref="E7"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -4984,22 +4970,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6121,6 +6107,40 @@
       </c>
       <c r="E68" s="4">
         <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>43981</v>
+      </c>
+      <c r="B69" s="4">
+        <v>62338</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1648</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1332</v>
+      </c>
+      <c r="E69" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>43982</v>
+      </c>
+      <c r="B70" s="4">
+        <v>64287</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1672</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1949</v>
+      </c>
+      <c r="E70" s="4">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -6139,8 +6159,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4:C258"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6150,10 +6170,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6165,17 +6185,17 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>40068</v>
+        <v>42423</v>
       </c>
       <c r="B3" s="7">
-        <v>19312</v>
+        <v>20192</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6188,1132 +6208,1334 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4:C258"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" style="13" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.90625" style="29"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" ht="86" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>273</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>329</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="H2" s="30" t="s">
+      <c r="E2" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>331</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43925</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="E3" s="19">
+        <v>0.1056</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43926</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="E4" s="19">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43927</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="E5" s="19">
+        <v>8.8909998585200004E-2</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43928</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="E6" s="19">
+        <v>0.1094</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43929</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="E7" s="19">
+        <v>0.11070000000000001</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43930</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="B8" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="E8" s="19">
+        <v>0.100351636462</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43931</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="E9" s="19">
+        <v>0.1055125178708</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43932</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="E10" s="19">
+        <v>0.11360000000000001</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43933</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="28">
-        <v>0.12479716497248904</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="E11" s="19">
+        <v>0.12479999999999999</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43934</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="28">
-        <v>0.13856566880444546</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="E12" s="19">
+        <v>0.1386</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43935</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="28">
-        <v>0.11005223286865681</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="19">
+        <v>0.1101</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43936</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="28">
-        <v>0.11050907258064516</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="E14" s="19">
+        <v>0.1105</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43937</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="28">
-        <v>0.11876824451948945</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="E15" s="19">
+        <v>0.1188</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43938</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="28">
-        <v>0.10630758327427356</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="E16" s="19">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43939</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="28">
-        <v>0.10230495817326679</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="E17" s="19">
+        <v>0.1023</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43940</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="28">
-        <v>9.3522705779183937E-2</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
+      <c r="E18" s="19">
+        <v>9.35E-2</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43941</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="28">
-        <v>9.7117268401903156E-2</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="E19" s="19">
+        <v>9.7117268401900006E-2</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43942</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="28">
-        <v>9.4549650444580191E-2</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="E20" s="19">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43943</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="28">
-        <v>8.5835654810459724E-2</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="E21" s="19">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43944</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="28">
-        <v>8.2502893388044674E-2</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="E22" s="19">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43945</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="28">
-        <v>7.4440837681993124E-2</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="E23" s="19">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43946</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="28">
-        <v>6.3677420100026569E-2</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
+      <c r="E24" s="19">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>43947</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="28">
-        <v>6.1171780390307684E-2</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
+      <c r="E25" s="19">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43948</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="28">
-        <v>5.8318268529708457E-2</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
+      <c r="E26" s="19">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43949</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="28">
-        <v>6.2904669158288157E-2</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
+      <c r="E27" s="19">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43950</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="28">
-        <v>6.106706663809728E-2</v>
-      </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
+      <c r="E28" s="19">
+        <v>6.10670666381E-2</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43951</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="28">
-        <v>5.8381327098895666E-2</v>
-      </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
+      <c r="E29" s="19">
+        <v>5.8381327098900003E-2</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43952</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="28">
-        <v>5.8803603471637308E-2</v>
-      </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
+      <c r="E30" s="19">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43953</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="28">
-        <v>5.7276461402674998E-2</v>
-      </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
+      <c r="E31" s="19">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43954</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="28">
-        <v>6.0389910860056399E-2</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
+      <c r="E32" s="19">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43955</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="28">
-        <v>6.0189423430668798E-2</v>
-      </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
+      <c r="E33" s="19">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43956</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="B34" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="28">
-        <v>5.6754924069197167E-2</v>
-      </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
+      <c r="E34" s="19">
+        <v>5.6754924069199998E-2</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43957</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="B35" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="28">
-        <v>5.9348519508973158E-2</v>
-      </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
+      <c r="E35" s="19">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43958</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="28">
-        <v>5.8488571382806616E-2</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
+      <c r="E36" s="19">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>43959</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="B37" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="28">
-        <v>5.8878437567315284E-2</v>
-      </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
+      <c r="E37" s="19">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>43960</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="B38" s="8">
+        <v>472782</v>
+      </c>
+      <c r="C38" s="8">
+        <v>16512</v>
+      </c>
       <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="28">
-        <v>6.7540452478692267E-2</v>
-      </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
+      <c r="E38" s="19">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43961</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="B39" s="8">
+        <v>496328</v>
+      </c>
+      <c r="C39" s="8">
+        <v>17650</v>
+      </c>
       <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="28">
-        <v>5.931873794746309E-2</v>
-      </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
+      <c r="E39" s="19">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43962</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="B40" s="8">
+        <v>506771</v>
+      </c>
+      <c r="C40" s="8">
+        <v>18926</v>
+      </c>
       <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="28">
-        <v>6.371144303840269E-2</v>
-      </c>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
+      <c r="E40" s="19">
+        <v>6.3711443038399998E-2</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43963</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="B41" s="8">
+        <v>511385</v>
+      </c>
+      <c r="C41" s="8">
+        <v>26787</v>
+      </c>
       <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="28">
-        <v>6.9203871595681407E-2</v>
-      </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
+      <c r="E41" s="19">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43964</v>
       </c>
-      <c r="B42" s="26">
-        <f>D42-C42</f>
+      <c r="B42" s="8">
         <v>556776</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="8">
         <v>30655</v>
       </c>
       <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="28">
-        <v>5.3746641255816775E-2</v>
-      </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
+      <c r="E42" s="19">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43965</v>
       </c>
-      <c r="B43" s="26">
-        <f t="shared" ref="B43:B49" si="0">D43-C43</f>
+      <c r="B43" s="8">
         <v>587313</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="8">
         <v>35971</v>
       </c>
       <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="28">
-        <v>5.0326548577818486E-2</v>
-      </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
+      <c r="E43" s="19">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43966</v>
       </c>
-      <c r="B44" s="26">
-        <f t="shared" si="0"/>
+      <c r="B44" s="8">
         <v>609630</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="8">
         <v>36362</v>
       </c>
       <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="28">
-        <v>5.0860404798844107E-2</v>
-      </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
+      <c r="E44" s="19">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43967</v>
       </c>
-      <c r="B45" s="26">
-        <f t="shared" si="0"/>
+      <c r="B45" s="8">
         <v>638739</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="8">
         <v>39732</v>
       </c>
       <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="28">
-        <v>4.8309255353452055E-2</v>
-      </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
+      <c r="E45" s="19">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="F45" s="8">
+        <v>23708</v>
+      </c>
+      <c r="G45" s="8">
+        <v>3317</v>
+      </c>
+      <c r="H45" s="8">
+        <v>27025</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>43968</v>
       </c>
-      <c r="B46" s="26">
-        <f t="shared" si="0"/>
+      <c r="B46" s="8">
         <v>650355</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="8">
         <v>42921</v>
       </c>
       <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="28">
-        <v>4.9721692378052185E-2</v>
-      </c>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
+      <c r="E46" s="19">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="F46" s="8">
+        <v>22004</v>
+      </c>
+      <c r="G46" s="8">
+        <v>3610</v>
+      </c>
+      <c r="H46" s="8">
+        <v>25614</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>43969</v>
       </c>
-      <c r="B47" s="26">
-        <f t="shared" si="0"/>
+      <c r="B47" s="8">
         <v>679845</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C47" s="8">
         <v>43168</v>
       </c>
       <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="28">
-        <v>4.4720144337002575E-2</v>
-      </c>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
+      <c r="E47" s="19">
+        <v>4.4720144337000001E-2</v>
+      </c>
+      <c r="F47" s="8">
+        <v>24725</v>
+      </c>
+      <c r="G47" s="8">
+        <v>3463</v>
+      </c>
+      <c r="H47" s="8">
+        <v>28188</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>43970</v>
       </c>
-      <c r="B48" s="26">
-        <f t="shared" si="0"/>
+      <c r="B48" s="8">
         <v>700146</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="8">
         <v>44791</v>
       </c>
       <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="28">
-        <v>4.6958852729112474E-2</v>
-      </c>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-    </row>
-    <row r="49" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="19">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F48" s="8">
+        <v>26966</v>
+      </c>
+      <c r="G48" s="8">
+        <v>2572</v>
+      </c>
+      <c r="H48" s="8">
+        <v>29538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>43971</v>
       </c>
-      <c r="B49" s="26">
-        <f t="shared" si="0"/>
+      <c r="B49" s="8">
         <v>720928</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C49" s="8">
         <v>49313</v>
       </c>
       <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="28">
-        <v>5.4339880111116526E-2</v>
-      </c>
-      <c r="F49" s="26">
+      <c r="E49" s="19">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="F49" s="8">
         <v>23450</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G49" s="8">
         <v>2665</v>
       </c>
-      <c r="H49" s="26">
+      <c r="H49" s="8">
         <v>26116</v>
       </c>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-    </row>
-    <row r="50" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>43972</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="8">
         <v>740181</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C50" s="8">
         <v>60252</v>
       </c>
       <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="28">
-        <v>5.5060575136719261E-2</v>
-      </c>
-      <c r="F50" s="26">
+      <c r="E50" s="19">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="F50" s="8">
         <v>21838</v>
       </c>
-      <c r="G50" s="26">
+      <c r="G50" s="8">
         <v>3469</v>
       </c>
-      <c r="H50" s="26">
+      <c r="H50" s="8">
         <v>25307</v>
       </c>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-    </row>
-    <row r="51" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>43973</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="8">
         <v>762706</v>
       </c>
-      <c r="C51" s="26">
+      <c r="C51" s="8">
         <v>71731</v>
       </c>
       <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="28">
-        <v>5.3901330058271711E-2</v>
-      </c>
-      <c r="F51" s="26">
+      <c r="E51" s="19">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="F51" s="8">
         <v>21868</v>
       </c>
-      <c r="G51" s="26">
+      <c r="G51" s="8">
         <v>5053</v>
       </c>
-      <c r="H51" s="26">
+      <c r="H51" s="8">
         <v>26921</v>
       </c>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-    </row>
-    <row r="52" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>43974</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
+      <c r="B52" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>275</v>
+      </c>
       <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-    </row>
-    <row r="53" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8">
+        <v>27494.857142857141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>43975</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="8">
         <v>805654</v>
       </c>
-      <c r="C53" s="26">
+      <c r="C53" s="8">
         <v>80700</v>
       </c>
       <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="28">
-        <v>4.8706044469056464E-2</v>
-      </c>
-      <c r="F53" s="26">
+      <c r="E53" s="19">
+        <v>4.87E-2</v>
+      </c>
+      <c r="F53" s="8">
         <v>22186</v>
       </c>
-      <c r="G53" s="26">
+      <c r="G53" s="8">
         <v>5397</v>
       </c>
-      <c r="H53" s="26">
+      <c r="H53" s="8">
         <v>27583</v>
       </c>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-    </row>
-    <row r="54" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>43976</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="8">
         <v>821233</v>
       </c>
-      <c r="C54" s="26">
+      <c r="C54" s="8">
         <v>84841</v>
       </c>
       <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="28">
-        <v>5.1475372733188106E-2</v>
-      </c>
-      <c r="F54" s="26">
+      <c r="E54" s="19">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="F54" s="8">
         <v>20198</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G54" s="8">
         <v>5953</v>
       </c>
-      <c r="H54" s="26">
+      <c r="H54" s="8">
         <v>26152</v>
       </c>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-    </row>
-    <row r="55" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>43977</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="8">
         <v>855674</v>
       </c>
-      <c r="C55" s="26">
+      <c r="C55" s="8">
         <v>87565</v>
       </c>
       <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="28">
-        <v>4.2744714778046394E-2</v>
-      </c>
-      <c r="F55" s="26">
+      <c r="E55" s="19">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="F55" s="8">
         <v>22218</v>
       </c>
-      <c r="G55" s="26">
+      <c r="G55" s="8">
         <v>6111</v>
       </c>
-      <c r="H55" s="26">
+      <c r="H55" s="8">
         <v>28329</v>
       </c>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-    </row>
-    <row r="56" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>43978</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="8">
         <v>873218</v>
       </c>
-      <c r="C56" s="26">
+      <c r="C56" s="8">
         <v>88643</v>
       </c>
       <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="28">
-        <v>4.3325234749491105E-2</v>
-      </c>
-      <c r="F56" s="26">
+      <c r="E56" s="19">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="F56" s="8">
         <v>21756</v>
       </c>
-      <c r="G56" s="26">
+      <c r="G56" s="8">
         <v>5619</v>
       </c>
-      <c r="H56" s="26">
+      <c r="H56" s="8">
         <v>27374</v>
       </c>
-      <c r="I56" s="33"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-    </row>
-    <row r="57" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>43979</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="8">
         <v>893275</v>
       </c>
-      <c r="C57" s="26">
+      <c r="C57" s="8">
         <v>96719</v>
       </c>
       <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="28">
-        <v>4.9041765190013978E-2</v>
-      </c>
-      <c r="F57" s="26">
+      <c r="E57" s="19">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F57" s="8">
         <v>21871</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G57" s="8">
         <v>5210</v>
       </c>
-      <c r="H57" s="26">
+      <c r="H57" s="8">
         <v>27080</v>
       </c>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-    </row>
-    <row r="58" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>43980</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
+      <c r="B58" s="8">
+        <v>928517</v>
+      </c>
+      <c r="C58" s="8">
+        <v>98932</v>
+      </c>
       <c r="D58" s="8">
-        <v>1019467</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-    </row>
-    <row r="60" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-    </row>
-    <row r="61" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
+        <v>1027449</v>
+      </c>
+      <c r="E58" s="19">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="F58" s="8">
+        <v>23687</v>
+      </c>
+      <c r="G58" s="8">
+        <v>3886</v>
+      </c>
+      <c r="H58" s="8">
+        <v>27573</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>43981</v>
+      </c>
+      <c r="B59" s="8">
+        <v>951865</v>
+      </c>
+      <c r="C59" s="8">
+        <v>102928</v>
+      </c>
+      <c r="D59" s="8">
+        <v>1054793</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8">
+        <v>26265.428571428572</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>43982</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D60" s="8">
+        <v>1073491</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="62" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A61:E61"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A62:H62"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4:C258"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7323,53 +7545,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="21"/>
-    </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A1" s="21" t="s">
         <v>277</v>
       </c>
+      <c r="B1" s="22"/>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="7">
-        <v>36423</v>
+      <c r="B3" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B4" s="7">
-        <v>991026</v>
+        <v>39223</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B5" s="7">
-        <v>1027449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="21"/>
+        <v>1034268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1073491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7377,7 +7599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF16BB5-BDD3-44AD-B412-EE72CDD131AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F10CBDC-C5D0-4004-943F-EB74153F80F5}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7386,46 +7608,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.81640625" style="14"/>
+    <col min="1" max="1" width="55" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.81640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="B1" s="24"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="18">
-        <v>96719</v>
+      <c r="B3" s="15">
+        <v>102928</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="B4" s="18">
-        <v>3782</v>
+      <c r="A4" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="15">
+        <v>4044</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" s="24"/>
+      <c r="A6" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7437,86 +7659,78 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74397EA8-E591-4ABD-A56E-83066F1202CE}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C07BE52-EB3C-4160-86BF-D2B6AE404886}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C210" sqref="C210"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.90625" style="14"/>
+    <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="22"/>
+    </row>
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="7">
+        <v>55594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" s="7">
+        <v>16127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="24"/>
-    </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" s="18">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" s="18">
-        <v>56054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="B5" s="18">
-        <v>14932</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="B6" s="18">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="B7" s="18">
-        <v>5773</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" s="24"/>
+      <c r="B7" s="7">
+        <v>5840</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7524,13 +7738,13 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4:C258"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7541,650 +7755,672 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-    </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A1" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43925</v>
-      </c>
-      <c r="C3" s="18">
-        <v>827</v>
+      <c r="C3" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>43926</v>
-      </c>
-      <c r="C4" s="18">
-        <v>1132</v>
+        <v>43925</v>
+      </c>
+      <c r="C4" s="7">
+        <v>827</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6">
-        <v>43927</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1153</v>
+        <v>43926</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1132</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="6">
-        <v>43928</v>
-      </c>
-      <c r="C6" s="18">
-        <v>1252</v>
+        <v>43927</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1153</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>43929</v>
-      </c>
-      <c r="C7" s="18">
-        <v>1491</v>
+        <v>43928</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1252</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="6">
-        <v>43930</v>
-      </c>
-      <c r="C8" s="18">
-        <v>1439</v>
+        <v>43929</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1491</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6">
-        <v>43931</v>
-      </c>
-      <c r="C9" s="18">
-        <v>1532</v>
+        <v>43930</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1439</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6">
-        <v>43932</v>
-      </c>
-      <c r="C10" s="18">
-        <v>1514</v>
+        <v>43931</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1532</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6">
-        <v>43933</v>
-      </c>
-      <c r="C11" s="18">
-        <v>1338</v>
+        <v>43932</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1514</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6">
-        <v>43934</v>
-      </c>
-      <c r="C12" s="18">
-        <v>1176</v>
+        <v>43933</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1338</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6">
-        <v>43935</v>
-      </c>
-      <c r="C13" s="18">
-        <v>1409</v>
+        <v>43934</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1176</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6">
-        <v>43936</v>
-      </c>
-      <c r="C14" s="18">
-        <v>1538</v>
+        <v>43935</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1409</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6">
-        <v>43937</v>
-      </c>
-      <c r="C15" s="18">
-        <v>1459</v>
+        <v>43936</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1538</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6">
-        <v>43938</v>
-      </c>
-      <c r="C16" s="18">
-        <v>1522</v>
+        <v>43937</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1459</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6">
-        <v>43939</v>
-      </c>
-      <c r="C17" s="18">
-        <v>1321</v>
+        <v>43938</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1522</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6">
-        <v>43940</v>
-      </c>
-      <c r="C18" s="18">
-        <v>1471</v>
+        <v>43939</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1321</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="6">
-        <v>43941</v>
-      </c>
-      <c r="C19" s="18">
-        <v>1411</v>
+        <v>43940</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1471</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="6">
-        <v>43942</v>
-      </c>
-      <c r="C20" s="18">
-        <v>1419</v>
+        <v>43941</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1411</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="6">
-        <v>43943</v>
-      </c>
-      <c r="C21" s="18">
-        <v>1678</v>
+        <v>43942</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1419</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="6">
-        <v>43944</v>
-      </c>
-      <c r="C22" s="18">
-        <v>1649</v>
+        <v>43943</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1678</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6">
-        <v>43945</v>
-      </c>
-      <c r="C23" s="18">
-        <v>1674</v>
+        <v>43944</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1649</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="6">
-        <v>43946</v>
-      </c>
-      <c r="C24" s="18">
-        <v>1597</v>
+        <v>43945</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1674</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="6">
-        <v>43947</v>
-      </c>
-      <c r="C25" s="18">
-        <v>1542</v>
+        <v>43946</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1597</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="6">
-        <v>43948</v>
-      </c>
-      <c r="C26" s="18">
-        <v>1563</v>
+        <v>43947</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1542</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="6">
-        <v>43949</v>
-      </c>
-      <c r="C27" s="18">
-        <v>1682</v>
+        <v>43948</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1563</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="6">
-        <v>43950</v>
-      </c>
-      <c r="C28" s="18">
-        <v>1702</v>
+        <v>43949</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1682</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6">
-        <v>43951</v>
-      </c>
-      <c r="C29" s="18">
-        <v>1686</v>
+        <v>43950</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1702</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="6">
-        <v>43952</v>
-      </c>
-      <c r="C30" s="18">
-        <v>1778</v>
+        <v>43951</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1686</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="6">
-        <v>43953</v>
-      </c>
-      <c r="C31" s="18">
-        <v>1725</v>
+        <v>43952</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1778</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="6">
-        <v>43954</v>
-      </c>
-      <c r="C32" s="18">
-        <v>1540</v>
+        <v>43953</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1725</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="6">
-        <v>43955</v>
-      </c>
-      <c r="C33" s="18">
-        <v>1533</v>
+        <v>43954</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1540</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="6">
-        <v>43956</v>
-      </c>
-      <c r="C34" s="18">
-        <v>1888</v>
+        <v>43955</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1533</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="6">
-        <v>43957</v>
-      </c>
-      <c r="C35" s="18">
-        <v>1812</v>
+        <v>43956</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1888</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="6">
-        <v>43958</v>
-      </c>
-      <c r="C36" s="18">
-        <v>1750</v>
+        <v>43957</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1812</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="6">
-        <v>43959</v>
-      </c>
-      <c r="C37" s="18">
-        <v>1734</v>
+        <v>43958</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1750</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="6">
-        <v>43960</v>
-      </c>
-      <c r="C38" s="18">
-        <v>1735</v>
+        <v>43959</v>
+      </c>
+      <c r="C38" s="7">
+        <v>1734</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="6">
-        <v>43961</v>
-      </c>
-      <c r="C39" s="18">
-        <v>1626</v>
+        <v>43960</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1735</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="6">
-        <v>43962</v>
-      </c>
-      <c r="C40" s="18">
-        <v>1525</v>
+        <v>43961</v>
+      </c>
+      <c r="C40" s="7">
+        <v>1626</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="6">
-        <v>43963</v>
-      </c>
-      <c r="C41" s="18">
-        <v>1725</v>
+        <v>43962</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1525</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="6">
-        <v>43964</v>
-      </c>
-      <c r="C42" s="18">
-        <v>1676</v>
+        <v>43963</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1725</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="6">
-        <v>43965</v>
-      </c>
-      <c r="C43" s="18">
-        <v>1648</v>
+        <v>43964</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1676</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="6">
-        <v>43966</v>
-      </c>
-      <c r="C44" s="18">
-        <v>1716</v>
+        <v>43965</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1648</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="6">
-        <v>43967</v>
-      </c>
-      <c r="C45" s="18">
-        <v>1791</v>
+        <v>43966</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1716</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="6">
-        <v>43968</v>
-      </c>
-      <c r="C46" s="18">
-        <v>1512</v>
+        <v>43967</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1791</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="6">
-        <v>43969</v>
-      </c>
-      <c r="C47" s="18">
-        <v>1551</v>
+        <v>43968</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1512</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="6">
-        <v>43970</v>
-      </c>
-      <c r="C48" s="18">
-        <v>1732</v>
+        <v>43969</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1551</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="6">
-        <v>43971</v>
-      </c>
-      <c r="C49" s="18">
-        <v>1791</v>
+        <v>43970</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1732</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="6">
-        <v>43972</v>
-      </c>
-      <c r="C50" s="18">
-        <v>1680</v>
+        <v>43971</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1791</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="6">
-        <v>43973</v>
-      </c>
-      <c r="C51" s="18">
-        <v>1578</v>
+        <v>43972</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1680</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="6">
-        <v>43974</v>
-      </c>
-      <c r="C52" s="18">
-        <v>1688</v>
+        <v>43973</v>
+      </c>
+      <c r="C52" s="7">
+        <v>1578</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="6">
-        <v>43975</v>
-      </c>
-      <c r="C53" s="18">
-        <v>1572</v>
+        <v>43974</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1688</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="6">
-        <v>43976</v>
-      </c>
-      <c r="C54" s="18">
-        <v>1511</v>
+        <v>43975</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1572</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="6">
-        <v>43977</v>
-      </c>
-      <c r="C55" s="18">
-        <v>1534</v>
+        <v>43976</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1511</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="6">
-        <v>43978</v>
-      </c>
-      <c r="C56" s="18">
-        <v>1645</v>
+        <v>43977</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1534</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="6">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="C57" s="7">
-        <v>1692</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
+        <v>55</v>
+      </c>
+      <c r="B58" s="6">
+        <v>43979</v>
+      </c>
+      <c r="C58" s="7">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>56</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B59" s="6">
         <v>43980</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C59" s="7">
         <v>1701</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
+    <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>57</v>
+      </c>
+      <c r="B60" s="6">
+        <v>43981</v>
+      </c>
+      <c r="C60" s="7">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>58</v>
+      </c>
+      <c r="B61" s="6">
+        <v>43982</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A63:C63"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8192,12 +8428,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A4" sqref="A4:C258"/>
+      <selection activeCell="E7" sqref="E7"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -8205,167 +8441,167 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>286</v>
+      <c r="A2" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B3" s="8">
         <v>38</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B4" s="8">
         <v>170</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B5" s="8">
-        <v>440</v>
-      </c>
-      <c r="C5" s="19">
-        <v>2.9573867455299999E-2</v>
+        <v>441</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B6" s="8">
-        <v>2306</v>
-      </c>
-      <c r="C6" s="19">
+        <v>2309</v>
+      </c>
+      <c r="C6" s="17">
         <v>0.155</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B7" s="8">
-        <v>2728</v>
-      </c>
-      <c r="C7" s="19">
+        <v>2732</v>
+      </c>
+      <c r="C7" s="17">
         <v>0.183</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B8" s="8">
-        <v>2795</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0.18786127167630001</v>
+        <v>2798</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.187</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B9" s="8">
-        <v>2735</v>
-      </c>
-      <c r="C9" s="19">
+        <v>2747</v>
+      </c>
+      <c r="C9" s="17">
         <v>0.184</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B10" s="8">
-        <v>1154</v>
-      </c>
-      <c r="C10" s="19">
+        <v>1159</v>
+      </c>
+      <c r="C10" s="17">
         <v>7.8E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B11" s="8">
-        <v>833</v>
-      </c>
-      <c r="C11" s="19">
-        <v>5.5988708159700001E-2</v>
+        <v>841</v>
+      </c>
+      <c r="C11" s="17">
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B12" s="8">
-        <v>544</v>
-      </c>
-      <c r="C12" s="19">
+        <v>551</v>
+      </c>
+      <c r="C12" s="17">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B13" s="8">
-        <v>362</v>
-      </c>
-      <c r="C13" s="19">
-        <v>2.4331227315500002E-2</v>
+        <v>365</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B14" s="8">
-        <v>650</v>
-      </c>
-      <c r="C14" s="19">
-        <v>4.3688667831700001E-2</v>
+        <v>651</v>
+      </c>
+      <c r="C14" s="17">
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B15" s="8">
         <v>123</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -8374,25 +8610,25 @@
         <v>258</v>
       </c>
       <c r="B16" s="8">
-        <v>14878</v>
-      </c>
-      <c r="C16" s="19">
+        <v>14925</v>
+      </c>
+      <c r="C16" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/original-sources/dshs.xlsx
+++ b/original-sources/dshs.xlsx
@@ -8,34 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{802F8C5F-5D08-4091-BACF-3D08D742E2CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A12C53EF-1195-4908-9095-561AC365BBEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
     <sheet name="Trends" sheetId="2" r:id="rId2"/>
-    <sheet name="Recoveries" sheetId="3" r:id="rId3"/>
-    <sheet name="Tests by day" sheetId="5" r:id="rId4"/>
-    <sheet name="Tests" sheetId="6" r:id="rId5"/>
+    <sheet name="Recoveries" sheetId="12" r:id="rId3"/>
+    <sheet name="Tests by day" sheetId="15" r:id="rId4"/>
+    <sheet name="Tests" sheetId="13" r:id="rId5"/>
     <sheet name="Antibody Tests" sheetId="14" r:id="rId6"/>
-    <sheet name="Hospitalizations" sheetId="15" r:id="rId7"/>
-    <sheet name="Hospitalization by Day" sheetId="7" r:id="rId8"/>
-    <sheet name="Cases by Age Group" sheetId="8" r:id="rId9"/>
-    <sheet name="Cases by Gender" sheetId="9" r:id="rId10"/>
-    <sheet name="Cases by RaceEthnicity" sheetId="10" r:id="rId11"/>
-    <sheet name="Fatalities by Age Group" sheetId="11" r:id="rId12"/>
-    <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
-    <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
+    <sheet name="Hospitalizations" sheetId="3" r:id="rId7"/>
+    <sheet name="Hospitalization by Day" sheetId="4" r:id="rId8"/>
+    <sheet name="Cases by Age Group" sheetId="5" r:id="rId9"/>
+    <sheet name="Cases by Gender" sheetId="6" r:id="rId10"/>
+    <sheet name="Cases by RaceEthnicity" sheetId="7" r:id="rId11"/>
+    <sheet name="Fatalities by Age Group" sheetId="8" r:id="rId12"/>
+    <sheet name="Fatalities by Gender" sheetId="9" r:id="rId13"/>
+    <sheet name="Fatalities by Race-Ethnicity" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="334">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 5/31 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="334">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/01 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 5/31 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/01 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -839,19 +839,140 @@
 Fatalities</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 5/31 at 3:00PM CST</t>
-  </si>
-  <si>
-    <t>Recovered</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
-  </si>
-  <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 5/31 at 3:00PM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/01 at 9:30AM CST</t>
+  </si>
+  <si>
+    <t>Hospital data</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Lab Confirmed COVID-19 Patients Currently in Texas Hospitals</t>
+  </si>
+  <si>
+    <t>Total Texas Staffed Hospital Beds</t>
+  </si>
+  <si>
+    <t>Available Texas Hospital Beds</t>
+  </si>
+  <si>
+    <t>Available Texas ICU Beds</t>
+  </si>
+  <si>
+    <t>Available Texas Ventilators</t>
+  </si>
+  <si>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/01 at 9:30AM CST</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Hospitalizations</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Cases as of 6/01 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Age
+Groupings</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>&lt;1 year</t>
+  </si>
+  <si>
+    <t>1-9 years</t>
+  </si>
+  <si>
+    <t>10-19 years</t>
+  </si>
+  <si>
+    <t>20-29 years</t>
+  </si>
+  <si>
+    <t>30-39 years</t>
+  </si>
+  <si>
+    <t>40-49 years</t>
+  </si>
+  <si>
+    <t>50-59 years</t>
+  </si>
+  <si>
+    <t>60-64 years</t>
+  </si>
+  <si>
+    <t>65-69 years</t>
+  </si>
+  <si>
+    <t>70-74 years</t>
+  </si>
+  <si>
+    <t>75-79 years</t>
+  </si>
+  <si>
+    <t>80+ years</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
+  </si>
+  <si>
+    <t>Completed case investigations received by DSHS =          14,970</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/01 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/01 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Fatalities as of 6/01 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =          494</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 6/01 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/01 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -875,15 +996,18 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 5/31 at 3:00PM CST</t>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Total People Tested in Texas by Public Health Lab</t>
   </si>
   <si>
@@ -896,146 +1020,13 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 5/31 at 9:30AM CST</t>
-  </si>
-  <si>
-    <t>Obs</t>
-  </si>
-  <si>
-    <t>Hospitalizations</t>
-  </si>
-  <si>
-    <t>Age of Confirmed Cases as of 5/31 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Age
-Groupings</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>&lt;1 year</t>
-  </si>
-  <si>
-    <t>1-9 years</t>
-  </si>
-  <si>
-    <t>10-19 years</t>
-  </si>
-  <si>
-    <t>20-29 years</t>
-  </si>
-  <si>
-    <t>30-39 years</t>
-  </si>
-  <si>
-    <t>40-49 years</t>
-  </si>
-  <si>
-    <t>50-59 years</t>
-  </si>
-  <si>
-    <t>60-64 years</t>
-  </si>
-  <si>
-    <t>65-69 years</t>
-  </si>
-  <si>
-    <t>70-74 years</t>
-  </si>
-  <si>
-    <t>75-79 years</t>
-  </si>
-  <si>
-    <t>80+ years</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
-  </si>
-  <si>
-    <t>Completed case investigations received by DSHS =          14,925</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 5/31 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 5/31 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Hispanic</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Age of Confirmed Fatalities as of 5/31 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =          494</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 5/31 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 5/31 at 9:30 AM CST</t>
-  </si>
-  <si>
     <t>Number of Antibody Tests Reported (included in total test numbers)</t>
   </si>
   <si>
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Hospital data</t>
-  </si>
-  <si>
-    <t>Lab Confirmed COVID-19 Patients Currently in Texas Hospitals</t>
-  </si>
-  <si>
-    <t>Total Texas Staffed Hospital Beds</t>
-  </si>
-  <si>
-    <t>Available Texas Hospital Beds</t>
-  </si>
-  <si>
-    <t>Available Texas ICU Beds</t>
-  </si>
-  <si>
-    <t>Available Texas Ventilators</t>
-  </si>
-  <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 5/30 at 3:00PM CST</t>
-  </si>
-  <si>
-    <t>Texas Statewide Hospitalization Data as of 5/31 at 9:30AM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/1 at 3:00PM CST</t>
   </si>
   <si>
     <t>New Viral Tests Reported* (Average of previous 7 days)</t>
@@ -1045,6 +1036,15 @@
   </si>
   <si>
     <t>New Total Tests Reported* (Average of previous 7 days)</t>
+  </si>
+  <si>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/1 at 3:00PM CST</t>
+  </si>
+  <si>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/1 at 3:00PM CST</t>
+  </si>
+  <si>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 5/31 at 3:00PM CST</t>
   </si>
 </sst>
 </file>
@@ -1056,8 +1056,8 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="##,###,##0"/>
     <numFmt numFmtId="167" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="168" formatCode="##0"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="##0"/>
+    <numFmt numFmtId="173" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1187,7 +1187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1212,14 +1212,29 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1236,49 +1251,43 @@
     <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A67DD485-6664-4CF3-AC05-0288CDA78D88}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{965E659D-7ED4-4F05-A455-8E5F094F23A3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1413,7 +1422,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1424,11 +1434,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1523,7 +1533,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1556,7 +1566,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -1589,7 +1599,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C16" s="4">
         <v>4</v>
@@ -1600,10 +1610,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>2825</v>
+        <v>2830</v>
       </c>
       <c r="C17" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1644,7 +1654,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C21" s="4">
         <v>6</v>
@@ -1655,7 +1665,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="C22" s="4">
         <v>12</v>
@@ -1666,7 +1676,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C23" s="4">
         <v>19</v>
@@ -1721,7 +1731,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1732,7 +1742,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -1743,7 +1753,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1787,7 +1797,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -1908,7 +1918,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>1297</v>
+        <v>1312</v>
       </c>
       <c r="C45" s="4">
         <v>34</v>
@@ -1941,7 +1951,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -1985,7 +1995,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -2062,10 +2072,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>10006</v>
+        <v>10234</v>
       </c>
       <c r="C59" s="4">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2117,7 +2127,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1357</v>
+        <v>1373</v>
       </c>
       <c r="C64" s="4">
         <v>31</v>
@@ -2205,10 +2215,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>2764</v>
+        <v>2794</v>
       </c>
       <c r="C72" s="4">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2304,7 +2314,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>1861</v>
+        <v>1881</v>
       </c>
       <c r="C81" s="4">
         <v>44</v>
@@ -2315,7 +2325,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2359,7 +2369,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="C86" s="4">
         <v>37</v>
@@ -2436,7 +2446,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C93" s="4">
         <v>2</v>
@@ -2458,7 +2468,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -2546,10 +2556,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>12220</v>
+        <v>12276</v>
       </c>
       <c r="C103" s="4">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2568,7 +2578,7 @@
         <v>106</v>
       </c>
       <c r="B105" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" s="4">
         <v>2</v>
@@ -2623,7 +2633,7 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="C110" s="4">
         <v>10</v>
@@ -2788,10 +2798,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C125" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3107,7 +3117,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C154" s="4">
         <v>50</v>
@@ -3316,7 +3326,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C173" s="4">
         <v>13</v>
@@ -3349,7 +3359,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C176" s="4">
         <v>21</v>
@@ -3393,7 +3403,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C180" s="4">
         <v>3</v>
@@ -3448,7 +3458,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C185" s="4">
         <v>23</v>
@@ -3481,7 +3491,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3613,7 +3623,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3657,7 +3667,7 @@
         <v>205</v>
       </c>
       <c r="B204" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C204" s="4">
         <v>0</v>
@@ -3789,7 +3799,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3855,7 +3865,7 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>5463</v>
+        <v>5513</v>
       </c>
       <c r="C222" s="4">
         <v>165</v>
@@ -3866,7 +3876,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3910,7 +3920,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C227" s="4">
         <v>2</v>
@@ -3921,7 +3931,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3932,7 +3942,7 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>3232</v>
+        <v>3272</v>
       </c>
       <c r="C229" s="4">
         <v>93</v>
@@ -4031,7 +4041,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C238" s="4">
         <v>27</v>
@@ -4042,7 +4052,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4075,7 +4085,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C242" s="4">
         <v>19</v>
@@ -4130,7 +4140,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C247" s="4">
         <v>1</v>
@@ -4141,7 +4151,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="C248" s="4">
         <v>24</v>
@@ -4240,10 +4250,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>64287</v>
+        <v>64880</v>
       </c>
       <c r="C257" s="4">
-        <v>1672</v>
+        <v>1678</v>
       </c>
     </row>
   </sheetData>
@@ -4256,97 +4266,97 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="A1" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B3" s="8">
-        <v>6722</v>
-      </c>
-      <c r="C3" s="17">
-        <v>0.45</v>
+        <v>298</v>
+      </c>
+      <c r="B3" s="9">
+        <v>6751</v>
+      </c>
+      <c r="C3" s="30">
+        <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="8">
-        <v>7921</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0.53072026800670002</v>
+        <v>299</v>
+      </c>
+      <c r="B4" s="9">
+        <v>7936</v>
+      </c>
+      <c r="C4" s="30">
+        <v>0.53</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" s="8">
-        <v>282</v>
-      </c>
-      <c r="C5" s="17">
-        <v>1.9E-2</v>
+        <v>293</v>
+      </c>
+      <c r="B5" s="9">
+        <v>283</v>
+      </c>
+      <c r="C5" s="30">
+        <v>1.8904475617899999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="8">
-        <v>14925</v>
-      </c>
-      <c r="C6" s="17">
+      <c r="B6" s="9">
+        <v>14970</v>
+      </c>
+      <c r="C6" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4360,103 +4370,103 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="A1" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B3" s="8">
-        <v>498</v>
-      </c>
-      <c r="C3" s="17">
+        <v>302</v>
+      </c>
+      <c r="B3" s="9">
+        <v>500</v>
+      </c>
+      <c r="C3" s="30">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B4" s="8">
-        <v>2360</v>
-      </c>
-      <c r="C4" s="17">
+        <v>303</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2365</v>
+      </c>
+      <c r="C4" s="30">
         <v>0.158</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B5" s="8">
-        <v>5923</v>
-      </c>
-      <c r="C5" s="17">
-        <v>0.39700000000000002</v>
+        <v>304</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5951</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0.39800000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B6" s="8">
+        <v>305</v>
+      </c>
+      <c r="B6" s="9">
         <v>96</v>
       </c>
-      <c r="C6" s="17">
-        <v>6.0000000000000001E-3</v>
+      <c r="C6" s="30">
+        <v>6.4128256512999996E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B7" s="8">
-        <v>4107</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0.27500000000000002</v>
+        <v>306</v>
+      </c>
+      <c r="B7" s="9">
+        <v>4116</v>
+      </c>
+      <c r="C7" s="30">
+        <v>0.27494989979959999</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1941</v>
-      </c>
-      <c r="C8" s="17">
+        <v>293</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1942</v>
+      </c>
+      <c r="C8" s="30">
         <v>0.13</v>
       </c>
     </row>
@@ -4464,26 +4474,26 @@
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="8">
-        <v>14925</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B9" s="9">
+        <v>14970</v>
+      </c>
+      <c r="C9" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="A11" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4497,180 +4507,180 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="A1" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>288</v>
+      <c r="A2" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="30">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B6" s="10">
         <v>11</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="30">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B7" s="10">
         <v>9</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="30">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B8" s="10">
         <v>21</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="30">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B9" s="10">
         <v>54</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="30">
         <v>0.109</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B10" s="10">
         <v>45</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="30">
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B11" s="10">
         <v>58</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="30">
         <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B12" s="10">
         <v>47</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="30">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B13" s="10">
         <v>45</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="30">
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B14" s="10">
         <v>199</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="30">
         <v>0.40300000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B15" s="10">
         <v>3</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="30">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -4681,23 +4691,23 @@
       <c r="B16" s="10">
         <v>494</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="A18" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4711,70 +4721,70 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="A1" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B3" s="10">
         <v>192</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="30">
         <v>0.38900000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B4" s="10">
         <v>271</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="30">
         <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B5" s="10">
         <v>31</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="30">
         <v>6.3E-2</v>
       </c>
     </row>
@@ -4785,23 +4795,23 @@
       <c r="B6" s="10">
         <v>494</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4815,103 +4825,103 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="A1" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B3" s="10">
         <v>6</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="30">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B4" s="10">
         <v>67</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="30">
         <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B5" s="10">
         <v>122</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="30">
         <v>0.247</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="30">
         <v>2E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B7" s="10">
         <v>183</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="30">
         <v>0.37</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B8" s="10">
         <v>115</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="30">
         <v>0.23300000000000001</v>
       </c>
     </row>
@@ -4922,23 +4932,23 @@
       <c r="B9" s="10">
         <v>494</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="A11" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4947,18 +4957,18 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4970,22 +4980,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6141,6 +6151,23 @@
       </c>
       <c r="E70" s="4">
         <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>43983</v>
+      </c>
+      <c r="B71" s="4">
+        <v>64880</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1678</v>
+      </c>
+      <c r="D71" s="4">
+        <v>593</v>
+      </c>
+      <c r="E71" s="4">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6154,13 +6181,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E48C2D6-3996-48DE-9D29-F7FFB273011A}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6170,32 +6197,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="22"/>
+      <c r="A1" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>42423</v>
+        <v>43338</v>
       </c>
       <c r="B3" s="7">
-        <v>20192</v>
+        <v>19864</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="22"/>
+      <c r="A5" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6208,13 +6235,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92DA2C0-8C12-45C0-965D-47AECCAC1A96}">
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6223,910 +6250,910 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="A1" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="86" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>261</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>333</v>
+        <v>311</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43925</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="B3" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="9">
         <v>63751</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="25">
         <v>0.1056</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43926</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="B4" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="9">
         <v>70938</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="25">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43927</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="B5" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="9">
         <v>85357</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="25">
         <v>8.8909998585200004E-2</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43928</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="B6" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="9">
         <v>88649</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="25">
         <v>0.1094</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43929</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="B7" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" s="9">
         <v>96258</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="25">
         <v>0.11070000000000001</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43930</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="B8" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" s="9">
         <v>106134</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="25">
         <v>0.100351636462</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43931</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="B9" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" s="9">
         <v>115918</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="25">
         <v>0.1055125178708</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43932</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="B10" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="9">
         <v>120533</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="25">
         <v>0.11360000000000001</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43933</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="B11" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" s="9">
         <v>124553</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="25">
         <v>0.12479999999999999</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43934</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="B12" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12" s="9">
         <v>133226</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="25">
         <v>0.1386</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43935</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="B13" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="9">
         <v>146467</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="25">
         <v>0.1101</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43936</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="B14" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="9">
         <v>151810</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="25">
         <v>0.1105</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43937</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="B15" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="9">
         <v>158547</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="25">
         <v>0.1188</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43938</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="B16" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D16" s="9">
         <v>169536</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="25">
         <v>0.10630000000000001</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43939</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="B17" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="9">
         <v>176239</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="25">
         <v>0.1023</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43940</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="B18" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" s="9">
         <v>182710</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="25">
         <v>9.35E-2</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43941</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="B19" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D19" s="9">
         <v>190394</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="25">
         <v>9.7117268401900006E-2</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43942</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="B20" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D20" s="9">
         <v>205399</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="25">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43943</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="B21" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D21" s="9">
         <v>216783</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="25">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43944</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D22" s="8">
+      <c r="B22" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" s="9">
         <v>225078</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="25">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43945</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="B23" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D23" s="9">
         <v>242547</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="25">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43946</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D24" s="8">
+      <c r="B24" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="9">
         <v>262816</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="25">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>43947</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="B25" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" s="9">
         <v>276021</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="25">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43948</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="B26" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D26" s="9">
         <v>290517</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="25">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43949</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="B27" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D27" s="9">
         <v>300384</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="25">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43950</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="B28" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D28" s="9">
         <v>314790</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="25">
         <v>6.10670666381E-2</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43951</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="B29" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D29" s="9">
         <v>330300</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="25">
         <v>5.8381327098900003E-2</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43952</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="B30" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D30" s="9">
         <v>351775</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="25">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43953</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="B31" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31" s="9">
         <v>380648</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="25">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43954</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D32" s="8">
+      <c r="B32" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D32" s="9">
         <v>390560</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="25">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43955</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="B33" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D33" s="9">
         <v>407398</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="25">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43956</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D34" s="8">
+      <c r="B34" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D34" s="9">
         <v>427210</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="25">
         <v>5.6754924069199998E-2</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43957</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="B35" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D35" s="9">
         <v>438938</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="25">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43958</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D36" s="8">
+      <c r="B36" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D36" s="9">
         <v>455162</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="25">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>43959</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D37" s="8">
+      <c r="B37" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D37" s="9">
         <v>477118</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="25">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>43960</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="9">
         <v>472782</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="9">
         <v>16512</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="9">
         <v>489294</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="25">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43961</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="9">
         <v>496328</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="9">
         <v>17650</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <v>513978</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="25">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43962</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="9">
         <v>506771</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="9">
         <v>18926</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <v>525697</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="25">
         <v>6.3711443038399998E-2</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43963</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="9">
         <v>511385</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="9">
         <v>26787</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="9">
         <v>538172</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="25">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43964</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="9">
         <v>556776</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="9">
         <v>30655</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="9">
         <v>587431</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="25">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43965</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="9">
         <v>587313</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="9">
         <v>35971</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="9">
         <v>623284</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="25">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43966</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="9">
         <v>609630</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="9">
         <v>36362</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="9">
         <v>645992</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="25">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43967</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="9">
         <v>638739</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="9">
         <v>39732</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="9">
         <v>678471</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="25">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="9">
         <v>23708</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="9">
         <v>3317</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="9">
         <v>27025</v>
       </c>
     </row>
@@ -7134,25 +7161,25 @@
       <c r="A46" s="6">
         <v>43968</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="9">
         <v>650355</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="9">
         <v>42921</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <v>693276</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="25">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="9">
         <v>22004</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="9">
         <v>3610</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="9">
         <v>25614</v>
       </c>
     </row>
@@ -7160,25 +7187,25 @@
       <c r="A47" s="6">
         <v>43969</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="9">
         <v>679845</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="9">
         <v>43168</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <v>723013</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="25">
         <v>4.4720144337000001E-2</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="9">
         <v>24725</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="9">
         <v>3463</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="9">
         <v>28188</v>
       </c>
     </row>
@@ -7186,25 +7213,25 @@
       <c r="A48" s="6">
         <v>43970</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="9">
         <v>700146</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="9">
         <v>44791</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <v>744937</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="25">
         <v>4.7E-2</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="9">
         <v>26966</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="9">
         <v>2572</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="9">
         <v>29538</v>
       </c>
     </row>
@@ -7212,25 +7239,25 @@
       <c r="A49" s="6">
         <v>43971</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="9">
         <v>720928</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="9">
         <v>49313</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="9">
         <v>770241</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="25">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="9">
         <v>23450</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="9">
         <v>2665</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="9">
         <v>26116</v>
       </c>
     </row>
@@ -7238,25 +7265,25 @@
       <c r="A50" s="6">
         <v>43972</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="9">
         <v>740181</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="9">
         <v>60252</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="9">
         <v>800433</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="25">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="9">
         <v>21838</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="9">
         <v>3469</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="9">
         <v>25307</v>
       </c>
     </row>
@@ -7264,25 +7291,25 @@
       <c r="A51" s="6">
         <v>43973</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="9">
         <v>762706</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="9">
         <v>71731</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="9">
         <v>834437</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="25">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="9">
         <v>21868</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="9">
         <v>5053</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="9">
         <v>26921</v>
       </c>
     </row>
@@ -7290,21 +7317,21 @@
       <c r="A52" s="6">
         <v>43974</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D52" s="8">
+      <c r="B52" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D52" s="9">
         <v>870935</v>
       </c>
-      <c r="E52" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8">
+      <c r="E52" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9">
         <v>27494.857142857141</v>
       </c>
     </row>
@@ -7312,25 +7339,25 @@
       <c r="A53" s="6">
         <v>43975</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="9">
         <v>805654</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="9">
         <v>80700</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="9">
         <v>886354</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="25">
         <v>4.87E-2</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="9">
         <v>22186</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="9">
         <v>5397</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="9">
         <v>27583</v>
       </c>
     </row>
@@ -7338,25 +7365,25 @@
       <c r="A54" s="6">
         <v>43976</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="9">
         <v>821233</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="9">
         <v>84841</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="9">
         <v>906074</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="25">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="9">
         <v>20198</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="9">
         <v>5953</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="9">
         <v>26152</v>
       </c>
     </row>
@@ -7364,25 +7391,25 @@
       <c r="A55" s="6">
         <v>43977</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="9">
         <v>855674</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="9">
         <v>87565</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="9">
         <v>943239</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="25">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="9">
         <v>22218</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="9">
         <v>6111</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="9">
         <v>28329</v>
       </c>
     </row>
@@ -7390,25 +7417,25 @@
       <c r="A56" s="6">
         <v>43978</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="9">
         <v>873218</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="9">
         <v>88643</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="9">
         <v>961861</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="25">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="9">
         <v>21756</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="9">
         <v>5619</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="9">
         <v>27374</v>
       </c>
     </row>
@@ -7416,25 +7443,25 @@
       <c r="A57" s="6">
         <v>43979</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="9">
         <v>893275</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="9">
         <v>96719</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="9">
         <v>989994</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="25">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="9">
         <v>21871</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="9">
         <v>5210</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="9">
         <v>27080</v>
       </c>
     </row>
@@ -7442,25 +7469,25 @@
       <c r="A58" s="6">
         <v>43980</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="9">
         <v>928517</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="9">
         <v>98932</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="9">
         <v>1027449</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="25">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="9">
         <v>23687</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="9">
         <v>3886</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="9">
         <v>27573</v>
       </c>
     </row>
@@ -7468,74 +7495,94 @@
       <c r="A59" s="6">
         <v>43981</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="9">
         <v>951865</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="9">
         <v>102928</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="9">
         <v>1054793</v>
       </c>
-      <c r="E59" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8">
-        <v>26265.428571428572</v>
+      <c r="E59" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9">
+        <v>26265</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>43982</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D60" s="8">
+      <c r="B60" s="9">
+        <v>970031</v>
+      </c>
+      <c r="C60" s="9">
+        <v>103460</v>
+      </c>
+      <c r="D60" s="9">
         <v>1073491</v>
       </c>
-      <c r="E60" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="62" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="E60" s="25">
+        <v>5.4381087378404525E-2</v>
+      </c>
+      <c r="F60" s="9">
+        <v>23482</v>
+      </c>
+      <c r="G60" s="9">
+        <v>3251</v>
+      </c>
+      <c r="H60" s="9">
+        <v>26734</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>43983</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9">
+        <v>1093676</v>
+      </c>
+      <c r="E61" s="25"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="63" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A63:H63"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3711B965-728E-407E-B686-F01FC6A6F6E0}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7545,53 +7592,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" s="22"/>
+      <c r="A1" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>279</v>
+      <c r="A3" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="7">
+        <v>40811</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="B4" s="7">
-        <v>39223</v>
+        <v>1052865</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="B5" s="7">
-        <v>1034268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1073491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" s="22"/>
+        <f>SUM(B3:B4)</f>
+        <v>1093676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7599,55 +7647,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F10CBDC-C5D0-4004-943F-EB74153F80F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0579E56-3F26-4463-A600-1B39385FEE4D}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.81640625" style="11"/>
+    <col min="1" max="1" width="55" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.81640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="B1" s="27"/>
+      <c r="A1" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>279</v>
+      <c r="A2" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="B3" s="15">
-        <v>102928</v>
+      <c r="A3" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="20">
+        <v>103460</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="B4" s="15">
-        <v>4044</v>
+      <c r="A4" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="20">
+        <v>4080</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="B6" s="27"/>
+      <c r="A6" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7659,13 +7707,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C07BE52-EB3C-4160-86BF-D2B6AE404886}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7675,57 +7723,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="B1" s="22"/>
+      <c r="A1" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>323</v>
+        <v>267</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="B3" s="7">
-        <v>1684</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="B4" s="7">
-        <v>55594</v>
+        <v>54362</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="B5" s="7">
-        <v>16127</v>
+        <v>16330</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="B6" s="7">
-        <v>1740</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="B7" s="7">
-        <v>5840</v>
+        <v>5824</v>
       </c>
     </row>
   </sheetData>
@@ -7738,13 +7786,13 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7755,672 +7803,675 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="A1" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>286</v>
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>43925</v>
+      </c>
+      <c r="C3" s="7">
+        <v>827</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="C4" s="7">
-        <v>827</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="C5" s="7">
-        <v>1132</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="C6" s="7">
-        <v>1153</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="C7" s="7">
-        <v>1252</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="C8" s="7">
-        <v>1491</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="C9" s="7">
-        <v>1439</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="C10" s="7">
-        <v>1532</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="C11" s="7">
-        <v>1514</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="C12" s="7">
-        <v>1338</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="C13" s="7">
-        <v>1176</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="C14" s="7">
-        <v>1409</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="C15" s="7">
-        <v>1538</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="C16" s="7">
-        <v>1459</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="C17" s="7">
-        <v>1522</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="C18" s="7">
-        <v>1321</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="C19" s="7">
-        <v>1471</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="C20" s="7">
-        <v>1411</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="C21" s="7">
-        <v>1419</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="C22" s="7">
-        <v>1678</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="C23" s="7">
-        <v>1649</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="6">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="C24" s="7">
-        <v>1674</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="C25" s="7">
-        <v>1597</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="C26" s="7">
-        <v>1542</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="C27" s="7">
-        <v>1563</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="C28" s="7">
-        <v>1682</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="6">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="C29" s="7">
-        <v>1702</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="6">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="C30" s="7">
-        <v>1686</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="6">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="C31" s="7">
-        <v>1778</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="6">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="C32" s="7">
-        <v>1725</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="6">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="C33" s="7">
-        <v>1540</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="6">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="C34" s="7">
-        <v>1533</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="6">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="C35" s="7">
-        <v>1888</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="6">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="C36" s="7">
-        <v>1812</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="6">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="C37" s="7">
-        <v>1750</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" s="6">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="C38" s="7">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="6">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="C39" s="7">
-        <v>1735</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" s="6">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="C40" s="7">
-        <v>1626</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" s="6">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="C41" s="7">
-        <v>1525</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" s="6">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="C42" s="7">
-        <v>1725</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" s="6">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="C43" s="7">
-        <v>1676</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="6">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="C44" s="7">
-        <v>1648</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="6">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="C45" s="7">
-        <v>1716</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="6">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="C46" s="7">
-        <v>1791</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="6">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="C47" s="7">
-        <v>1512</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="6">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="C48" s="7">
-        <v>1551</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="6">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="C49" s="7">
-        <v>1732</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" s="6">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="C50" s="7">
-        <v>1791</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" s="6">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="C51" s="7">
-        <v>1680</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" s="6">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="C52" s="7">
-        <v>1578</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" s="6">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="C53" s="7">
-        <v>1688</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" s="6">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="C54" s="7">
-        <v>1572</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="6">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="C55" s="7">
-        <v>1511</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="6">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="C56" s="7">
-        <v>1534</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="6">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="C57" s="7">
-        <v>1645</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" s="6">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="C58" s="7">
-        <v>1692</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="6">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="C59" s="7">
-        <v>1701</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" s="6">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="C60" s="7">
-        <v>1752</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" s="6">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="C61" s="7">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+        <v>1756</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A63:C63"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8428,180 +8479,180 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="A1" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>288</v>
+      <c r="A2" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>290</v>
+        <v>279</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B3" s="8">
+        <v>281</v>
+      </c>
+      <c r="B3" s="9">
         <v>38</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="30">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B4" s="8">
-        <v>170</v>
-      </c>
-      <c r="C4" s="17">
+        <v>282</v>
+      </c>
+      <c r="B4" s="9">
+        <v>172</v>
+      </c>
+      <c r="C4" s="30">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" s="8">
-        <v>441</v>
-      </c>
-      <c r="C5" s="17">
+        <v>283</v>
+      </c>
+      <c r="B5" s="9">
+        <v>443</v>
+      </c>
+      <c r="C5" s="30">
         <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="8">
-        <v>2309</v>
-      </c>
-      <c r="C6" s="17">
+        <v>284</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2316</v>
+      </c>
+      <c r="C6" s="30">
         <v>0.155</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2732</v>
-      </c>
-      <c r="C7" s="17">
+        <v>285</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2745</v>
+      </c>
+      <c r="C7" s="30">
         <v>0.183</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2798</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0.187</v>
+        <v>286</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2805</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0.18737474949899999</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2747</v>
-      </c>
-      <c r="C9" s="17">
+        <v>287</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2753</v>
+      </c>
+      <c r="C9" s="30">
         <v>0.184</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1159</v>
-      </c>
-      <c r="C10" s="17">
+        <v>288</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1161</v>
+      </c>
+      <c r="C10" s="30">
         <v>7.8E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B11" s="8">
-        <v>841</v>
-      </c>
-      <c r="C11" s="17">
-        <v>5.6000000000000001E-2</v>
+        <v>289</v>
+      </c>
+      <c r="B11" s="9">
+        <v>845</v>
+      </c>
+      <c r="C11" s="30">
+        <v>5.6446225784900002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B12" s="8">
-        <v>551</v>
-      </c>
-      <c r="C12" s="17">
+        <v>290</v>
+      </c>
+      <c r="B12" s="9">
+        <v>552</v>
+      </c>
+      <c r="C12" s="30">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B13" s="8">
-        <v>365</v>
-      </c>
-      <c r="C13" s="17">
+        <v>291</v>
+      </c>
+      <c r="B13" s="9">
+        <v>366</v>
+      </c>
+      <c r="C13" s="30">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B14" s="8">
+        <v>292</v>
+      </c>
+      <c r="B14" s="9">
         <v>651</v>
       </c>
-      <c r="C14" s="17">
-        <v>4.3999999999999997E-2</v>
+      <c r="C14" s="30">
+        <v>4.34869739479E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B15" s="8">
+        <v>293</v>
+      </c>
+      <c r="B15" s="9">
         <v>123</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="30">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -8609,26 +8660,26 @@
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="8">
-        <v>14925</v>
-      </c>
-      <c r="C16" s="17">
+      <c r="B16" s="9">
+        <v>14970</v>
+      </c>
+      <c r="C16" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="A18" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/original-sources/dshs.xlsx
+++ b/original-sources/dshs.xlsx
@@ -8,34 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A12C53EF-1195-4908-9095-561AC365BBEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C666D0FD-CA04-4875-8BC2-147104383655}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
     <sheet name="Trends" sheetId="2" r:id="rId2"/>
-    <sheet name="Recoveries" sheetId="12" r:id="rId3"/>
-    <sheet name="Tests by day" sheetId="15" r:id="rId4"/>
-    <sheet name="Tests" sheetId="13" r:id="rId5"/>
+    <sheet name="Recoveries" sheetId="3" r:id="rId3"/>
+    <sheet name="Tests by day" sheetId="4" r:id="rId4"/>
+    <sheet name="Tests" sheetId="5" r:id="rId5"/>
     <sheet name="Antibody Tests" sheetId="14" r:id="rId6"/>
-    <sheet name="Hospitalizations" sheetId="3" r:id="rId7"/>
-    <sheet name="Hospitalization by Day" sheetId="4" r:id="rId8"/>
-    <sheet name="Cases by Age Group" sheetId="5" r:id="rId9"/>
-    <sheet name="Cases by Gender" sheetId="6" r:id="rId10"/>
-    <sheet name="Cases by RaceEthnicity" sheetId="7" r:id="rId11"/>
-    <sheet name="Fatalities by Age Group" sheetId="8" r:id="rId12"/>
-    <sheet name="Fatalities by Gender" sheetId="9" r:id="rId13"/>
-    <sheet name="Fatalities by Race-Ethnicity" sheetId="10" r:id="rId14"/>
+    <sheet name="Hospitalizations" sheetId="6" r:id="rId7"/>
+    <sheet name="Hospitalization by Day" sheetId="7" r:id="rId8"/>
+    <sheet name="Cases by Age Group" sheetId="8" r:id="rId9"/>
+    <sheet name="Cases by Gender" sheetId="9" r:id="rId10"/>
+    <sheet name="Cases by RaceEthnicity" sheetId="10" r:id="rId11"/>
+    <sheet name="Fatalities by Age Group" sheetId="11" r:id="rId12"/>
+    <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
+    <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="334">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/01 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="334">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/02 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/01 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/02 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -839,140 +839,19 @@
 Fatalities</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/01 at 9:30AM CST</t>
-  </si>
-  <si>
-    <t>Hospital data</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Lab Confirmed COVID-19 Patients Currently in Texas Hospitals</t>
-  </si>
-  <si>
-    <t>Total Texas Staffed Hospital Beds</t>
-  </si>
-  <si>
-    <t>Available Texas Hospital Beds</t>
-  </si>
-  <si>
-    <t>Available Texas ICU Beds</t>
-  </si>
-  <si>
-    <t>Available Texas Ventilators</t>
-  </si>
-  <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/01 at 9:30AM CST</t>
-  </si>
-  <si>
-    <t>Obs</t>
-  </si>
-  <si>
-    <t>Hospitalizations</t>
-  </si>
-  <si>
-    <t>Age of Confirmed Cases as of 6/01 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Age
-Groupings</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>&lt;1 year</t>
-  </si>
-  <si>
-    <t>1-9 years</t>
-  </si>
-  <si>
-    <t>10-19 years</t>
-  </si>
-  <si>
-    <t>20-29 years</t>
-  </si>
-  <si>
-    <t>30-39 years</t>
-  </si>
-  <si>
-    <t>40-49 years</t>
-  </si>
-  <si>
-    <t>50-59 years</t>
-  </si>
-  <si>
-    <t>60-64 years</t>
-  </si>
-  <si>
-    <t>65-69 years</t>
-  </si>
-  <si>
-    <t>70-74 years</t>
-  </si>
-  <si>
-    <t>75-79 years</t>
-  </si>
-  <si>
-    <t>80+ years</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
-  </si>
-  <si>
-    <t>Completed case investigations received by DSHS =          14,970</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/01 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/01 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Hispanic</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Age of Confirmed Fatalities as of 6/01 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =          494</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 6/01 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/01 at 9:30 AM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/02 at 3:00PM CST</t>
+  </si>
+  <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
+  </si>
+  <si>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/02 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -996,18 +875,15 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Recovered</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/02 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
+    <t>Count</t>
+  </si>
+  <si>
     <t>Total People Tested in Texas by Public Health Lab</t>
   </si>
   <si>
@@ -1020,13 +896,146 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
+    <t>Texas Statewide Hospitalization Data as of 6/02 at 9:30AM CST</t>
+  </si>
+  <si>
+    <t>Hospital data</t>
+  </si>
+  <si>
+    <t>Lab Confirmed COVID-19 Patients Currently in Texas Hospitals</t>
+  </si>
+  <si>
+    <t>Total Texas Staffed Hospital Beds</t>
+  </si>
+  <si>
+    <t>Available Texas Hospital Beds</t>
+  </si>
+  <si>
+    <t>Available Texas ICU Beds</t>
+  </si>
+  <si>
+    <t>Available Texas Ventilators</t>
+  </si>
+  <si>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/02 at 9:30AM CST</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Hospitalizations</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Cases as of 6/02 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Age
+Groupings</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>&lt;1 year</t>
+  </si>
+  <si>
+    <t>1-9 years</t>
+  </si>
+  <si>
+    <t>10-19 years</t>
+  </si>
+  <si>
+    <t>20-29 years</t>
+  </si>
+  <si>
+    <t>30-39 years</t>
+  </si>
+  <si>
+    <t>40-49 years</t>
+  </si>
+  <si>
+    <t>50-59 years</t>
+  </si>
+  <si>
+    <t>60-64 years</t>
+  </si>
+  <si>
+    <t>65-69 years</t>
+  </si>
+  <si>
+    <t>70-74 years</t>
+  </si>
+  <si>
+    <t>75-79 years</t>
+  </si>
+  <si>
+    <t>80+ years</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
+  </si>
+  <si>
+    <t>Completed case investigations received by DSHS =          14,991</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/02 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/02 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Fatalities as of 6/02 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =          495</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 6/02 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/02 at 9:30 AM CST</t>
+  </si>
+  <si>
     <t>Number of Antibody Tests Reported (included in total test numbers)</t>
   </si>
   <si>
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/1 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/1 at 3:00PM CST</t>
   </si>
   <si>
     <t>New Viral Tests Reported* (Average of previous 7 days)</t>
@@ -1036,28 +1045,20 @@
   </si>
   <si>
     <t>New Total Tests Reported* (Average of previous 7 days)</t>
-  </si>
-  <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/1 at 3:00PM CST</t>
-  </si>
-  <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/1 at 3:00PM CST</t>
-  </si>
-  <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 5/31 at 3:00PM CST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="###,##0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="##,###,##0"/>
     <numFmt numFmtId="167" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="169" formatCode="##0"/>
-    <numFmt numFmtId="173" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="#####0"/>
+    <numFmt numFmtId="171" formatCode="##0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1135,7 +1136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1173,21 +1174,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB0B7BB"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1212,29 +1204,17 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1251,43 +1231,46 @@
     <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{965E659D-7ED4-4F05-A455-8E5F094F23A3}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4066FEC8-F14A-49ED-966F-DD3CFA06B059}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1434,11 +1417,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1456,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -1478,10 +1461,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1566,7 +1549,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -1588,7 +1571,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1599,7 +1582,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C16" s="4">
         <v>4</v>
@@ -1610,10 +1593,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>2830</v>
+        <v>2839</v>
       </c>
       <c r="C17" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1654,7 +1637,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C21" s="4">
         <v>6</v>
@@ -1665,7 +1648,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="C22" s="4">
         <v>12</v>
@@ -1676,7 +1659,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C23" s="4">
         <v>19</v>
@@ -1720,10 +1703,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1742,7 +1725,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -1753,7 +1736,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1786,7 +1769,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="C33" s="4">
         <v>36</v>
@@ -1819,7 +1802,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
@@ -1852,7 +1835,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -1874,7 +1857,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
@@ -1940,7 +1923,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1951,7 +1934,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -1984,7 +1967,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1995,7 +1978,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -2017,10 +2000,10 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C54" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2061,7 +2044,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2072,7 +2055,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>10234</v>
+        <v>10462</v>
       </c>
       <c r="C59" s="4">
         <v>229</v>
@@ -2105,7 +2088,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C62" s="4">
         <v>13</v>
@@ -2127,10 +2110,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1373</v>
+        <v>1398</v>
       </c>
       <c r="C64" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2193,7 +2176,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C70" s="4">
         <v>5</v>
@@ -2215,10 +2198,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>2794</v>
+        <v>2833</v>
       </c>
       <c r="C72" s="4">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2226,10 +2209,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C73" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2248,7 +2231,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2259,7 +2242,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C76" s="4">
         <v>2</v>
@@ -2369,7 +2352,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>817</v>
+        <v>847</v>
       </c>
       <c r="C86" s="4">
         <v>37</v>
@@ -2424,7 +2407,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C91" s="4">
         <v>2</v>
@@ -2435,7 +2418,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C92" s="4">
         <v>2</v>
@@ -2446,7 +2429,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C93" s="4">
         <v>2</v>
@@ -2457,7 +2440,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="C94" s="4">
         <v>6</v>
@@ -2468,7 +2451,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -2556,10 +2539,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>12276</v>
+        <v>12664</v>
       </c>
       <c r="C103" s="4">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2567,7 +2550,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C104" s="4">
         <v>25</v>
@@ -2600,7 +2583,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="C107" s="4">
         <v>4</v>
@@ -2622,7 +2605,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C109" s="4">
         <v>2</v>
@@ -2633,10 +2616,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="C110" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2699,7 +2682,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2721,7 +2704,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C118" s="4">
         <v>4</v>
@@ -2732,7 +2715,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -2743,7 +2726,7 @@
         <v>121</v>
       </c>
       <c r="B120" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" s="4">
         <v>0</v>
@@ -2765,7 +2748,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -2798,7 +2781,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C125" s="4">
         <v>28</v>
@@ -2831,7 +2814,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2842,7 +2825,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>401</v>
+        <v>606</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2864,7 +2847,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C131" s="4">
         <v>2</v>
@@ -2875,7 +2858,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -2908,7 +2891,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C135" s="4">
         <v>0</v>
@@ -2952,7 +2935,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
@@ -3018,7 +3001,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3062,7 +3045,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3117,7 +3100,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="C154" s="4">
         <v>50</v>
@@ -3194,7 +3177,7 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C161" s="4">
         <v>1</v>
@@ -3216,7 +3199,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C163" s="4">
         <v>4</v>
@@ -3260,7 +3243,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C167" s="4">
         <v>12</v>
@@ -3271,7 +3254,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3315,7 +3298,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="C172" s="4">
         <v>26</v>
@@ -3326,7 +3309,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>689</v>
+        <v>838</v>
       </c>
       <c r="C173" s="4">
         <v>13</v>
@@ -3359,7 +3342,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C176" s="4">
         <v>21</v>
@@ -3370,7 +3353,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C177" s="4">
         <v>2</v>
@@ -3392,7 +3375,7 @@
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3425,7 +3408,7 @@
         <v>183</v>
       </c>
       <c r="B182" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C182" s="4">
         <v>1</v>
@@ -3469,7 +3452,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3502,7 +3485,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3513,7 +3496,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2321</v>
+        <v>2354</v>
       </c>
       <c r="C190" s="4">
         <v>30</v>
@@ -3546,7 +3529,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="C193" s="4">
         <v>6</v>
@@ -3579,7 +3562,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C196" s="4">
         <v>8</v>
@@ -3623,7 +3606,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3634,10 +3617,10 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C201" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3645,7 +3628,7 @@
         <v>203</v>
       </c>
       <c r="B202" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -3656,7 +3639,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3678,7 +3661,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C205" s="4">
         <v>2</v>
@@ -3700,7 +3683,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -3733,7 +3716,7 @@
         <v>211</v>
       </c>
       <c r="B210" s="4">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C210" s="4">
         <v>0</v>
@@ -3755,7 +3738,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C212" s="4">
         <v>6</v>
@@ -3766,7 +3749,7 @@
         <v>214</v>
       </c>
       <c r="B213" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C213" s="4">
         <v>0</v>
@@ -3777,7 +3760,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3799,7 +3782,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3865,7 +3848,7 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>5513</v>
+        <v>5534</v>
       </c>
       <c r="C222" s="4">
         <v>165</v>
@@ -3876,7 +3859,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3920,7 +3903,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="C227" s="4">
         <v>2</v>
@@ -3942,7 +3925,7 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>3272</v>
+        <v>3360</v>
       </c>
       <c r="C229" s="4">
         <v>93</v>
@@ -3975,7 +3958,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -3997,7 +3980,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4008,7 +3991,7 @@
         <v>236</v>
       </c>
       <c r="B235" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C235" s="4">
         <v>0</v>
@@ -4019,7 +4002,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C236" s="4">
         <v>1</v>
@@ -4041,7 +4024,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1456</v>
+        <v>1574</v>
       </c>
       <c r="C238" s="4">
         <v>27</v>
@@ -4052,7 +4035,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4074,7 +4057,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C241" s="4">
         <v>25</v>
@@ -4085,7 +4068,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C242" s="4">
         <v>19</v>
@@ -4096,7 +4079,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C243" s="4">
         <v>0</v>
@@ -4118,7 +4101,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4140,10 +4123,10 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C247" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4151,10 +4134,10 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="C248" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4162,7 +4145,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4184,7 +4167,7 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C251" s="4">
         <v>3</v>
@@ -4195,10 +4178,10 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C252" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4228,7 +4211,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4239,7 +4222,7 @@
         <v>257</v>
       </c>
       <c r="B256" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4250,10 +4233,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>64880</v>
+        <v>66568</v>
       </c>
       <c r="C257" s="4">
-        <v>1678</v>
+        <v>1698</v>
       </c>
     </row>
   </sheetData>
@@ -4266,461 +4249,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="9">
-        <v>6751</v>
-      </c>
-      <c r="C3" s="30">
-        <v>0.45100000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" s="9">
-        <v>7936</v>
-      </c>
-      <c r="C4" s="30">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" s="9">
-        <v>283</v>
-      </c>
-      <c r="C5" s="30">
-        <v>1.8904475617899999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="9">
-        <v>14970</v>
-      </c>
-      <c r="C6" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-  </mergeCells>
-  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" s="9">
-        <v>500</v>
-      </c>
-      <c r="C3" s="30">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="9">
-        <v>2365</v>
-      </c>
-      <c r="C4" s="30">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" s="9">
-        <v>5951</v>
-      </c>
-      <c r="C5" s="30">
-        <v>0.39800000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" s="9">
-        <v>96</v>
-      </c>
-      <c r="C6" s="30">
-        <v>6.4128256512999996E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="9">
-        <v>4116</v>
-      </c>
-      <c r="C7" s="30">
-        <v>0.27494989979959999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1942</v>
-      </c>
-      <c r="C8" s="30">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B9" s="9">
-        <v>14970</v>
-      </c>
-      <c r="C9" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-  </mergeCells>
-  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0</v>
-      </c>
-      <c r="C4" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="10">
-        <v>2</v>
-      </c>
-      <c r="C5" s="30">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B6" s="10">
-        <v>11</v>
-      </c>
-      <c r="C6" s="30">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B7" s="10">
-        <v>9</v>
-      </c>
-      <c r="C7" s="30">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8" s="10">
-        <v>21</v>
-      </c>
-      <c r="C8" s="30">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" s="10">
-        <v>54</v>
-      </c>
-      <c r="C9" s="30">
-        <v>0.109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B10" s="10">
-        <v>45</v>
-      </c>
-      <c r="C10" s="30">
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="10">
-        <v>58</v>
-      </c>
-      <c r="C11" s="30">
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B12" s="10">
-        <v>47</v>
-      </c>
-      <c r="C12" s="30">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B13" s="10">
-        <v>45</v>
-      </c>
-      <c r="C13" s="30">
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" s="10">
-        <v>199</v>
-      </c>
-      <c r="C14" s="30">
-        <v>0.40300000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B15" s="10">
-        <v>3</v>
-      </c>
-      <c r="C15" s="30">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B16" s="10">
-        <v>494</v>
-      </c>
-      <c r="C16" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-    </row>
-    <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-  </mergeCells>
-  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -4734,84 +4262,84 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="10">
-        <v>192</v>
-      </c>
-      <c r="C3" s="30">
-        <v>0.38900000000000001</v>
+        <v>315</v>
+      </c>
+      <c r="B3" s="8">
+        <v>6760</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" s="10">
-        <v>271</v>
-      </c>
-      <c r="C4" s="30">
-        <v>0.54900000000000004</v>
+        <v>316</v>
+      </c>
+      <c r="B4" s="8">
+        <v>7948</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.53</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B5" s="10">
-        <v>31</v>
-      </c>
-      <c r="C5" s="30">
-        <v>6.3E-2</v>
+        <v>310</v>
+      </c>
+      <c r="B5" s="8">
+        <v>283</v>
+      </c>
+      <c r="C5" s="25">
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="10">
-        <v>494</v>
-      </c>
-      <c r="C6" s="30">
+      <c r="B6" s="8">
+        <v>14991</v>
+      </c>
+      <c r="C6" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4824,7 +4352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -4838,117 +4366,572 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" s="10">
-        <v>6</v>
-      </c>
-      <c r="C3" s="30">
-        <v>1.2E-2</v>
+        <v>319</v>
+      </c>
+      <c r="B3" s="8">
+        <v>500</v>
+      </c>
+      <c r="C3" s="25">
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="10">
-        <v>67</v>
-      </c>
-      <c r="C4" s="30">
-        <v>0.13600000000000001</v>
+        <v>320</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2369</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.158</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" s="10">
-        <v>122</v>
-      </c>
-      <c r="C5" s="30">
-        <v>0.247</v>
+        <v>321</v>
+      </c>
+      <c r="B5" s="8">
+        <v>5963</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.39800000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="30">
-        <v>2E-3</v>
+        <v>322</v>
+      </c>
+      <c r="B6" s="8">
+        <v>96</v>
+      </c>
+      <c r="C6" s="25">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B7" s="10">
-        <v>183</v>
-      </c>
-      <c r="C7" s="30">
-        <v>0.37</v>
+        <v>323</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4121</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" s="10">
-        <v>115</v>
-      </c>
-      <c r="C8" s="30">
-        <v>0.23300000000000001</v>
+        <v>310</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1942</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="10">
-        <v>494</v>
-      </c>
-      <c r="C9" s="30">
+      <c r="B9" s="8">
+        <v>14991</v>
+      </c>
+      <c r="C9" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+  </mergeCells>
+  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="25">
+        <v>4.0404040404000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="11">
+        <v>11</v>
+      </c>
+      <c r="C6" s="25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="11">
+        <v>9</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="11">
+        <v>21</v>
+      </c>
+      <c r="C8" s="25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="11">
+        <v>54</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="11">
+        <v>45</v>
+      </c>
+      <c r="C10" s="25">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" s="11">
+        <v>58</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="11">
+        <v>47</v>
+      </c>
+      <c r="C12" s="25">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B13" s="11">
+        <v>46</v>
+      </c>
+      <c r="C13" s="25">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="11">
+        <v>199</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.4020202020202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="11">
+        <v>3</v>
+      </c>
+      <c r="C15" s="25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="11">
+        <v>495</v>
+      </c>
+      <c r="C16" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+  </mergeCells>
+  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="11">
+        <v>193</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" s="11">
+        <v>271</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" s="11">
+        <v>31</v>
+      </c>
+      <c r="C5" s="25">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="11">
+        <v>495</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="11">
+        <v>6</v>
+      </c>
+      <c r="C3" s="25">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="11">
+        <v>67</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="11">
+        <v>123</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25">
+        <v>2.0202020202000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="11">
+        <v>183</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="11">
+        <v>115</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="11">
+        <v>495</v>
+      </c>
+      <c r="C9" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4963,7 +4946,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -4980,22 +4963,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6168,6 +6151,23 @@
       </c>
       <c r="E71" s="4">
         <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>43984</v>
+      </c>
+      <c r="B72" s="4">
+        <v>66568</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1698</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1688</v>
+      </c>
+      <c r="E72" s="4">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -6181,13 +6181,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E48C2D6-3996-48DE-9D29-F7FFB273011A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6197,32 +6197,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>43338</v>
+        <v>44517</v>
       </c>
       <c r="B3" s="7">
-        <v>19864</v>
+        <v>20353</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="B5" s="12"/>
+      <c r="A5" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6235,12 +6235,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92DA2C0-8C12-45C0-965D-47AECCAC1A96}">
-  <dimension ref="A1:H63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E7" sqref="E7"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -6250,910 +6250,910 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="86" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>330</v>
+      <c r="G2" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>43925</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="B3" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="27">
         <v>0.1056</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>43926</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D4" s="9">
+      <c r="B4" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="27">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>43927</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="B5" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="27">
         <v>8.8909998585200004E-2</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>43928</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="27">
         <v>0.1094</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>43929</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="B7" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="27">
         <v>0.11070000000000001</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>43930</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="B8" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="27">
         <v>0.100351636462</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>43931</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="B9" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="27">
         <v>0.1055125178708</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>43932</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="B10" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="27">
         <v>0.11360000000000001</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>43933</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="B11" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="27">
         <v>0.12479999999999999</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>43934</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="B12" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="27">
         <v>0.1386</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>43935</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="B13" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="27">
         <v>0.1101</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>43936</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="B14" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="27">
         <v>0.1105</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>43937</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="B15" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="27">
         <v>0.1188</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>43938</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="B16" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="27">
         <v>0.10630000000000001</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>43939</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="B17" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="27">
         <v>0.1023</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>43940</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="B18" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="27">
         <v>9.35E-2</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>43941</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D19" s="9">
+      <c r="B19" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="27">
         <v>9.7117268401900006E-2</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>43942</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="B20" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="27">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>43943</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D21" s="9">
+      <c r="B21" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="27">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>43944</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="B22" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="27">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>43945</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="B23" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="27">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>43946</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="B24" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="27">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>43947</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D25" s="9">
+      <c r="B25" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="27">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>43948</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D26" s="9">
+      <c r="B26" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="27">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>43949</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="B27" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="27">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>43950</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="B28" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="27">
         <v>6.10670666381E-2</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>43951</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D29" s="9">
+      <c r="B29" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="27">
         <v>5.8381327098900003E-2</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>43952</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="B30" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="27">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>43953</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D31" s="9">
+      <c r="B31" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="27">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>43954</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="B32" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="27">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>43955</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D33" s="9">
+      <c r="B33" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="27">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>43956</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D34" s="9">
+      <c r="B34" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="27">
         <v>5.6754924069199998E-2</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>43957</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D35" s="9">
+      <c r="B35" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="27">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>43958</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="B36" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="27">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>43959</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D37" s="9">
+      <c r="B37" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="27">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>43960</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>472782</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>16512</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="27">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>43961</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>496328</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>17650</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="27">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>43962</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>506771</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>18926</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="27">
         <v>6.3711443038399998E-2</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>43963</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>511385</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>26787</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="27">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>43964</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>556776</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>30655</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="27">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>43965</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>587313</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>35971</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="27">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43966</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>609630</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>36362</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="27">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>43967</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>638739</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>39732</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="27">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <v>23708</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="8">
         <v>3317</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="8">
         <v>27025</v>
       </c>
     </row>
@@ -7161,25 +7161,25 @@
       <c r="A46" s="6">
         <v>43968</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>650355</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>42921</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="27">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <v>22004</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <v>3610</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="8">
         <v>25614</v>
       </c>
     </row>
@@ -7187,25 +7187,25 @@
       <c r="A47" s="6">
         <v>43969</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>679845</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>43168</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="27">
         <v>4.4720144337000001E-2</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="8">
         <v>24725</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="8">
         <v>3463</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="8">
         <v>28188</v>
       </c>
     </row>
@@ -7213,25 +7213,25 @@
       <c r="A48" s="6">
         <v>43970</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>700146</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>44791</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E48" s="27">
         <v>4.7E-2</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="8">
         <v>26966</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="8">
         <v>2572</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="8">
         <v>29538</v>
       </c>
     </row>
@@ -7239,25 +7239,25 @@
       <c r="A49" s="6">
         <v>43971</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>720928</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>49313</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E49" s="27">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="8">
         <v>23450</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="8">
         <v>2665</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="8">
         <v>26116</v>
       </c>
     </row>
@@ -7265,25 +7265,25 @@
       <c r="A50" s="6">
         <v>43972</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>740181</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>60252</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="27">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="8">
         <v>21838</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="8">
         <v>3469</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="8">
         <v>25307</v>
       </c>
     </row>
@@ -7291,25 +7291,25 @@
       <c r="A51" s="6">
         <v>43973</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>762706</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>71731</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="27">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="8">
         <v>21868</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="8">
         <v>5053</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="8">
         <v>26921</v>
       </c>
     </row>
@@ -7317,21 +7317,21 @@
       <c r="A52" s="6">
         <v>43974</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D52" s="9">
+      <c r="B52" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9">
+      <c r="E52" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8">
         <v>27494.857142857141</v>
       </c>
     </row>
@@ -7339,25 +7339,25 @@
       <c r="A53" s="6">
         <v>43975</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="8">
         <v>805654</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>80700</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="27">
         <v>4.87E-2</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="8">
         <v>22186</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="8">
         <v>5397</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="8">
         <v>27583</v>
       </c>
     </row>
@@ -7365,25 +7365,25 @@
       <c r="A54" s="6">
         <v>43976</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <v>821233</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>84841</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="27">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="8">
         <v>20198</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="8">
         <v>5953</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="8">
         <v>26152</v>
       </c>
     </row>
@@ -7391,25 +7391,25 @@
       <c r="A55" s="6">
         <v>43977</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="8">
         <v>855674</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>87565</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55" s="27">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="8">
         <v>22218</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="8">
         <v>6111</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="8">
         <v>28329</v>
       </c>
     </row>
@@ -7417,25 +7417,25 @@
       <c r="A56" s="6">
         <v>43978</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>873218</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>88643</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="27">
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="8">
         <v>21756</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="8">
         <v>5619</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="8">
         <v>27374</v>
       </c>
     </row>
@@ -7443,25 +7443,25 @@
       <c r="A57" s="6">
         <v>43979</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="8">
         <v>893275</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>96719</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="27">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="8">
         <v>21871</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="8">
         <v>5210</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="8">
         <v>27080</v>
       </c>
     </row>
@@ -7469,25 +7469,25 @@
       <c r="A58" s="6">
         <v>43980</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="8">
         <v>928517</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>98932</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="27">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="8">
         <v>23687</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="8">
         <v>3886</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="8">
         <v>27573</v>
       </c>
     </row>
@@ -7495,21 +7495,21 @@
       <c r="A59" s="6">
         <v>43981</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="8">
         <v>951865</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>102928</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9">
+      <c r="E59" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8">
         <v>26265</v>
       </c>
     </row>
@@ -7517,25 +7517,25 @@
       <c r="A60" s="6">
         <v>43982</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="8">
         <v>970031</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>103460</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="25">
-        <v>5.4381087378404525E-2</v>
-      </c>
-      <c r="F60" s="9">
+      <c r="E60" s="27">
+        <v>5.43810873784E-2</v>
+      </c>
+      <c r="F60" s="8">
         <v>23482</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="8">
         <v>3251</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="8">
         <v>26734</v>
       </c>
     </row>
@@ -7543,46 +7543,75 @@
       <c r="A61" s="6">
         <v>43983</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9">
+      <c r="B61" s="8">
+        <v>986224</v>
+      </c>
+      <c r="C61" s="8">
+        <v>107452</v>
+      </c>
+      <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="25"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-    </row>
-    <row r="63" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
+      <c r="E61" s="27">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F61" s="8">
+        <v>23570</v>
+      </c>
+      <c r="G61" s="8">
+        <v>3230</v>
+      </c>
+      <c r="H61" s="8">
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>43984</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1117274</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="64" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A64:E64"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A63:H63"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3711B965-728E-407E-B686-F01FC6A6F6E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E7" sqref="E7"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7592,49 +7621,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="B3" s="7">
-        <v>40811</v>
+        <v>41130</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="B4" s="7">
-        <v>1052865</v>
+        <v>1076144</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="B5" s="7">
-        <f>SUM(B3:B4)</f>
-        <v>1093676</v>
+        <v>1117274</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B7" s="12"/>
+      <c r="A7" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7647,55 +7675,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0579E56-3F26-4463-A600-1B39385FEE4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE35103-7BAB-40BF-8721-88EF595A3C37}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.81640625" style="16"/>
+    <col min="1" max="1" width="55" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.81640625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="15"/>
+      <c r="A1" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>268</v>
+      <c r="A2" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3" s="20">
-        <v>103460</v>
+      <c r="A3" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" s="16">
+        <v>107452</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="B4" s="20">
-        <v>4080</v>
+      <c r="A4" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="16">
+        <v>4258</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="B6" s="15"/>
+      <c r="A6" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7707,13 +7735,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7723,62 +7751,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="B3" s="7">
-        <v>1756</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B4" s="7">
-        <v>54362</v>
+        <v>54085</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="B5" s="7">
-        <v>16330</v>
+        <v>16575</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B6" s="7">
-        <v>1784</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B7" s="7">
-        <v>5824</v>
-      </c>
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7786,13 +7821,13 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7803,21 +7838,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8469,9 +8504,28 @@
         <v>1756</v>
       </c>
     </row>
+    <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="6">
+        <v>43984</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A64:C64"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8479,7 +8533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8492,167 +8546,167 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>278</v>
+      <c r="A2" s="10" t="s">
+        <v>295</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>280</v>
+        <v>296</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="9">
+        <v>298</v>
+      </c>
+      <c r="B3" s="8">
         <v>38</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="9">
-        <v>172</v>
-      </c>
-      <c r="C4" s="30">
-        <v>1.0999999999999999E-2</v>
+        <v>299</v>
+      </c>
+      <c r="B4" s="8">
+        <v>173</v>
+      </c>
+      <c r="C4" s="25">
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="9">
-        <v>443</v>
-      </c>
-      <c r="C5" s="30">
+        <v>300</v>
+      </c>
+      <c r="B5" s="8">
+        <v>445</v>
+      </c>
+      <c r="C5" s="25">
         <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B6" s="9">
-        <v>2316</v>
-      </c>
-      <c r="C6" s="30">
+        <v>301</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2317</v>
+      </c>
+      <c r="C6" s="25">
         <v>0.155</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2745</v>
-      </c>
-      <c r="C7" s="30">
+        <v>302</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2749</v>
+      </c>
+      <c r="C7" s="25">
         <v>0.183</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2805</v>
-      </c>
-      <c r="C8" s="30">
-        <v>0.18737474949899999</v>
+        <v>303</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2806</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.18717897405110001</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" s="9">
-        <v>2753</v>
-      </c>
-      <c r="C9" s="30">
+        <v>304</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2759</v>
+      </c>
+      <c r="C9" s="25">
         <v>0.184</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1161</v>
-      </c>
-      <c r="C10" s="30">
+        <v>305</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1164</v>
+      </c>
+      <c r="C10" s="25">
         <v>7.8E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="9">
-        <v>845</v>
-      </c>
-      <c r="C11" s="30">
-        <v>5.6446225784900002E-2</v>
+        <v>306</v>
+      </c>
+      <c r="B11" s="8">
+        <v>846</v>
+      </c>
+      <c r="C11" s="25">
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B12" s="9">
+        <v>307</v>
+      </c>
+      <c r="B12" s="8">
         <v>552</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="25">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B13" s="9">
-        <v>366</v>
-      </c>
-      <c r="C13" s="30">
+        <v>308</v>
+      </c>
+      <c r="B13" s="8">
+        <v>367</v>
+      </c>
+      <c r="C13" s="25">
         <v>2.4E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" s="9">
-        <v>651</v>
-      </c>
-      <c r="C14" s="30">
-        <v>4.34869739479E-2</v>
+        <v>309</v>
+      </c>
+      <c r="B14" s="8">
+        <v>652</v>
+      </c>
+      <c r="C14" s="25">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B15" s="9">
+        <v>310</v>
+      </c>
+      <c r="B15" s="8">
         <v>123</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="25">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -8660,26 +8714,26 @@
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="9">
-        <v>14970</v>
-      </c>
-      <c r="C16" s="30">
+      <c r="B16" s="8">
+        <v>14991</v>
+      </c>
+      <c r="C16" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8688,6 +8742,6 @@
     <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/original-sources/dshs.xlsx
+++ b/original-sources/dshs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C666D0FD-CA04-4875-8BC2-147104383655}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24AC05C7-D84B-4332-980E-C00DD5CF838C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="334">
   <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/02 at 10:45AM CST</t>
+    <t>COVID-19 Cases and Fatalities by County as of 6/04 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/02 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/04 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -839,7 +839,7 @@
 Fatalities</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/02 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/04 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -851,7 +851,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/02 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/04 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -875,7 +875,7 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/02 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/04 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -896,7 +896,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/02 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/04 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -917,7 +917,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/02 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/04 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -926,7 +926,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/02 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/04 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -981,10 +981,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          14,991</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/02 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          15,127</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/04 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -996,7 +996,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/02 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/04 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1017,16 +1017,16 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/02 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =          495</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 6/02 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/02 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/04 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =          664</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 6/04 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/04 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Number of Antibody Tests Reported (included in total test numbers)</t>
@@ -1035,7 +1035,7 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/1 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/3 at 3:00PM CST</t>
   </si>
   <si>
     <t>New Viral Tests Reported* (Average of previous 7 days)</t>
@@ -1056,7 +1056,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="##,###,##0"/>
     <numFmt numFmtId="167" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="169" formatCode="#####0"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="##0"/>
     <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
@@ -1179,7 +1179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1207,7 +1207,7 @@
     <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1215,6 +1215,21 @@
     </xf>
     <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1231,32 +1246,11 @@
     <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1267,10 +1261,13 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{4066FEC8-F14A-49ED-966F-DD3CFA06B059}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9E1020C7-F550-4053-A133-7258643FCC6F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1417,11 +1414,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1439,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -1461,7 +1458,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -1505,7 +1502,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1527,7 +1524,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1549,7 +1546,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
@@ -1571,7 +1568,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1582,10 +1579,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="C16" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1593,10 +1590,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>2839</v>
+        <v>2953</v>
       </c>
       <c r="C17" s="4">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1637,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="C21" s="4">
         <v>6</v>
@@ -1648,7 +1645,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>929</v>
+        <v>957</v>
       </c>
       <c r="C22" s="4">
         <v>12</v>
@@ -1659,10 +1656,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="C23" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1714,7 +1711,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1725,7 +1722,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -1736,7 +1733,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1758,7 +1755,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -1769,10 +1766,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>776</v>
+        <v>820</v>
       </c>
       <c r="C33" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1780,7 +1777,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -1805,7 +1802,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1813,7 +1810,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1824,7 +1821,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1835,7 +1832,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -1857,7 +1854,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
@@ -1890,7 +1887,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -1901,7 +1898,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>1312</v>
+        <v>1388</v>
       </c>
       <c r="C45" s="4">
         <v>34</v>
@@ -1923,7 +1920,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1934,7 +1931,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -1967,7 +1964,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1978,7 +1975,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -2022,7 +2019,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2044,7 +2041,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2055,10 +2052,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>10462</v>
+        <v>10958</v>
       </c>
       <c r="C59" s="4">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2066,7 +2063,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
@@ -2088,7 +2085,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C62" s="4">
         <v>13</v>
@@ -2099,7 +2096,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -2110,7 +2107,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1398</v>
+        <v>1435</v>
       </c>
       <c r="C64" s="4">
         <v>32</v>
@@ -2143,7 +2140,7 @@
         <v>68</v>
       </c>
       <c r="B67" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
@@ -2165,7 +2162,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" s="4">
         <v>0</v>
@@ -2176,7 +2173,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C70" s="4">
         <v>5</v>
@@ -2198,10 +2195,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>2833</v>
+        <v>3069</v>
       </c>
       <c r="C72" s="4">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2209,7 +2206,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C73" s="4">
         <v>15</v>
@@ -2231,7 +2228,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2242,7 +2239,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C76" s="4">
         <v>2</v>
@@ -2253,7 +2250,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2275,7 +2272,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -2297,10 +2294,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>1881</v>
+        <v>1951</v>
       </c>
       <c r="C81" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2308,7 +2305,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2352,10 +2349,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>847</v>
+        <v>876</v>
       </c>
       <c r="C86" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2363,7 +2360,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87" s="4">
         <v>0</v>
@@ -2407,10 +2404,10 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C91" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2418,7 +2415,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C92" s="4">
         <v>2</v>
@@ -2429,7 +2426,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C93" s="4">
         <v>2</v>
@@ -2440,10 +2437,10 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C94" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2451,7 +2448,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -2462,7 +2459,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -2473,7 +2470,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C97" s="4">
         <v>4</v>
@@ -2495,7 +2492,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -2506,7 +2503,7 @@
         <v>101</v>
       </c>
       <c r="B100" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C100" s="4">
         <v>2</v>
@@ -2517,7 +2514,7 @@
         <v>102</v>
       </c>
       <c r="B101" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" s="4">
         <v>0</v>
@@ -2528,7 +2525,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2539,10 +2536,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>12664</v>
+        <v>13268</v>
       </c>
       <c r="C103" s="4">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2550,10 +2547,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C104" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2583,10 +2580,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="C107" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2605,10 +2602,10 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C109" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2616,7 +2613,7 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>584</v>
+        <v>634</v>
       </c>
       <c r="C110" s="4">
         <v>11</v>
@@ -2627,7 +2624,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -2660,7 +2657,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -2671,7 +2668,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2693,7 +2690,7 @@
         <v>118</v>
       </c>
       <c r="B117" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C117" s="4">
         <v>0</v>
@@ -2704,7 +2701,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C118" s="4">
         <v>4</v>
@@ -2715,7 +2712,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -2781,10 +2778,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>562</v>
+        <v>585</v>
       </c>
       <c r="C125" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2803,7 +2800,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2814,7 +2811,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2825,7 +2822,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>606</v>
+        <v>636</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2847,7 +2844,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C131" s="4">
         <v>2</v>
@@ -2858,7 +2855,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -2968,7 +2965,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C142" s="4">
         <v>11</v>
@@ -3001,7 +2998,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3012,7 +3009,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C146" s="4">
         <v>1</v>
@@ -3034,7 +3031,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3045,7 +3042,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3056,7 +3053,7 @@
         <v>151</v>
       </c>
       <c r="B150" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C150" s="4">
         <v>0</v>
@@ -3100,7 +3097,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C154" s="4">
         <v>50</v>
@@ -3111,7 +3108,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
@@ -3122,7 +3119,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3133,7 +3130,7 @@
         <v>158</v>
       </c>
       <c r="B157" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C157" s="4">
         <v>1</v>
@@ -3166,7 +3163,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3177,7 +3174,7 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C161" s="4">
         <v>1</v>
@@ -3199,7 +3196,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C163" s="4">
         <v>4</v>
@@ -3221,7 +3218,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3243,10 +3240,10 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C167" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3298,7 +3295,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>966</v>
+        <v>1033</v>
       </c>
       <c r="C172" s="4">
         <v>26</v>
@@ -3309,7 +3306,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="C173" s="4">
         <v>13</v>
@@ -3320,7 +3317,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3342,7 +3339,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C176" s="4">
         <v>21</v>
@@ -3353,7 +3350,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C177" s="4">
         <v>2</v>
@@ -3375,7 +3372,7 @@
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3386,7 +3383,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C180" s="4">
         <v>3</v>
@@ -3397,7 +3394,7 @@
         <v>182</v>
       </c>
       <c r="B181" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
@@ -3419,7 +3416,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C183" s="4">
         <v>2</v>
@@ -3441,7 +3438,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="C185" s="4">
         <v>23</v>
@@ -3452,7 +3449,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3463,7 +3460,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
@@ -3474,7 +3471,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3496,10 +3493,10 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2354</v>
+        <v>2488</v>
       </c>
       <c r="C190" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3518,7 +3515,7 @@
         <v>193</v>
       </c>
       <c r="B192" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -3529,7 +3526,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>688</v>
+        <v>715</v>
       </c>
       <c r="C193" s="4">
         <v>6</v>
@@ -3562,7 +3559,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C196" s="4">
         <v>8</v>
@@ -3617,7 +3614,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C201" s="4">
         <v>14</v>
@@ -3639,7 +3636,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3653,7 +3650,7 @@
         <v>15</v>
       </c>
       <c r="C204" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3664,7 +3661,7 @@
         <v>44</v>
       </c>
       <c r="C205" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3672,7 +3669,7 @@
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -3716,7 +3713,7 @@
         <v>211</v>
       </c>
       <c r="B210" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C210" s="4">
         <v>0</v>
@@ -3738,10 +3735,10 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C212" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3760,7 +3757,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3782,7 +3779,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3837,7 +3834,7 @@
         <v>222</v>
       </c>
       <c r="B221" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C221" s="4">
         <v>0</v>
@@ -3848,10 +3845,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>5534</v>
+        <v>5761</v>
       </c>
       <c r="C222" s="4">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3859,7 +3856,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3903,7 +3900,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="C227" s="4">
         <v>2</v>
@@ -3914,7 +3911,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3925,10 +3922,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>3360</v>
+        <v>3501</v>
       </c>
       <c r="C229" s="4">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3936,7 +3933,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -3947,7 +3944,7 @@
         <v>232</v>
       </c>
       <c r="B231" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -3958,7 +3955,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -3980,7 +3977,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4002,7 +3999,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C236" s="4">
         <v>1</v>
@@ -4013,7 +4010,7 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C237" s="4">
         <v>7</v>
@@ -4024,7 +4021,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1574</v>
+        <v>1801</v>
       </c>
       <c r="C238" s="4">
         <v>27</v>
@@ -4035,7 +4032,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4057,7 +4054,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C241" s="4">
         <v>25</v>
@@ -4068,7 +4065,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="C242" s="4">
         <v>19</v>
@@ -4079,10 +4076,10 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C243" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4134,7 +4131,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="C248" s="4">
         <v>25</v>
@@ -4145,7 +4142,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4167,7 +4164,7 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C251" s="4">
         <v>3</v>
@@ -4178,10 +4175,10 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C252" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4211,7 +4208,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4233,10 +4230,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>66568</v>
+        <v>69920</v>
       </c>
       <c r="C257" s="4">
-        <v>1698</v>
+        <v>1767</v>
       </c>
     </row>
   </sheetData>
@@ -4262,15 +4259,15 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08984375" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4288,10 +4285,10 @@
         <v>315</v>
       </c>
       <c r="B3" s="8">
-        <v>6760</v>
-      </c>
-      <c r="C3" s="25">
-        <v>0.45100000000000001</v>
+        <v>6777</v>
+      </c>
+      <c r="C3" s="27">
+        <v>0.44800000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4299,10 +4296,10 @@
         <v>316</v>
       </c>
       <c r="B4" s="8">
-        <v>7948</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0.53</v>
+        <v>8066</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4310,9 +4307,9 @@
         <v>310</v>
       </c>
       <c r="B5" s="8">
-        <v>283</v>
-      </c>
-      <c r="C5" s="25">
+        <v>284</v>
+      </c>
+      <c r="C5" s="27">
         <v>1.9E-2</v>
       </c>
     </row>
@@ -4321,25 +4318,25 @@
         <v>258</v>
       </c>
       <c r="B6" s="8">
-        <v>14991</v>
-      </c>
-      <c r="C6" s="25">
+        <v>15127</v>
+      </c>
+      <c r="C6" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4366,15 +4363,15 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4392,9 +4389,9 @@
         <v>319</v>
       </c>
       <c r="B3" s="8">
-        <v>500</v>
-      </c>
-      <c r="C3" s="25">
+        <v>503</v>
+      </c>
+      <c r="C3" s="27">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
@@ -4403,10 +4400,10 @@
         <v>320</v>
       </c>
       <c r="B4" s="8">
-        <v>2369</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0.158</v>
+        <v>2404</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0.159</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4414,9 +4411,9 @@
         <v>321</v>
       </c>
       <c r="B5" s="8">
-        <v>5963</v>
-      </c>
-      <c r="C5" s="25">
+        <v>6018</v>
+      </c>
+      <c r="C5" s="27">
         <v>0.39800000000000002</v>
       </c>
     </row>
@@ -4425,9 +4422,9 @@
         <v>322</v>
       </c>
       <c r="B6" s="8">
-        <v>96</v>
-      </c>
-      <c r="C6" s="25">
+        <v>97</v>
+      </c>
+      <c r="C6" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -4436,9 +4433,9 @@
         <v>323</v>
       </c>
       <c r="B7" s="8">
-        <v>4121</v>
-      </c>
-      <c r="C7" s="25">
+        <v>4157</v>
+      </c>
+      <c r="C7" s="27">
         <v>0.27500000000000002</v>
       </c>
     </row>
@@ -4447,10 +4444,10 @@
         <v>310</v>
       </c>
       <c r="B8" s="8">
-        <v>1942</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0.13</v>
+        <v>1948</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.129</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4458,25 +4455,25 @@
         <v>258</v>
       </c>
       <c r="B9" s="8">
-        <v>14991</v>
-      </c>
-      <c r="C9" s="25">
+        <v>15127</v>
+      </c>
+      <c r="C9" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4507,11 +4504,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4531,7 +4528,7 @@
       <c r="B3" s="11">
         <v>0</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4542,7 +4539,7 @@
       <c r="B4" s="11">
         <v>0</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4553,8 +4550,8 @@
       <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="25">
-        <v>4.0404040404000002E-3</v>
+      <c r="C5" s="27">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4564,8 +4561,8 @@
       <c r="B6" s="11">
         <v>11</v>
       </c>
-      <c r="C6" s="25">
-        <v>2.1999999999999999E-2</v>
+      <c r="C6" s="27">
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4573,10 +4570,10 @@
         <v>302</v>
       </c>
       <c r="B7" s="11">
-        <v>9</v>
-      </c>
-      <c r="C7" s="25">
-        <v>1.7999999999999999E-2</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4584,10 +4581,10 @@
         <v>303</v>
       </c>
       <c r="B8" s="11">
-        <v>21</v>
-      </c>
-      <c r="C8" s="25">
-        <v>4.2000000000000003E-2</v>
+        <v>26</v>
+      </c>
+      <c r="C8" s="27">
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4595,10 +4592,10 @@
         <v>304</v>
       </c>
       <c r="B9" s="11">
-        <v>54</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0.109</v>
+        <v>72</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0.108</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4606,10 +4603,10 @@
         <v>305</v>
       </c>
       <c r="B10" s="11">
-        <v>45</v>
-      </c>
-      <c r="C10" s="25">
-        <v>9.0999999999999998E-2</v>
+        <v>60</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0.09</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4617,10 +4614,10 @@
         <v>306</v>
       </c>
       <c r="B11" s="11">
-        <v>58</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.11700000000000001</v>
+        <v>74</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0.111</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4628,10 +4625,10 @@
         <v>307</v>
       </c>
       <c r="B12" s="11">
-        <v>47</v>
-      </c>
-      <c r="C12" s="25">
-        <v>9.5000000000000001E-2</v>
+        <v>69</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0.1039156626506</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4639,10 +4636,10 @@
         <v>308</v>
       </c>
       <c r="B13" s="11">
-        <v>46</v>
-      </c>
-      <c r="C13" s="25">
-        <v>9.2999999999999999E-2</v>
+        <v>70</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.105</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4650,10 +4647,10 @@
         <v>309</v>
       </c>
       <c r="B14" s="11">
-        <v>199</v>
-      </c>
-      <c r="C14" s="25">
-        <v>0.4020202020202</v>
+        <v>265</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0.39900000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4661,10 +4658,10 @@
         <v>310</v>
       </c>
       <c r="B15" s="11">
-        <v>3</v>
-      </c>
-      <c r="C15" s="25">
-        <v>6.0000000000000001E-3</v>
+        <v>2</v>
+      </c>
+      <c r="C15" s="27">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4672,25 +4669,25 @@
         <v>258</v>
       </c>
       <c r="B16" s="11">
-        <v>495</v>
-      </c>
-      <c r="C16" s="25">
+        <v>664</v>
+      </c>
+      <c r="C16" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4721,11 +4718,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4743,10 +4740,10 @@
         <v>315</v>
       </c>
       <c r="B3" s="11">
-        <v>193</v>
-      </c>
-      <c r="C3" s="25">
-        <v>0.39</v>
+        <v>272</v>
+      </c>
+      <c r="C3" s="27">
+        <v>0.41</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4754,10 +4751,10 @@
         <v>316</v>
       </c>
       <c r="B4" s="11">
-        <v>271</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0.54700000000000004</v>
+        <v>364</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4765,10 +4762,10 @@
         <v>310</v>
       </c>
       <c r="B5" s="11">
-        <v>31</v>
-      </c>
-      <c r="C5" s="25">
-        <v>6.3E-2</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="27">
+        <v>4.21686746988E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4776,25 +4773,25 @@
         <v>258</v>
       </c>
       <c r="B6" s="11">
-        <v>495</v>
-      </c>
-      <c r="C6" s="25">
+        <v>664</v>
+      </c>
+      <c r="C6" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4821,15 +4818,15 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4847,10 +4844,10 @@
         <v>319</v>
       </c>
       <c r="B3" s="11">
-        <v>6</v>
-      </c>
-      <c r="C3" s="25">
-        <v>1.2E-2</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="27">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4858,10 +4855,10 @@
         <v>320</v>
       </c>
       <c r="B4" s="11">
-        <v>67</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0.13500000000000001</v>
+        <v>85</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0.128</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4869,10 +4866,10 @@
         <v>321</v>
       </c>
       <c r="B5" s="11">
-        <v>123</v>
-      </c>
-      <c r="C5" s="25">
-        <v>0.248</v>
+        <v>171</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4880,10 +4877,10 @@
         <v>322</v>
       </c>
       <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="25">
-        <v>2.0202020202000001E-3</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="27">
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4891,10 +4888,10 @@
         <v>323</v>
       </c>
       <c r="B7" s="11">
-        <v>183</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0.37</v>
+        <v>269</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4902,10 +4899,10 @@
         <v>310</v>
       </c>
       <c r="B8" s="11">
-        <v>115</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0.23200000000000001</v>
+        <v>121</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.182</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4913,25 +4910,25 @@
         <v>258</v>
       </c>
       <c r="B9" s="11">
-        <v>495</v>
-      </c>
-      <c r="C9" s="25">
+        <v>664</v>
+      </c>
+      <c r="C9" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4946,7 +4943,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -4963,22 +4960,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6168,6 +6165,40 @@
       </c>
       <c r="E72" s="4">
         <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>43985</v>
+      </c>
+      <c r="B73" s="4">
+        <v>68271</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1734</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1703</v>
+      </c>
+      <c r="E73" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>43986</v>
+      </c>
+      <c r="B74" s="4">
+        <v>69920</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1767</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1649</v>
+      </c>
+      <c r="E74" s="4">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6187,7 +6218,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6197,10 +6228,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6212,17 +6243,17 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>44517</v>
+        <v>46799</v>
       </c>
       <c r="B3" s="7">
-        <v>20353</v>
+        <v>21354</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6236,10 +6267,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
@@ -6250,22 +6281,22 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>261</v>
       </c>
@@ -6278,16 +6309,16 @@
       <c r="D2" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="5" t="s">
         <v>333</v>
       </c>
     </row>
@@ -6304,12 +6335,12 @@
       <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="25">
         <v>0.1056</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -6324,12 +6355,12 @@
       <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="25">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -6344,12 +6375,12 @@
       <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>8.8909998585200004E-2</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -6364,12 +6395,12 @@
       <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>0.1094</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -6384,12 +6415,12 @@
       <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>0.11070000000000001</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -6404,12 +6435,12 @@
       <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>0.100351636462</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -6424,12 +6455,12 @@
       <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>0.1055125178708</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -6444,12 +6475,12 @@
       <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
         <v>0.11360000000000001</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -6464,12 +6495,12 @@
       <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <v>0.12479999999999999</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -6484,12 +6515,12 @@
       <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="25">
         <v>0.1386</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -6504,12 +6535,12 @@
       <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="25">
         <v>0.1101</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -6524,12 +6555,12 @@
       <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="25">
         <v>0.1105</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -6544,12 +6575,12 @@
       <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <v>0.1188</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -6564,12 +6595,12 @@
       <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="25">
         <v>0.10630000000000001</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
@@ -6584,12 +6615,12 @@
       <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="25">
         <v>0.1023</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -6604,12 +6635,12 @@
       <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="25">
         <v>9.35E-2</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -6624,12 +6655,12 @@
       <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="25">
         <v>9.7117268401900006E-2</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -6644,12 +6675,12 @@
       <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="25">
         <v>9.4500000000000001E-2</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
@@ -6664,12 +6695,12 @@
       <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="25">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
@@ -6684,12 +6715,12 @@
       <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="25">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
@@ -6704,12 +6735,12 @@
       <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="25">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
@@ -6724,12 +6755,12 @@
       <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="25">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
@@ -6744,12 +6775,12 @@
       <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="25">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
@@ -6764,12 +6795,12 @@
       <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="25">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
@@ -6784,12 +6815,12 @@
       <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="25">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
@@ -6804,12 +6835,12 @@
       <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="25">
         <v>6.10670666381E-2</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
@@ -6824,12 +6855,12 @@
       <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="25">
         <v>5.8381327098900003E-2</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
@@ -6844,12 +6875,12 @@
       <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="25">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
@@ -6864,12 +6895,12 @@
       <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="25">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
@@ -6884,12 +6915,12 @@
       <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="25">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
@@ -6904,12 +6935,12 @@
       <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="25">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
@@ -6924,12 +6955,12 @@
       <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="25">
         <v>5.6754924069199998E-2</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
@@ -6944,12 +6975,12 @@
       <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="25">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
@@ -6964,12 +6995,12 @@
       <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="25">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
@@ -6984,12 +7015,12 @@
       <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="25">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
@@ -7004,12 +7035,12 @@
       <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="25">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
@@ -7024,12 +7055,12 @@
       <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="25">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
@@ -7044,12 +7075,12 @@
       <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="25">
         <v>6.3711443038399998E-2</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
@@ -7064,12 +7095,12 @@
       <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="25">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
@@ -7084,12 +7115,12 @@
       <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="25">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
@@ -7104,12 +7135,12 @@
       <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="25">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
@@ -7124,12 +7155,12 @@
       <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="25">
         <v>5.0900000000000001E-2</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
@@ -7144,7 +7175,7 @@
       <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="25">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="F45" s="8">
@@ -7170,7 +7201,7 @@
       <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="25">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="F46" s="8">
@@ -7196,7 +7227,7 @@
       <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="25">
         <v>4.4720144337000001E-2</v>
       </c>
       <c r="F47" s="8">
@@ -7222,7 +7253,7 @@
       <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="25">
         <v>4.7E-2</v>
       </c>
       <c r="F48" s="8">
@@ -7248,7 +7279,7 @@
       <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="25">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F49" s="8">
@@ -7274,7 +7305,7 @@
       <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="25">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="F50" s="8">
@@ -7300,7 +7331,7 @@
       <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="25">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="F51" s="8">
@@ -7326,7 +7357,7 @@
       <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="25" t="s">
         <v>275</v>
       </c>
       <c r="F52" s="8"/>
@@ -7348,7 +7379,7 @@
       <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="25">
         <v>4.87E-2</v>
       </c>
       <c r="F53" s="8">
@@ -7374,7 +7405,7 @@
       <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="27">
+      <c r="E54" s="25">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F54" s="8">
@@ -7400,7 +7431,7 @@
       <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="27">
+      <c r="E55" s="25">
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="F55" s="8">
@@ -7426,7 +7457,7 @@
       <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="27">
+      <c r="E56" s="25">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="F56" s="8">
@@ -7452,7 +7483,7 @@
       <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E57" s="25">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F57" s="8">
@@ -7478,7 +7509,7 @@
       <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="27">
+      <c r="E58" s="25">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="F58" s="8">
@@ -7504,7 +7535,7 @@
       <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="25" t="s">
         <v>275</v>
       </c>
       <c r="F59" s="8"/>
@@ -7526,7 +7557,7 @@
       <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E60" s="25">
         <v>5.43810873784E-2</v>
       </c>
       <c r="F60" s="8">
@@ -7552,7 +7583,7 @@
       <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="25">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F61" s="8">
@@ -7569,38 +7600,90 @@
       <c r="A62" s="6">
         <v>43984</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>275</v>
+      <c r="B62" s="8">
+        <v>1006768</v>
+      </c>
+      <c r="C62" s="8">
+        <v>110506</v>
       </c>
       <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E62" s="25">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="F62" s="8">
+        <v>21585</v>
+      </c>
+      <c r="G62" s="8">
+        <v>3277</v>
+      </c>
+      <c r="H62" s="8">
+        <v>24862</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>43985</v>
+      </c>
+      <c r="B63" s="8">
+        <v>1038555</v>
+      </c>
+      <c r="C63" s="8">
+        <v>112313</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1150868</v>
+      </c>
+      <c r="E63" s="25">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="F63" s="8">
+        <v>23620</v>
+      </c>
+      <c r="G63" s="8">
+        <v>3381</v>
+      </c>
+      <c r="H63" s="8">
+        <v>27001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>43986</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-    </row>
-    <row r="64" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
+      <c r="C64" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D64" s="8">
+        <v>1174948</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="66" spans="1:5" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A66:E66"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7621,10 +7704,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7639,7 +7722,7 @@
         <v>280</v>
       </c>
       <c r="B3" s="7">
-        <v>41130</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7647,7 +7730,7 @@
         <v>281</v>
       </c>
       <c r="B4" s="7">
-        <v>1076144</v>
+        <v>1130317</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7655,14 +7738,14 @@
         <v>282</v>
       </c>
       <c r="B5" s="7">
-        <v>1117274</v>
+        <v>1174948</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7675,55 +7758,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE35103-7BAB-40BF-8721-88EF595A3C37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC13BBB4-C2E4-4EEE-BE56-FE6321B51E9C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.81640625" style="12"/>
+    <col min="1" max="1" width="55" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.81640625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="B3" s="16">
-        <v>107452</v>
+      <c r="B3" s="21">
+        <v>112313</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="B4" s="16">
-        <v>4258</v>
+      <c r="B4" s="21">
+        <v>4500</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7741,7 +7824,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7751,10 +7834,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7769,7 +7852,7 @@
         <v>286</v>
       </c>
       <c r="B3" s="7">
-        <v>1773</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7777,7 +7860,7 @@
         <v>287</v>
       </c>
       <c r="B4" s="7">
-        <v>54085</v>
+        <v>56002</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7785,7 +7868,7 @@
         <v>288</v>
       </c>
       <c r="B5" s="7">
-        <v>16575</v>
+        <v>15219</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7793,7 +7876,7 @@
         <v>289</v>
       </c>
       <c r="B6" s="7">
-        <v>1764</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7805,10 +7888,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7822,12 +7905,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7838,11 +7921,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8515,17 +8598,39 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
+    <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="6">
+        <v>43985</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="6">
+        <v>43986</v>
+      </c>
+      <c r="C64" s="7">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A66:C66"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8546,15 +8651,15 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -8574,7 +8679,7 @@
       <c r="B3" s="8">
         <v>38</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="27">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -8583,9 +8688,9 @@
         <v>299</v>
       </c>
       <c r="B4" s="8">
-        <v>173</v>
-      </c>
-      <c r="C4" s="25">
+        <v>174</v>
+      </c>
+      <c r="C4" s="27">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -8594,9 +8699,9 @@
         <v>300</v>
       </c>
       <c r="B5" s="8">
-        <v>445</v>
-      </c>
-      <c r="C5" s="25">
+        <v>452</v>
+      </c>
+      <c r="C5" s="27">
         <v>0.03</v>
       </c>
     </row>
@@ -8605,10 +8710,10 @@
         <v>301</v>
       </c>
       <c r="B6" s="8">
-        <v>2317</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0.155</v>
+        <v>2329</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.154</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8616,10 +8721,10 @@
         <v>302</v>
       </c>
       <c r="B7" s="8">
-        <v>2749</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0.183</v>
+        <v>2776</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.184</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8627,10 +8732,10 @@
         <v>303</v>
       </c>
       <c r="B8" s="8">
-        <v>2806</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0.18717897405110001</v>
+        <v>2829</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.187</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8638,9 +8743,9 @@
         <v>304</v>
       </c>
       <c r="B9" s="8">
-        <v>2759</v>
-      </c>
-      <c r="C9" s="25">
+        <v>2789</v>
+      </c>
+      <c r="C9" s="27">
         <v>0.184</v>
       </c>
     </row>
@@ -8649,9 +8754,9 @@
         <v>305</v>
       </c>
       <c r="B10" s="8">
-        <v>1164</v>
-      </c>
-      <c r="C10" s="25">
+        <v>1176</v>
+      </c>
+      <c r="C10" s="27">
         <v>7.8E-2</v>
       </c>
     </row>
@@ -8660,10 +8765,10 @@
         <v>306</v>
       </c>
       <c r="B11" s="8">
-        <v>846</v>
-      </c>
-      <c r="C11" s="25">
-        <v>5.6000000000000001E-2</v>
+        <v>859</v>
+      </c>
+      <c r="C11" s="27">
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8671,9 +8776,9 @@
         <v>307</v>
       </c>
       <c r="B12" s="8">
-        <v>552</v>
-      </c>
-      <c r="C12" s="25">
+        <v>556</v>
+      </c>
+      <c r="C12" s="27">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
@@ -8682,10 +8787,10 @@
         <v>308</v>
       </c>
       <c r="B13" s="8">
-        <v>367</v>
-      </c>
-      <c r="C13" s="25">
-        <v>2.4E-2</v>
+        <v>373</v>
+      </c>
+      <c r="C13" s="27">
+        <v>2.4657896476500001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8693,9 +8798,9 @@
         <v>309</v>
       </c>
       <c r="B14" s="8">
-        <v>652</v>
-      </c>
-      <c r="C14" s="25">
+        <v>653</v>
+      </c>
+      <c r="C14" s="27">
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
@@ -8706,7 +8811,7 @@
       <c r="B15" s="8">
         <v>123</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="27">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -8715,25 +8820,25 @@
         <v>258</v>
       </c>
       <c r="B16" s="8">
-        <v>14991</v>
-      </c>
-      <c r="C16" s="25">
+        <v>15127</v>
+      </c>
+      <c r="C16" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8742,6 +8847,6 @@
     <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>